--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maray\OneDrive\Documentos\Git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF316881-0205-4160-B76F-D34993FA6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DF23FA-E8A6-4CD2-98C1-5DE1B88DF991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11990" yWindow="110" windowWidth="16730" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="1289">
   <si>
     <t>source</t>
   </si>
@@ -3869,6 +3869,39 @@
   </si>
   <si>
     <t>SM3/DAY/BARSA</t>
+  </si>
+  <si>
+    <t>F/ft</t>
+  </si>
+  <si>
+    <t>C/m</t>
+  </si>
+  <si>
+    <t>F/in</t>
+  </si>
+  <si>
+    <t>F/yd</t>
+  </si>
+  <si>
+    <t>C/km</t>
+  </si>
+  <si>
+    <t>K/m</t>
+  </si>
+  <si>
+    <t>C/cm</t>
+  </si>
+  <si>
+    <t>C/min</t>
+  </si>
+  <si>
+    <t>C/day</t>
+  </si>
+  <si>
+    <t>C/hour</t>
+  </si>
+  <si>
+    <t>F/s</t>
   </si>
 </sst>
 </file>
@@ -3927,7 +3960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3936,6 +3969,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4274,13 +4310,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2562"/>
+  <dimension ref="A1:F2570"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2543" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F990" sqref="F990"/>
+      <selection pane="bottomRight" activeCell="B2558" sqref="B2558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54145,7 +54181,7 @@
         <v>1</v>
       </c>
       <c r="F2367">
-        <f t="shared" ref="F2360:F2423" si="44">IF(C2367=D2367,1,"")</f>
+        <f t="shared" ref="F2367:F2423" si="44">IF(C2367=D2367,1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -57583,7 +57619,7 @@
         <v>2525</v>
       </c>
       <c r="B2527" s="2" t="str">
-        <f t="shared" ref="B2527:B2562" si="49">C2527&amp;" -&gt; " &amp;D2527</f>
+        <f t="shared" ref="B2527:B2570" si="49">C2527&amp;" -&gt; " &amp;D2527</f>
         <v>CALORIE -&gt; calorie</v>
       </c>
       <c r="C2527" t="s">
@@ -58351,6 +58387,181 @@
       <c r="F2562">
         <f t="shared" si="50"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2563" s="1">
+        <v>2561</v>
+      </c>
+      <c r="B2563" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>F/ft -&gt; C/m</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D2563" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E2563">
+        <v>1</v>
+      </c>
+      <c r="F2563">
+        <f>E2563*(5/9)/(1*0.3048)</f>
+        <v>1.8226888305628464</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2564" s="1">
+        <v>2562</v>
+      </c>
+      <c r="B2564" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>C/m -&gt; F/ft</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D2564" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E2564">
+        <v>1</v>
+      </c>
+      <c r="F2564">
+        <f>E2564*(9/5)/(1/0.3048)</f>
+        <v>0.54864000000000013</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2565" s="1">
+        <v>2563</v>
+      </c>
+      <c r="B2565" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>F/yd -&gt; F/in</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D2565" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E2565">
+        <v>1</v>
+      </c>
+      <c r="F2565">
+        <f>E2565/(1*3*12)</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2566" s="1">
+        <v>2564</v>
+      </c>
+      <c r="B2566" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>F/ft -&gt; C/km</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D2566" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E2566">
+        <v>1</v>
+      </c>
+      <c r="F2566">
+        <f>E2566*(5/9)/(1*0.3048/1000)</f>
+        <v>1822.6888305628461</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2567" s="1">
+        <v>2565</v>
+      </c>
+      <c r="B2567" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>K/m -&gt; C/m</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D2567" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E2567">
+        <v>1</v>
+      </c>
+      <c r="F2567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2568" s="1">
+        <v>2566</v>
+      </c>
+      <c r="B2568" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>K/m -&gt; C/cm</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D2568" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E2568">
+        <v>1</v>
+      </c>
+      <c r="F2568">
+        <f>E2568/100</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2569" s="1">
+        <v>2567</v>
+      </c>
+      <c r="B2569" s="2" t="str">
+        <f t="shared" si="49"/>
+        <v>C/min -&gt; C/hour</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D2569" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E2569">
+        <v>1</v>
+      </c>
+      <c r="F2569">
+        <f>E2569/(1/60)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2570" s="1">
+        <v>2568</v>
+      </c>
+      <c r="B2570" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>C/day -&gt; F/s</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D2570" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E2570">
+        <v>250</v>
+      </c>
+      <c r="F2570">
+        <f>E2570*(9/5)/(1*24*60*60)</f>
+        <v>5.208333333333333E-3</v>
       </c>
     </row>
   </sheetData>

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932C6DC-6CB9-4D81-B486-B6EDEA154875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0A1D2-F775-40D1-A39C-0FA56936CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="20280" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17530" yWindow="5010" windowWidth="20280" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4590" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="1172">
   <si>
     <t>source</t>
   </si>
@@ -2901,9 +2901,6 @@
     <t>bit</t>
   </si>
   <si>
-    <t>bits</t>
-  </si>
-  <si>
     <t>centipoise</t>
   </si>
   <si>
@@ -3547,6 +3544,12 @@
   </si>
   <si>
     <t>0.1 in</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>BIT</t>
   </si>
 </sst>
 </file>
@@ -3939,13 +3942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2293"/>
+  <dimension ref="A1:F2300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3957,10 +3960,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3972,7 +3975,7 @@
         <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -8229,7 +8232,7 @@
         <v>105</v>
       </c>
       <c r="D204" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -8352,7 +8355,7 @@
         <v>Centigrade -&gt; Celsius</v>
       </c>
       <c r="C210" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D210" t="s">
         <v>105</v>
@@ -10791,7 +10794,7 @@
         <v>157</v>
       </c>
       <c r="D326" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -11061,10 +11064,10 @@
         <v>tenth -&gt; te</v>
       </c>
       <c r="C339" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D339" t="s">
         <v>1167</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1168</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -11082,10 +11085,10 @@
         <v>tenth -&gt; TENTH</v>
       </c>
       <c r="C340" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D340" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -11103,7 +11106,7 @@
         <v>tenth -&gt; inch</v>
       </c>
       <c r="C341" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D341" t="s">
         <v>168</v>
@@ -11124,10 +11127,10 @@
         <v>te -&gt; tenth</v>
       </c>
       <c r="C342" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D342" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -11145,10 +11148,10 @@
         <v>tenth -&gt; 0.1 in</v>
       </c>
       <c r="C343" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D343" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -11169,7 +11172,7 @@
         <v>168</v>
       </c>
       <c r="D344" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -13878,7 +13881,7 @@
         <v>229</v>
       </c>
       <c r="D473" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E473">
         <v>1</v>
@@ -20070,7 +20073,7 @@
         <v>fluid ounce -&gt; fl oz</v>
       </c>
       <c r="C768" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D768" t="s">
         <v>385</v>
@@ -20091,7 +20094,7 @@
         <v>fluid ounce -&gt; oz</v>
       </c>
       <c r="C769" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D769" t="s">
         <v>386</v>
@@ -20112,7 +20115,7 @@
         <v>fluid ounce -&gt; ounce</v>
       </c>
       <c r="C770" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D770" t="s">
         <v>387</v>
@@ -20133,10 +20136,10 @@
         <v>fluid ounce -&gt; fluid ounces</v>
       </c>
       <c r="C771" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D771" t="s">
         <v>1158</v>
-      </c>
-      <c r="D771" t="s">
-        <v>1159</v>
       </c>
       <c r="E771">
         <v>1</v>
@@ -20154,10 +20157,10 @@
         <v>fluid ounce -&gt; FLUID OUNCES</v>
       </c>
       <c r="C772" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D772" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E772">
         <v>1</v>
@@ -20175,10 +20178,10 @@
         <v>fluid ounce -&gt; FLUID OUNCE</v>
       </c>
       <c r="C773" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D773" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E773">
         <v>1</v>
@@ -20196,7 +20199,7 @@
         <v>fluid ounce -&gt; gill</v>
       </c>
       <c r="C774" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D774" t="s">
         <v>388</v>
@@ -20220,7 +20223,7 @@
         <v>385</v>
       </c>
       <c r="D775" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E775">
         <v>1</v>
@@ -20262,7 +20265,7 @@
         <v>386</v>
       </c>
       <c r="D777" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E777">
         <v>1</v>
@@ -20325,7 +20328,7 @@
         <v>387</v>
       </c>
       <c r="D780" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E780">
         <v>1</v>
@@ -20556,7 +20559,7 @@
         <v>388</v>
       </c>
       <c r="D791" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E791">
         <v>1</v>
@@ -21540,10 +21543,10 @@
         <v>fluid ounces -&gt; fluid ounce</v>
       </c>
       <c r="C838" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D838" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E838">
         <v>1</v>
@@ -21624,10 +21627,10 @@
         <v>FLUID OUNCES -&gt; fluid ounce</v>
       </c>
       <c r="C842" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D842" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E842">
         <v>1</v>
@@ -21708,10 +21711,10 @@
         <v>FLUID OUNCE -&gt; fluid ounce</v>
       </c>
       <c r="C846" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D846" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E846">
         <v>1</v>
@@ -22191,7 +22194,7 @@
         <v>millilitre -&gt; ml</v>
       </c>
       <c r="C869" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D869" t="s">
         <v>157</v>
@@ -22212,10 +22215,10 @@
         <v>millilitre -&gt; milliliter</v>
       </c>
       <c r="C870" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D870" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E870">
         <v>1</v>
@@ -22233,7 +22236,7 @@
         <v>millilitre -&gt; cubic centimeter</v>
       </c>
       <c r="C871" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D871" t="s">
         <v>426</v>
@@ -22254,10 +22257,10 @@
         <v>millilitre -&gt; millilitres</v>
       </c>
       <c r="C872" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D872" t="s">
         <v>1156</v>
-      </c>
-      <c r="D872" t="s">
-        <v>1157</v>
       </c>
       <c r="E872">
         <v>1</v>
@@ -22275,10 +22278,10 @@
         <v>millilitre -&gt; MILLILITRES</v>
       </c>
       <c r="C873" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D873" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E873">
         <v>1</v>
@@ -22296,10 +22299,10 @@
         <v>millilitre -&gt; millilitre</v>
       </c>
       <c r="C874" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D874" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E874">
         <v>1</v>
@@ -22317,10 +22320,10 @@
         <v>milliliter -&gt; millilitre</v>
       </c>
       <c r="C875" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D875" t="s">
         <v>1155</v>
-      </c>
-      <c r="D875" t="s">
-        <v>1156</v>
       </c>
       <c r="E875">
         <v>1</v>
@@ -22338,10 +22341,10 @@
         <v>milliliter -&gt; milliliter</v>
       </c>
       <c r="C876" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D876" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E876">
         <v>1</v>
@@ -22362,7 +22365,7 @@
         <v>426</v>
       </c>
       <c r="D877" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E877">
         <v>1</v>
@@ -26721,10 +26724,10 @@
         <v>MILLILITRES -&gt; millilitre</v>
       </c>
       <c r="C1085" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D1085" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E1085">
         <v>1</v>
@@ -32415,7 +32418,7 @@
         <v>651</v>
       </c>
       <c r="D1356" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E1356">
         <v>1</v>
@@ -32772,7 +32775,7 @@
         <v>656</v>
       </c>
       <c r="D1373" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E1373">
         <v>1</v>
@@ -40899,7 +40902,7 @@
         <v>875</v>
       </c>
       <c r="D1760" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E1760">
         <v>1</v>
@@ -42971,7 +42974,7 @@
         <v>1857</v>
       </c>
       <c r="B1859" s="2" t="str">
-        <f t="shared" ref="B1859:B1922" si="29">C1859&amp;" -&gt; " &amp;D1859</f>
+        <f t="shared" ref="B1859:B1929" si="29">C1859&amp;" -&gt; " &amp;D1859</f>
         <v>sm3/day -&gt; stm3d</v>
       </c>
       <c r="C1859" t="s">
@@ -43665,13 +43668,13 @@
       </c>
       <c r="B1892" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>B -&gt; B</v>
+        <v>bit -&gt; b</v>
       </c>
       <c r="C1892" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="D1892" t="s">
-        <v>950</v>
+        <v>1170</v>
       </c>
       <c r="E1892">
         <v>1</v>
@@ -43686,13 +43689,13 @@
       </c>
       <c r="B1893" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Byte -&gt; BYTE</v>
+        <v>b -&gt; bit</v>
       </c>
       <c r="C1893" t="s">
-        <v>951</v>
+        <v>1170</v>
       </c>
       <c r="D1893" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="E1893">
         <v>1</v>
@@ -43707,13 +43710,13 @@
       </c>
       <c r="B1894" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>BYTE -&gt; Byte</v>
+        <v>bit -&gt; BIT</v>
       </c>
       <c r="C1894" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="D1894" t="s">
-        <v>951</v>
+        <v>1171</v>
       </c>
       <c r="E1894">
         <v>1</v>
@@ -43728,13 +43731,13 @@
       </c>
       <c r="B1895" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>BYTE -&gt; byte</v>
+        <v>BIT -&gt; bit</v>
       </c>
       <c r="C1895" t="s">
-        <v>952</v>
+        <v>1171</v>
       </c>
       <c r="D1895" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E1895">
         <v>1</v>
@@ -43749,13 +43752,13 @@
       </c>
       <c r="B1896" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>byte -&gt; BYTE</v>
+        <v>b -&gt; BIT</v>
       </c>
       <c r="C1896" t="s">
-        <v>953</v>
+        <v>1170</v>
       </c>
       <c r="D1896" t="s">
-        <v>952</v>
+        <v>1171</v>
       </c>
       <c r="E1896">
         <v>1</v>
@@ -43770,19 +43773,19 @@
       </c>
       <c r="B1897" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>byte -&gt; bit</v>
+        <v>BIT -&gt; b</v>
       </c>
       <c r="C1897" t="s">
-        <v>953</v>
+        <v>1171</v>
       </c>
       <c r="D1897" t="s">
-        <v>954</v>
+        <v>1170</v>
       </c>
       <c r="E1897">
         <v>1</v>
       </c>
       <c r="F1897">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1898" spans="1:6" x14ac:dyDescent="0.35">
@@ -43791,13 +43794,13 @@
       </c>
       <c r="B1898" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>bit -&gt; bits</v>
+        <v>byte -&gt; B</v>
       </c>
       <c r="C1898" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1898" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E1898">
         <v>1</v>
@@ -43812,10 +43815,10 @@
       </c>
       <c r="B1899" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>bit -&gt; byte</v>
+        <v>B -&gt; byte</v>
       </c>
       <c r="C1899" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D1899" t="s">
         <v>953</v>
@@ -43824,7 +43827,7 @@
         <v>1</v>
       </c>
       <c r="F1899">
-        <v>0.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1900" spans="1:6" x14ac:dyDescent="0.35">
@@ -43833,13 +43836,13 @@
       </c>
       <c r="B1900" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>bits -&gt; bit</v>
+        <v>byte -&gt; Byte</v>
       </c>
       <c r="C1900" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D1900" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="E1900">
         <v>1</v>
@@ -43854,13 +43857,13 @@
       </c>
       <c r="B1901" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>centipoise -&gt; cP</v>
+        <v>Byte -&gt; byte</v>
       </c>
       <c r="C1901" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="D1901" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="E1901">
         <v>1</v>
@@ -43875,13 +43878,13 @@
       </c>
       <c r="B1902" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>centipoise -&gt; CENTIPOISE</v>
+        <v>byte -&gt; BYTE</v>
       </c>
       <c r="C1902" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D1902" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="E1902">
         <v>1</v>
@@ -43896,13 +43899,13 @@
       </c>
       <c r="B1903" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>cP -&gt; centipoise</v>
+        <v>BYTE -&gt; byte</v>
       </c>
       <c r="C1903" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D1903" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E1903">
         <v>1</v>
@@ -43917,13 +43920,13 @@
       </c>
       <c r="B1904" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Poise -&gt; dyne*s/cm2</v>
+        <v>Byte -&gt; BYTE</v>
       </c>
       <c r="C1904" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D1904" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="E1904">
         <v>1</v>
@@ -43938,13 +43941,13 @@
       </c>
       <c r="B1905" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Poise -&gt; g/cm/s</v>
+        <v>BYTE -&gt; Byte</v>
       </c>
       <c r="C1905" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="D1905" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="E1905">
         <v>1</v>
@@ -43959,19 +43962,19 @@
       </c>
       <c r="B1906" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Poise -&gt; POISE</v>
+        <v>byte -&gt; bit</v>
       </c>
       <c r="C1906" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D1906" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="E1906">
         <v>1</v>
       </c>
       <c r="F1906">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1907" spans="1:6" x14ac:dyDescent="0.35">
@@ -43980,19 +43983,19 @@
       </c>
       <c r="B1907" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Poise -&gt; Pa*s</v>
+        <v>bit -&gt; byte</v>
       </c>
       <c r="C1907" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D1907" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E1907">
         <v>1</v>
       </c>
       <c r="F1907">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="1908" spans="1:6" x14ac:dyDescent="0.35">
@@ -44001,13 +44004,13 @@
       </c>
       <c r="B1908" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>dyne*s/cm2 -&gt; Poise</v>
+        <v>centipoise -&gt; cP</v>
       </c>
       <c r="C1908" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D1908" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E1908">
         <v>1</v>
@@ -44022,13 +44025,13 @@
       </c>
       <c r="B1909" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>dyne*s/cm2 -&gt; DYNE*S/CM2</v>
+        <v>centipoise -&gt; CENTIPOISE</v>
       </c>
       <c r="C1909" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D1909" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E1909">
         <v>1</v>
@@ -44043,13 +44046,13 @@
       </c>
       <c r="B1910" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>g/cm/s -&gt; Poise</v>
+        <v>cP -&gt; centipoise</v>
       </c>
       <c r="C1910" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D1910" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E1910">
         <v>1</v>
@@ -44064,13 +44067,13 @@
       </c>
       <c r="B1911" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>g/cm/s -&gt; G/CM/S</v>
+        <v>Poise -&gt; dyne*s/cm2</v>
       </c>
       <c r="C1911" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D1911" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E1911">
         <v>1</v>
@@ -44085,13 +44088,13 @@
       </c>
       <c r="B1912" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Pa*s -&gt; N*s/m2</v>
+        <v>Poise -&gt; g/cm/s</v>
       </c>
       <c r="C1912" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D1912" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E1912">
         <v>1</v>
@@ -44106,13 +44109,13 @@
       </c>
       <c r="B1913" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Pa*s -&gt; kg/m/s</v>
+        <v>Poise -&gt; POISE</v>
       </c>
       <c r="C1913" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D1913" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E1913">
         <v>1</v>
@@ -44127,19 +44130,19 @@
       </c>
       <c r="B1914" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Pa*s -&gt; PA*S</v>
+        <v>Poise -&gt; Pa*s</v>
       </c>
       <c r="C1914" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D1914" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E1914">
         <v>1</v>
       </c>
       <c r="F1914">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="1915" spans="1:6" x14ac:dyDescent="0.35">
@@ -44148,19 +44151,19 @@
       </c>
       <c r="B1915" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>Pa*s -&gt; Poise</v>
+        <v>dyne*s/cm2 -&gt; Poise</v>
       </c>
       <c r="C1915" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D1915" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E1915">
         <v>1</v>
       </c>
       <c r="F1915">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1916" spans="1:6" x14ac:dyDescent="0.35">
@@ -44169,13 +44172,13 @@
       </c>
       <c r="B1916" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>N*s/m2 -&gt; Pa*s</v>
+        <v>dyne*s/cm2 -&gt; DYNE*S/CM2</v>
       </c>
       <c r="C1916" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D1916" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="E1916">
         <v>1</v>
@@ -44190,13 +44193,13 @@
       </c>
       <c r="B1917" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>N*s/m2 -&gt; N*S/M2</v>
+        <v>g/cm/s -&gt; Poise</v>
       </c>
       <c r="C1917" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D1917" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="E1917">
         <v>1</v>
@@ -44211,13 +44214,13 @@
       </c>
       <c r="B1918" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>kg/m/s -&gt; Pa*s</v>
+        <v>g/cm/s -&gt; G/CM/S</v>
       </c>
       <c r="C1918" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D1918" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="E1918">
         <v>1</v>
@@ -44232,13 +44235,13 @@
       </c>
       <c r="B1919" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>kg/m/s -&gt; KG/M/S</v>
+        <v>Pa*s -&gt; N*s/m2</v>
       </c>
       <c r="C1919" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D1919" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="E1919">
         <v>1</v>
@@ -44253,13 +44256,13 @@
       </c>
       <c r="B1920" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>CENTIPOISE -&gt; centipoise</v>
+        <v>Pa*s -&gt; kg/m/s</v>
       </c>
       <c r="C1920" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D1920" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="E1920">
         <v>1</v>
@@ -44274,13 +44277,13 @@
       </c>
       <c r="B1921" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>POISE -&gt; Poise</v>
+        <v>Pa*s -&gt; PA*S</v>
       </c>
       <c r="C1921" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D1921" t="s">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="E1921">
         <v>1</v>
@@ -44295,19 +44298,19 @@
       </c>
       <c r="B1922" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>DYNE*S/CM2 -&gt; dyne*s/cm2</v>
+        <v>Pa*s -&gt; Poise</v>
       </c>
       <c r="C1922" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D1922" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E1922">
         <v>1</v>
       </c>
       <c r="F1922">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1923" spans="1:6" x14ac:dyDescent="0.35">
@@ -44315,11 +44318,11 @@
         <v>1921</v>
       </c>
       <c r="B1923" s="2" t="str">
-        <f t="shared" ref="B1923:B1986" si="30">C1923&amp;" -&gt; " &amp;D1923</f>
-        <v>G/CM/S -&gt; g/cm/s</v>
+        <f t="shared" si="29"/>
+        <v>N*s/m2 -&gt; Pa*s</v>
       </c>
       <c r="C1923" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="D1923" t="s">
         <v>960</v>
@@ -44336,14 +44339,14 @@
         <v>1922</v>
       </c>
       <c r="B1924" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>PA*S -&gt; Pa*s</v>
+        <f t="shared" si="29"/>
+        <v>N*s/m2 -&gt; N*S/M2</v>
       </c>
       <c r="C1924" t="s">
+        <v>961</v>
+      </c>
+      <c r="D1924" t="s">
         <v>968</v>
-      </c>
-      <c r="D1924" t="s">
-        <v>961</v>
       </c>
       <c r="E1924">
         <v>1</v>
@@ -44357,14 +44360,14 @@
         <v>1923</v>
       </c>
       <c r="B1925" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>N*S/M2 -&gt; N*s/m2</v>
+        <f t="shared" si="29"/>
+        <v>kg/m/s -&gt; Pa*s</v>
       </c>
       <c r="C1925" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="D1925" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E1925">
         <v>1</v>
@@ -44378,14 +44381,14 @@
         <v>1924</v>
       </c>
       <c r="B1926" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>KG/M/S -&gt; kg/m/s</v>
+        <f t="shared" si="29"/>
+        <v>kg/m/s -&gt; KG/M/S</v>
       </c>
       <c r="C1926" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D1926" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="E1926">
         <v>1</v>
@@ -44399,14 +44402,14 @@
         <v>1925</v>
       </c>
       <c r="B1927" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>Darcy -&gt; DARCY</v>
+        <f t="shared" si="29"/>
+        <v>CENTIPOISE -&gt; centipoise</v>
       </c>
       <c r="C1927" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D1927" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="E1927">
         <v>1</v>
@@ -44420,20 +44423,20 @@
         <v>1926</v>
       </c>
       <c r="B1928" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>Darcy -&gt; µm2</v>
+        <f t="shared" si="29"/>
+        <v>POISE -&gt; Poise</v>
       </c>
       <c r="C1928" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D1928" t="s">
-        <v>229</v>
+        <v>957</v>
       </c>
       <c r="E1928">
         <v>1</v>
       </c>
       <c r="F1928">
-        <v>0.98692329999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1929" spans="1:6" x14ac:dyDescent="0.35">
@@ -44441,14 +44444,14 @@
         <v>1927</v>
       </c>
       <c r="B1929" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>DARCY -&gt; Darcy</v>
+        <f t="shared" si="29"/>
+        <v>DYNE*S/CM2 -&gt; dyne*s/cm2</v>
       </c>
       <c r="C1929" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="D1929" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="E1929">
         <v>1</v>
@@ -44462,14 +44465,14 @@
         <v>1928</v>
       </c>
       <c r="B1930" s="2" t="str">
-        <f t="shared" si="30"/>
-        <v>Newton -&gt; N</v>
+        <f t="shared" ref="B1930:B1993" si="30">C1930&amp;" -&gt; " &amp;D1930</f>
+        <v>G/CM/S -&gt; g/cm/s</v>
       </c>
       <c r="C1930" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D1930" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="E1930">
         <v>1</v>
@@ -44484,13 +44487,13 @@
       </c>
       <c r="B1931" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Newton -&gt; newton</v>
+        <v>PA*S -&gt; Pa*s</v>
       </c>
       <c r="C1931" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="D1931" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="E1931">
         <v>1</v>
@@ -44505,13 +44508,13 @@
       </c>
       <c r="B1932" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Newton -&gt; kg*m/s2</v>
+        <v>N*S/M2 -&gt; N*s/m2</v>
       </c>
       <c r="C1932" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="D1932" t="s">
-        <v>976</v>
+        <v>961</v>
       </c>
       <c r="E1932">
         <v>1</v>
@@ -44526,13 +44529,13 @@
       </c>
       <c r="B1933" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Newton -&gt; NEWTON</v>
+        <v>KG/M/S -&gt; kg/m/s</v>
       </c>
       <c r="C1933" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D1933" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="E1933">
         <v>1</v>
@@ -44547,19 +44550,19 @@
       </c>
       <c r="B1934" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Newton -&gt; Dyne</v>
+        <v>Darcy -&gt; DARCY</v>
       </c>
       <c r="C1934" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D1934" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="E1934">
         <v>1</v>
       </c>
       <c r="F1934">
-        <v>100000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1935" spans="1:6" x14ac:dyDescent="0.35">
@@ -44568,19 +44571,19 @@
       </c>
       <c r="B1935" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N -&gt; Newton</v>
+        <v>Darcy -&gt; µm2</v>
       </c>
       <c r="C1935" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D1935" t="s">
-        <v>973</v>
+        <v>229</v>
       </c>
       <c r="E1935">
         <v>1</v>
       </c>
       <c r="F1935">
-        <v>1</v>
+        <v>0.98692329999999995</v>
       </c>
     </row>
     <row r="1936" spans="1:6" x14ac:dyDescent="0.35">
@@ -44589,13 +44592,13 @@
       </c>
       <c r="B1936" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>N -&gt; N</v>
+        <v>DARCY -&gt; Darcy</v>
       </c>
       <c r="C1936" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D1936" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E1936">
         <v>1</v>
@@ -44610,10 +44613,10 @@
       </c>
       <c r="B1937" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>newton -&gt; Newton</v>
+        <v>Newton -&gt; N</v>
       </c>
       <c r="C1937" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D1937" t="s">
         <v>973</v>
@@ -44631,13 +44634,13 @@
       </c>
       <c r="B1938" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>newton -&gt; NEWTON</v>
+        <v>Newton -&gt; newton</v>
       </c>
       <c r="C1938" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D1938" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="E1938">
         <v>1</v>
@@ -44652,13 +44655,13 @@
       </c>
       <c r="B1939" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kg*m/s2 -&gt; Newton</v>
+        <v>Newton -&gt; kg*m/s2</v>
       </c>
       <c r="C1939" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D1939" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E1939">
         <v>1</v>
@@ -44673,13 +44676,13 @@
       </c>
       <c r="B1940" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kg*m/s2 -&gt; KG*M/S2</v>
+        <v>Newton -&gt; NEWTON</v>
       </c>
       <c r="C1940" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D1940" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E1940">
         <v>1</v>
@@ -44694,19 +44697,19 @@
       </c>
       <c r="B1941" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilogram force -&gt; kgf</v>
+        <v>Newton -&gt; Dyne</v>
       </c>
       <c r="C1941" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="D1941" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E1941">
         <v>1</v>
       </c>
       <c r="F1941">
-        <v>1</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1942" spans="1:6" x14ac:dyDescent="0.35">
@@ -44715,13 +44718,13 @@
       </c>
       <c r="B1942" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilogram force -&gt; kilopondio</v>
+        <v>N -&gt; Newton</v>
       </c>
       <c r="C1942" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D1942" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="E1942">
         <v>1</v>
@@ -44736,19 +44739,19 @@
       </c>
       <c r="B1943" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilogram force -&gt; kilogram mass</v>
+        <v>N -&gt; N</v>
       </c>
       <c r="C1943" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D1943" t="s">
-        <v>875</v>
+        <v>973</v>
       </c>
       <c r="E1943">
         <v>1</v>
       </c>
       <c r="F1943">
-        <v>0.1019716212977928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1944" spans="1:6" x14ac:dyDescent="0.35">
@@ -44757,13 +44760,13 @@
       </c>
       <c r="B1944" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilogram force -&gt; kilogram-force</v>
+        <v>newton -&gt; Newton</v>
       </c>
       <c r="C1944" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D1944" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="E1944">
         <v>1</v>
@@ -44778,13 +44781,13 @@
       </c>
       <c r="B1945" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilogram force -&gt; KILOGRAM FORCE</v>
+        <v>newton -&gt; NEWTON</v>
       </c>
       <c r="C1945" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D1945" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E1945">
         <v>1</v>
@@ -44799,13 +44802,13 @@
       </c>
       <c r="B1946" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kgf -&gt; kilogram force</v>
+        <v>kg*m/s2 -&gt; Newton</v>
       </c>
       <c r="C1946" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D1946" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E1946">
         <v>1</v>
@@ -44820,13 +44823,13 @@
       </c>
       <c r="B1947" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kgf -&gt; KGF</v>
+        <v>kg*m/s2 -&gt; KG*M/S2</v>
       </c>
       <c r="C1947" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D1947" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="E1947">
         <v>1</v>
@@ -44841,10 +44844,10 @@
       </c>
       <c r="B1948" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilopondio -&gt; kilogram force</v>
+        <v>kilogram force -&gt; kgf</v>
       </c>
       <c r="C1948" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D1948" t="s">
         <v>977</v>
@@ -44862,13 +44865,13 @@
       </c>
       <c r="B1949" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilopondio -&gt; kp</v>
+        <v>kilogram force -&gt; kilopondio</v>
       </c>
       <c r="C1949" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D1949" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E1949">
         <v>1</v>
@@ -44883,19 +44886,19 @@
       </c>
       <c r="B1950" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilopondio -&gt; KILOPONDIO</v>
+        <v>kilogram force -&gt; kilogram mass</v>
       </c>
       <c r="C1950" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D1950" t="s">
-        <v>990</v>
+        <v>875</v>
       </c>
       <c r="E1950">
         <v>1</v>
       </c>
       <c r="F1950">
-        <v>1</v>
+        <v>0.1019716212977928</v>
       </c>
     </row>
     <row r="1951" spans="1:6" x14ac:dyDescent="0.35">
@@ -44904,13 +44907,13 @@
       </c>
       <c r="B1951" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kp -&gt; kilopondio</v>
+        <v>kilogram force -&gt; kilogram-force</v>
       </c>
       <c r="C1951" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D1951" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="E1951">
         <v>1</v>
@@ -44925,13 +44928,13 @@
       </c>
       <c r="B1952" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kp -&gt; KP</v>
+        <v>kilogram force -&gt; KILOGRAM FORCE</v>
       </c>
       <c r="C1952" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D1952" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E1952">
         <v>1</v>
@@ -44946,13 +44949,13 @@
       </c>
       <c r="B1953" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Dyne -&gt; dyne</v>
+        <v>kgf -&gt; kilogram force</v>
       </c>
       <c r="C1953" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D1953" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="E1953">
         <v>1</v>
@@ -44967,13 +44970,13 @@
       </c>
       <c r="B1954" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Dyne -&gt; dyn</v>
+        <v>kgf -&gt; KGF</v>
       </c>
       <c r="C1954" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D1954" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E1954">
         <v>1</v>
@@ -44988,13 +44991,13 @@
       </c>
       <c r="B1955" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Dyne -&gt; g*cm/s2</v>
+        <v>kilopondio -&gt; kilogram force</v>
       </c>
       <c r="C1955" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D1955" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="E1955">
         <v>1</v>
@@ -45009,13 +45012,13 @@
       </c>
       <c r="B1956" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Dyne -&gt; DYNE</v>
+        <v>kilopondio -&gt; kp</v>
       </c>
       <c r="C1956" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D1956" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="E1956">
         <v>1</v>
@@ -45030,19 +45033,19 @@
       </c>
       <c r="B1957" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>Dyne -&gt; Newton</v>
+        <v>kilopondio -&gt; KILOPONDIO</v>
       </c>
       <c r="C1957" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D1957" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="E1957">
         <v>1</v>
       </c>
       <c r="F1957">
-        <v>1.0000000000000001E-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1958" spans="1:6" x14ac:dyDescent="0.35">
@@ -45051,13 +45054,13 @@
       </c>
       <c r="B1958" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>dyne -&gt; Dyne</v>
+        <v>kp -&gt; kilopondio</v>
       </c>
       <c r="C1958" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1958" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="E1958">
         <v>1</v>
@@ -45072,13 +45075,13 @@
       </c>
       <c r="B1959" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>dyne -&gt; DYNE</v>
+        <v>kp -&gt; KP</v>
       </c>
       <c r="C1959" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1959" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E1959">
         <v>1</v>
@@ -45093,10 +45096,10 @@
       </c>
       <c r="B1960" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>dyn -&gt; Dyne</v>
+        <v>Dyne -&gt; dyne</v>
       </c>
       <c r="C1960" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D1960" t="s">
         <v>981</v>
@@ -45114,13 +45117,13 @@
       </c>
       <c r="B1961" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>dyn -&gt; DYN</v>
+        <v>Dyne -&gt; dyn</v>
       </c>
       <c r="C1961" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D1961" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="E1961">
         <v>1</v>
@@ -45135,13 +45138,13 @@
       </c>
       <c r="B1962" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>g*cm/s2 -&gt; Dyne</v>
+        <v>Dyne -&gt; g*cm/s2</v>
       </c>
       <c r="C1962" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D1962" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="E1962">
         <v>1</v>
@@ -45156,13 +45159,13 @@
       </c>
       <c r="B1963" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>g*cm/s2 -&gt; G*CM/S2</v>
+        <v>Dyne -&gt; DYNE</v>
       </c>
       <c r="C1963" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D1963" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E1963">
         <v>1</v>
@@ -45177,19 +45180,19 @@
       </c>
       <c r="B1964" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>kilogram-force -&gt; kilogram force</v>
+        <v>Dyne -&gt; Newton</v>
       </c>
       <c r="C1964" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D1964" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E1964">
         <v>1</v>
       </c>
       <c r="F1964">
-        <v>1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="1965" spans="1:6" x14ac:dyDescent="0.35">
@@ -45198,13 +45201,13 @@
       </c>
       <c r="B1965" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>NEWTON -&gt; Newton</v>
+        <v>dyne -&gt; Dyne</v>
       </c>
       <c r="C1965" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D1965" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="E1965">
         <v>1</v>
@@ -45219,13 +45222,13 @@
       </c>
       <c r="B1966" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>NEWTON -&gt; newton</v>
+        <v>dyne -&gt; DYNE</v>
       </c>
       <c r="C1966" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="D1966" t="s">
-        <v>975</v>
+        <v>991</v>
       </c>
       <c r="E1966">
         <v>1</v>
@@ -45240,13 +45243,13 @@
       </c>
       <c r="B1967" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>KG*M/S2 -&gt; kg*m/s2</v>
+        <v>dyn -&gt; Dyne</v>
       </c>
       <c r="C1967" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="D1967" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E1967">
         <v>1</v>
@@ -45261,13 +45264,13 @@
       </c>
       <c r="B1968" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>KILOGRAM FORCE -&gt; kilogram force</v>
+        <v>dyn -&gt; DYN</v>
       </c>
       <c r="C1968" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="D1968" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="E1968">
         <v>1</v>
@@ -45282,13 +45285,13 @@
       </c>
       <c r="B1969" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>KGF -&gt; kgf</v>
+        <v>g*cm/s2 -&gt; Dyne</v>
       </c>
       <c r="C1969" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="D1969" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E1969">
         <v>1</v>
@@ -45303,13 +45306,13 @@
       </c>
       <c r="B1970" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>KILOPONDIO -&gt; kilopondio</v>
+        <v>g*cm/s2 -&gt; G*CM/S2</v>
       </c>
       <c r="C1970" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D1970" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="E1970">
         <v>1</v>
@@ -45324,13 +45327,13 @@
       </c>
       <c r="B1971" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>KP -&gt; kp</v>
+        <v>kilogram-force -&gt; kilogram force</v>
       </c>
       <c r="C1971" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="D1971" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E1971">
         <v>1</v>
@@ -45345,13 +45348,13 @@
       </c>
       <c r="B1972" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>DYNE -&gt; Dyne</v>
+        <v>NEWTON -&gt; Newton</v>
       </c>
       <c r="C1972" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="D1972" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="E1972">
         <v>1</v>
@@ -45366,13 +45369,13 @@
       </c>
       <c r="B1973" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>DYNE -&gt; dyne</v>
+        <v>NEWTON -&gt; newton</v>
       </c>
       <c r="C1973" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="D1973" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="E1973">
         <v>1</v>
@@ -45387,13 +45390,13 @@
       </c>
       <c r="B1974" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>DYN -&gt; dyn</v>
+        <v>KG*M/S2 -&gt; kg*m/s2</v>
       </c>
       <c r="C1974" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="D1974" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E1974">
         <v>1</v>
@@ -45408,13 +45411,13 @@
       </c>
       <c r="B1975" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>G*CM/S2 -&gt; g*cm/s2</v>
+        <v>KILOGRAM FORCE -&gt; kilogram force</v>
       </c>
       <c r="C1975" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="D1975" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="E1975">
         <v>1</v>
@@ -45429,13 +45432,13 @@
       </c>
       <c r="B1976" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; STB/DAY/</v>
+        <v>KGF -&gt; kgf</v>
       </c>
       <c r="C1976" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D1976" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="E1976">
         <v>1</v>
@@ -45450,13 +45453,13 @@
       </c>
       <c r="B1977" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; stbd/psi</v>
+        <v>KILOPONDIO -&gt; kilopondio</v>
       </c>
       <c r="C1977" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="D1977" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="E1977">
         <v>1</v>
@@ -45471,13 +45474,13 @@
       </c>
       <c r="B1978" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; stbd/psia</v>
+        <v>KP -&gt; kp</v>
       </c>
       <c r="C1978" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D1978" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="E1978">
         <v>1</v>
@@ -45492,13 +45495,13 @@
       </c>
       <c r="B1979" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; stb/day/psia</v>
+        <v>DYNE -&gt; Dyne</v>
       </c>
       <c r="C1979" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D1979" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="E1979">
         <v>1</v>
@@ -45513,13 +45516,13 @@
       </c>
       <c r="B1980" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; stb/day-psi</v>
+        <v>DYNE -&gt; dyne</v>
       </c>
       <c r="C1980" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D1980" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="E1980">
         <v>1</v>
@@ -45534,13 +45537,13 @@
       </c>
       <c r="B1981" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; stb/day-psia</v>
+        <v>DYN -&gt; dyn</v>
       </c>
       <c r="C1981" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D1981" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="E1981">
         <v>1</v>
@@ -45555,13 +45558,13 @@
       </c>
       <c r="B1982" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; stb/d/psi</v>
+        <v>G*CM/S2 -&gt; g*cm/s2</v>
       </c>
       <c r="C1982" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D1982" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="E1982">
         <v>1</v>
@@ -45576,13 +45579,13 @@
       </c>
       <c r="B1983" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stb/day/psi -&gt; STB/DAY/PSI</v>
+        <v>stb/day/psi -&gt; STB/DAY/</v>
       </c>
       <c r="C1983" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1983" t="s">
         <v>995</v>
-      </c>
-      <c r="D1983" t="s">
-        <v>1011</v>
       </c>
       <c r="E1983">
         <v>1</v>
@@ -45597,13 +45600,13 @@
       </c>
       <c r="B1984" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>STB/DAY/ -&gt; stb/day/psi</v>
+        <v>stb/day/psi -&gt; stbd/psi</v>
       </c>
       <c r="C1984" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1984" t="s">
         <v>996</v>
-      </c>
-      <c r="D1984" t="s">
-        <v>995</v>
       </c>
       <c r="E1984">
         <v>1</v>
@@ -45618,13 +45621,13 @@
       </c>
       <c r="B1985" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>STB/DAY/ -&gt; STB/DAY/</v>
+        <v>stb/day/psi -&gt; stbd/psia</v>
       </c>
       <c r="C1985" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="D1985" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E1985">
         <v>1</v>
@@ -45639,13 +45642,13 @@
       </c>
       <c r="B1986" s="2" t="str">
         <f t="shared" si="30"/>
-        <v>stbd/psi -&gt; stb/day/psi</v>
+        <v>stb/day/psi -&gt; stb/day/psia</v>
       </c>
       <c r="C1986" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D1986" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E1986">
         <v>1</v>
@@ -45659,14 +45662,14 @@
         <v>1985</v>
       </c>
       <c r="B1987" s="2" t="str">
-        <f t="shared" ref="B1987:B2050" si="31">C1987&amp;" -&gt; " &amp;D1987</f>
-        <v>stbd/psi -&gt; STBD/PSI</v>
+        <f t="shared" si="30"/>
+        <v>stb/day/psi -&gt; stb/day-psi</v>
       </c>
       <c r="C1987" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D1987" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="E1987">
         <v>1</v>
@@ -45680,14 +45683,14 @@
         <v>1986</v>
       </c>
       <c r="B1988" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stbd/psia -&gt; stb/day/psi</v>
+        <f t="shared" si="30"/>
+        <v>stb/day/psi -&gt; stb/day-psia</v>
       </c>
       <c r="C1988" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D1988" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="E1988">
         <v>1</v>
@@ -45701,14 +45704,14 @@
         <v>1987</v>
       </c>
       <c r="B1989" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stbd/psia -&gt; STBD/PSIA</v>
+        <f t="shared" si="30"/>
+        <v>stb/day/psi -&gt; stb/d/psi</v>
       </c>
       <c r="C1989" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D1989" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="E1989">
         <v>1</v>
@@ -45722,14 +45725,14 @@
         <v>1988</v>
       </c>
       <c r="B1990" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stb/day/psia -&gt; stb/day/psi</v>
+        <f t="shared" si="30"/>
+        <v>stb/day/psi -&gt; STB/DAY/PSI</v>
       </c>
       <c r="C1990" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="D1990" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="E1990">
         <v>1</v>
@@ -45743,14 +45746,14 @@
         <v>1989</v>
       </c>
       <c r="B1991" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stb/day/psia -&gt; STB/DAY/PSIA</v>
+        <f t="shared" si="30"/>
+        <v>STB/DAY/ -&gt; stb/day/psi</v>
       </c>
       <c r="C1991" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D1991" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
       <c r="E1991">
         <v>1</v>
@@ -45764,11 +45767,11 @@
         <v>1990</v>
       </c>
       <c r="B1992" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stb/day-psi -&gt; stb/day/psi</v>
+        <f t="shared" si="30"/>
+        <v>STB/DAY/ -&gt; STB/DAY/</v>
       </c>
       <c r="C1992" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D1992" t="s">
         <v>995</v>
@@ -45785,14 +45788,14 @@
         <v>1991</v>
       </c>
       <c r="B1993" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stb/day-psi -&gt; STB/DAY-PSI</v>
+        <f t="shared" si="30"/>
+        <v>stbd/psi -&gt; stb/day/psi</v>
       </c>
       <c r="C1993" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D1993" t="s">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="E1993">
         <v>1</v>
@@ -45806,14 +45809,14 @@
         <v>1992</v>
       </c>
       <c r="B1994" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>stb/day-psia -&gt; stb/day/psi</v>
+        <f t="shared" ref="B1994:B2057" si="31">C1994&amp;" -&gt; " &amp;D1994</f>
+        <v>stbd/psi -&gt; STBD/PSI</v>
       </c>
       <c r="C1994" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="D1994" t="s">
-        <v>995</v>
+        <v>1011</v>
       </c>
       <c r="E1994">
         <v>1</v>
@@ -45828,13 +45831,13 @@
       </c>
       <c r="B1995" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>stb/day-psia -&gt; STB/DAY-PSIA</v>
+        <v>stbd/psia -&gt; stb/day/psi</v>
       </c>
       <c r="C1995" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D1995" t="s">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="E1995">
         <v>1</v>
@@ -45849,13 +45852,13 @@
       </c>
       <c r="B1996" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>stb/d/psi -&gt; stb/day/psi</v>
+        <v>stbd/psia -&gt; STBD/PSIA</v>
       </c>
       <c r="C1996" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="D1996" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="E1996">
         <v>1</v>
@@ -45870,13 +45873,13 @@
       </c>
       <c r="B1997" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>stb/d/psi -&gt; STB/D/PSI</v>
+        <v>stb/day/psia -&gt; stb/day/psi</v>
       </c>
       <c r="C1997" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="D1997" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
       <c r="E1997">
         <v>1</v>
@@ -45891,13 +45894,13 @@
       </c>
       <c r="B1998" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; SM3/DAY/</v>
+        <v>stb/day/psia -&gt; STB/DAY/PSIA</v>
       </c>
       <c r="C1998" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="D1998" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
       <c r="E1998">
         <v>1</v>
@@ -45912,13 +45915,13 @@
       </c>
       <c r="B1999" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; sm3/d/b</v>
+        <v>stb/day-psi -&gt; stb/day/psi</v>
       </c>
       <c r="C1999" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D1999" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="E1999">
         <v>1</v>
@@ -45933,13 +45936,13 @@
       </c>
       <c r="B2000" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; sm3d/bar</v>
+        <v>stb/day-psi -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2000" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D2000" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="E2000">
         <v>1</v>
@@ -45954,13 +45957,13 @@
       </c>
       <c r="B2001" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; sm3d/bara</v>
+        <v>stb/day-psia -&gt; stb/day/psi</v>
       </c>
       <c r="C2001" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D2001" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="E2001">
         <v>1</v>
@@ -45975,13 +45978,13 @@
       </c>
       <c r="B2002" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; sm3/day/bara</v>
+        <v>stb/day-psia -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2002" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D2002" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="E2002">
         <v>1</v>
@@ -45996,13 +45999,13 @@
       </c>
       <c r="B2003" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; sm3/day-bar</v>
+        <v>stb/d/psi -&gt; stb/day/psi</v>
       </c>
       <c r="C2003" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D2003" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="E2003">
         <v>1</v>
@@ -46017,13 +46020,13 @@
       </c>
       <c r="B2004" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; sm3/day-bara</v>
+        <v>stb/d/psi -&gt; STB/D/PSI</v>
       </c>
       <c r="C2004" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D2004" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E2004">
         <v>1</v>
@@ -46038,13 +46041,13 @@
       </c>
       <c r="B2005" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bar -&gt; SM3/DAY/BAR</v>
+        <v>sm3/day/bar -&gt; SM3/DAY/</v>
       </c>
       <c r="C2005" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D2005" t="s">
         <v>1003</v>
-      </c>
-      <c r="D2005" t="s">
-        <v>1018</v>
       </c>
       <c r="E2005">
         <v>1</v>
@@ -46059,13 +46062,13 @@
       </c>
       <c r="B2006" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY/ -&gt; sm3/day/bar</v>
+        <v>sm3/day/bar -&gt; sm3/d/b</v>
       </c>
       <c r="C2006" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D2006" t="s">
         <v>1004</v>
-      </c>
-      <c r="D2006" t="s">
-        <v>1003</v>
       </c>
       <c r="E2006">
         <v>1</v>
@@ -46080,13 +46083,13 @@
       </c>
       <c r="B2007" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY/ -&gt; SM3/DAY/</v>
+        <v>sm3/day/bar -&gt; sm3d/bar</v>
       </c>
       <c r="C2007" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D2007" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E2007">
         <v>1</v>
@@ -46101,13 +46104,13 @@
       </c>
       <c r="B2008" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/d/b -&gt; sm3/day/bar</v>
+        <v>sm3/day/bar -&gt; sm3d/bara</v>
       </c>
       <c r="C2008" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D2008" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E2008">
         <v>1</v>
@@ -46122,13 +46125,13 @@
       </c>
       <c r="B2009" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/d/b -&gt; SM3/D/B</v>
+        <v>sm3/day/bar -&gt; sm3/day/bara</v>
       </c>
       <c r="C2009" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D2009" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="E2009">
         <v>1</v>
@@ -46143,13 +46146,13 @@
       </c>
       <c r="B2010" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3d/bar -&gt; sm3/day/bar</v>
+        <v>sm3/day/bar -&gt; sm3/day-bar</v>
       </c>
       <c r="C2010" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D2010" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="E2010">
         <v>1</v>
@@ -46164,13 +46167,13 @@
       </c>
       <c r="B2011" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3d/bar -&gt; SM3D/BAR</v>
+        <v>sm3/day/bar -&gt; sm3/day-bara</v>
       </c>
       <c r="C2011" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D2011" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="E2011">
         <v>1</v>
@@ -46185,13 +46188,13 @@
       </c>
       <c r="B2012" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3d/bara -&gt; sm3/day/bar</v>
+        <v>sm3/day/bar -&gt; SM3/DAY/BAR</v>
       </c>
       <c r="C2012" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D2012" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="E2012">
         <v>1</v>
@@ -46206,13 +46209,13 @@
       </c>
       <c r="B2013" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3d/bara -&gt; SM3D/BARA</v>
+        <v>SM3/DAY/ -&gt; sm3/day/bar</v>
       </c>
       <c r="C2013" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D2013" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="E2013">
         <v>1</v>
@@ -46227,10 +46230,10 @@
       </c>
       <c r="B2014" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bara -&gt; sm3/day/bar</v>
+        <v>SM3/DAY/ -&gt; SM3/DAY/</v>
       </c>
       <c r="C2014" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="D2014" t="s">
         <v>1003</v>
@@ -46248,13 +46251,13 @@
       </c>
       <c r="B2015" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/bara -&gt; SM3/DAY/BARA</v>
+        <v>sm3/d/b -&gt; sm3/day/bar</v>
       </c>
       <c r="C2015" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="D2015" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="E2015">
         <v>1</v>
@@ -46269,13 +46272,13 @@
       </c>
       <c r="B2016" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day-bar -&gt; sm3/day/bar</v>
+        <v>sm3/d/b -&gt; SM3/D/B</v>
       </c>
       <c r="C2016" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="D2016" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="E2016">
         <v>1</v>
@@ -46290,13 +46293,13 @@
       </c>
       <c r="B2017" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day-bar -&gt; SM3/DAY-BAR</v>
+        <v>sm3d/bar -&gt; sm3/day/bar</v>
       </c>
       <c r="C2017" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D2017" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="E2017">
         <v>1</v>
@@ -46311,13 +46314,13 @@
       </c>
       <c r="B2018" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day-bara -&gt; sm3/day/bar</v>
+        <v>sm3d/bar -&gt; SM3D/BAR</v>
       </c>
       <c r="C2018" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="D2018" t="s">
-        <v>1003</v>
+        <v>1019</v>
       </c>
       <c r="E2018">
         <v>1</v>
@@ -46332,13 +46335,13 @@
       </c>
       <c r="B2019" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day-bara -&gt; SM3/DAY-BARA</v>
+        <v>sm3d/bara -&gt; sm3/day/bar</v>
       </c>
       <c r="C2019" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D2019" t="s">
-        <v>1024</v>
+        <v>1002</v>
       </c>
       <c r="E2019">
         <v>1</v>
@@ -46353,13 +46356,13 @@
       </c>
       <c r="B2020" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/kPa -&gt; sm3d/kPa</v>
+        <v>sm3d/bara -&gt; SM3D/BARA</v>
       </c>
       <c r="C2020" t="s">
-        <v>1058</v>
+        <v>1006</v>
       </c>
       <c r="D2020" t="s">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="E2020">
         <v>1</v>
@@ -46374,13 +46377,13 @@
       </c>
       <c r="B2021" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/kPa -&gt; sm3/day-kPa</v>
+        <v>sm3/day/bara -&gt; sm3/day/bar</v>
       </c>
       <c r="C2021" t="s">
-        <v>1058</v>
+        <v>1007</v>
       </c>
       <c r="D2021" t="s">
-        <v>1057</v>
+        <v>1002</v>
       </c>
       <c r="E2021">
         <v>1</v>
@@ -46395,13 +46398,13 @@
       </c>
       <c r="B2022" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/kPa -&gt; sm3/d/kPa</v>
+        <v>sm3/day/bara -&gt; SM3/DAY/BARA</v>
       </c>
       <c r="C2022" t="s">
-        <v>1058</v>
+        <v>1007</v>
       </c>
       <c r="D2022" t="s">
-        <v>1059</v>
+        <v>1021</v>
       </c>
       <c r="E2022">
         <v>1</v>
@@ -46416,13 +46419,13 @@
       </c>
       <c r="B2023" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day/kPa -&gt; SM3/DAY/KPA</v>
+        <v>sm3/day-bar -&gt; sm3/day/bar</v>
       </c>
       <c r="C2023" t="s">
-        <v>1058</v>
+        <v>1008</v>
       </c>
       <c r="D2023" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="E2023">
         <v>1</v>
@@ -46437,13 +46440,13 @@
       </c>
       <c r="B2024" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3d/kPa -&gt; sm3/day/kPa</v>
+        <v>sm3/day-bar -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2024" t="s">
-        <v>1060</v>
+        <v>1008</v>
       </c>
       <c r="D2024" t="s">
-        <v>1058</v>
+        <v>1022</v>
       </c>
       <c r="E2024">
         <v>1</v>
@@ -46458,13 +46461,13 @@
       </c>
       <c r="B2025" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3d/kPa -&gt; SM3D/KPA</v>
+        <v>sm3/day-bara -&gt; sm3/day/bar</v>
       </c>
       <c r="C2025" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="D2025" t="s">
-        <v>1026</v>
+        <v>1002</v>
       </c>
       <c r="E2025">
         <v>1</v>
@@ -46479,13 +46482,13 @@
       </c>
       <c r="B2026" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day-kPa -&gt; sm3/day/kPa</v>
+        <v>sm3/day-bara -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2026" t="s">
-        <v>1057</v>
+        <v>1009</v>
       </c>
       <c r="D2026" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="E2026">
         <v>1</v>
@@ -46500,13 +46503,13 @@
       </c>
       <c r="B2027" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/day-kPa -&gt; SM3/DAY-KPA</v>
+        <v>sm3/day/kPa -&gt; sm3d/kPa</v>
       </c>
       <c r="C2027" t="s">
         <v>1057</v>
       </c>
       <c r="D2027" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
       <c r="E2027">
         <v>1</v>
@@ -46521,13 +46524,13 @@
       </c>
       <c r="B2028" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/d/kPa -&gt; sm3/day/kPa</v>
+        <v>sm3/day/kPa -&gt; sm3/day-kPa</v>
       </c>
       <c r="C2028" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D2028" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E2028">
         <v>1</v>
@@ -46542,13 +46545,13 @@
       </c>
       <c r="B2029" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sm3/d/kPa -&gt; SM3/D/KPA</v>
+        <v>sm3/day/kPa -&gt; sm3/d/kPa</v>
       </c>
       <c r="C2029" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D2029" t="s">
-        <v>1028</v>
+        <v>1058</v>
       </c>
       <c r="E2029">
         <v>1</v>
@@ -46563,13 +46566,13 @@
       </c>
       <c r="B2030" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STB/DAY/PSI -&gt; stb/day/psi</v>
+        <v>sm3/day/kPa -&gt; SM3/DAY/KPA</v>
       </c>
       <c r="C2030" t="s">
-        <v>1011</v>
+        <v>1057</v>
       </c>
       <c r="D2030" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="E2030">
         <v>1</v>
@@ -46584,13 +46587,13 @@
       </c>
       <c r="B2031" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STBD/PSI -&gt; stbd/psi</v>
+        <v>sm3d/kPa -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2031" t="s">
-        <v>1012</v>
+        <v>1059</v>
       </c>
       <c r="D2031" t="s">
-        <v>997</v>
+        <v>1057</v>
       </c>
       <c r="E2031">
         <v>1</v>
@@ -46605,13 +46608,13 @@
       </c>
       <c r="B2032" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STBD/PSIA -&gt; stbd/psia</v>
+        <v>sm3d/kPa -&gt; SM3D/KPA</v>
       </c>
       <c r="C2032" t="s">
-        <v>1013</v>
+        <v>1059</v>
       </c>
       <c r="D2032" t="s">
-        <v>998</v>
+        <v>1025</v>
       </c>
       <c r="E2032">
         <v>1</v>
@@ -46626,13 +46629,13 @@
       </c>
       <c r="B2033" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STB/DAY/PSIA -&gt; stb/day/psia</v>
+        <v>sm3/day-kPa -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2033" t="s">
-        <v>1014</v>
+        <v>1056</v>
       </c>
       <c r="D2033" t="s">
-        <v>999</v>
+        <v>1057</v>
       </c>
       <c r="E2033">
         <v>1</v>
@@ -46647,13 +46650,13 @@
       </c>
       <c r="B2034" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STB/DAY-PSI -&gt; stb/day-psi</v>
+        <v>sm3/day-kPa -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2034" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="D2034" t="s">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="E2034">
         <v>1</v>
@@ -46668,13 +46671,13 @@
       </c>
       <c r="B2035" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STB/DAY-PSIA -&gt; stb/day-psia</v>
+        <v>sm3/d/kPa -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2035" t="s">
-        <v>1016</v>
+        <v>1058</v>
       </c>
       <c r="D2035" t="s">
-        <v>1001</v>
+        <v>1057</v>
       </c>
       <c r="E2035">
         <v>1</v>
@@ -46689,13 +46692,13 @@
       </c>
       <c r="B2036" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>STB/D/PSI -&gt; stb/d/psi</v>
+        <v>sm3/d/kPa -&gt; SM3/D/KPA</v>
       </c>
       <c r="C2036" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
       <c r="D2036" t="s">
-        <v>1002</v>
+        <v>1027</v>
       </c>
       <c r="E2036">
         <v>1</v>
@@ -46710,13 +46713,13 @@
       </c>
       <c r="B2037" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY/BAR -&gt; sm3/day/bar</v>
+        <v>STB/DAY/PSI -&gt; stb/day/psi</v>
       </c>
       <c r="C2037" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="D2037" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E2037">
         <v>1</v>
@@ -46731,13 +46734,13 @@
       </c>
       <c r="B2038" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/D/B -&gt; sm3/d/b</v>
+        <v>STBD/PSI -&gt; stbd/psi</v>
       </c>
       <c r="C2038" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="D2038" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="E2038">
         <v>1</v>
@@ -46752,13 +46755,13 @@
       </c>
       <c r="B2039" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3D/BAR -&gt; sm3d/bar</v>
+        <v>STBD/PSIA -&gt; stbd/psia</v>
       </c>
       <c r="C2039" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="D2039" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="E2039">
         <v>1</v>
@@ -46773,13 +46776,13 @@
       </c>
       <c r="B2040" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3D/BARA -&gt; sm3d/bara</v>
+        <v>STB/DAY/PSIA -&gt; stb/day/psia</v>
       </c>
       <c r="C2040" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D2040" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="E2040">
         <v>1</v>
@@ -46794,13 +46797,13 @@
       </c>
       <c r="B2041" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY/BARA -&gt; sm3/day/bara</v>
+        <v>STB/DAY-PSI -&gt; stb/day-psi</v>
       </c>
       <c r="C2041" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D2041" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E2041">
         <v>1</v>
@@ -46815,13 +46818,13 @@
       </c>
       <c r="B2042" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY-BAR -&gt; sm3/day-bar</v>
+        <v>STB/DAY-PSIA -&gt; stb/day-psia</v>
       </c>
       <c r="C2042" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="D2042" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E2042">
         <v>1</v>
@@ -46836,13 +46839,13 @@
       </c>
       <c r="B2043" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY-BARA -&gt; sm3/day-bara</v>
+        <v>STB/D/PSI -&gt; stb/d/psi</v>
       </c>
       <c r="C2043" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="D2043" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="E2043">
         <v>1</v>
@@ -46857,13 +46860,13 @@
       </c>
       <c r="B2044" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY/KPA -&gt; sm3/day/kPa</v>
+        <v>SM3/DAY/BAR -&gt; sm3/day/bar</v>
       </c>
       <c r="C2044" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="D2044" t="s">
-        <v>1058</v>
+        <v>1002</v>
       </c>
       <c r="E2044">
         <v>1</v>
@@ -46878,13 +46881,13 @@
       </c>
       <c r="B2045" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3D/KPA -&gt; sm3d/kPa</v>
+        <v>SM3/D/B -&gt; sm3/d/b</v>
       </c>
       <c r="C2045" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="D2045" t="s">
-        <v>1060</v>
+        <v>1004</v>
       </c>
       <c r="E2045">
         <v>1</v>
@@ -46899,13 +46902,13 @@
       </c>
       <c r="B2046" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/DAY-KPA -&gt; sm3/day-kPa</v>
+        <v>SM3D/BAR -&gt; sm3d/bar</v>
       </c>
       <c r="C2046" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D2046" t="s">
-        <v>1057</v>
+        <v>1005</v>
       </c>
       <c r="E2046">
         <v>1</v>
@@ -46920,13 +46923,13 @@
       </c>
       <c r="B2047" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>SM3/D/KPA -&gt; sm3/d/kPa</v>
+        <v>SM3D/BARA -&gt; sm3d/bara</v>
       </c>
       <c r="C2047" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="D2047" t="s">
-        <v>1059</v>
+        <v>1006</v>
       </c>
       <c r="E2047">
         <v>1</v>
@@ -46941,13 +46944,13 @@
       </c>
       <c r="B2048" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sec/day -&gt; sec/d</v>
+        <v>SM3/DAY/BARA -&gt; sm3/day/bara</v>
       </c>
       <c r="C2048" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="D2048" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="E2048">
         <v>1</v>
@@ -46962,13 +46965,13 @@
       </c>
       <c r="B2049" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sec/day -&gt; SEC/DAY</v>
+        <v>SM3/DAY-BAR -&gt; sm3/day-bar</v>
       </c>
       <c r="C2049" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="D2049" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="E2049">
         <v>1</v>
@@ -46983,13 +46986,13 @@
       </c>
       <c r="B2050" s="2" t="str">
         <f t="shared" si="31"/>
-        <v>sec/d -&gt; sec/day</v>
+        <v>SM3/DAY-BARA -&gt; sm3/day-bara</v>
       </c>
       <c r="C2050" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D2050" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
       <c r="E2050">
         <v>1</v>
@@ -47003,14 +47006,14 @@
         <v>2049</v>
       </c>
       <c r="B2051" s="2" t="str">
-        <f t="shared" ref="B2051:B2114" si="32">C2051&amp;" -&gt; " &amp;D2051</f>
-        <v>sec/d -&gt; SEC/D</v>
+        <f t="shared" si="31"/>
+        <v>SM3/DAY/KPA -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2051" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D2051" t="s">
-        <v>1034</v>
+        <v>1057</v>
       </c>
       <c r="E2051">
         <v>1</v>
@@ -47024,14 +47027,14 @@
         <v>2050</v>
       </c>
       <c r="B2052" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>s2 -&gt; s*s</v>
+        <f t="shared" si="31"/>
+        <v>SM3D/KPA -&gt; sm3d/kPa</v>
       </c>
       <c r="C2052" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D2052" t="s">
-        <v>1032</v>
+        <v>1059</v>
       </c>
       <c r="E2052">
         <v>1</v>
@@ -47045,14 +47048,14 @@
         <v>2051</v>
       </c>
       <c r="B2053" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>s*s -&gt; s2</v>
+        <f t="shared" si="31"/>
+        <v>SM3/DAY-KPA -&gt; sm3/day-kPa</v>
       </c>
       <c r="C2053" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D2053" t="s">
-        <v>1031</v>
+        <v>1056</v>
       </c>
       <c r="E2053">
         <v>1</v>
@@ -47066,14 +47069,14 @@
         <v>2052</v>
       </c>
       <c r="B2054" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>s*s -&gt; S*S</v>
+        <f t="shared" si="31"/>
+        <v>SM3/D/KPA -&gt; sm3/d/kPa</v>
       </c>
       <c r="C2054" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="D2054" t="s">
-        <v>1035</v>
+        <v>1058</v>
       </c>
       <c r="E2054">
         <v>1</v>
@@ -47087,11 +47090,11 @@
         <v>2053</v>
       </c>
       <c r="B2055" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>SEC/DAY -&gt; sec/day</v>
+        <f t="shared" si="31"/>
+        <v>sec/day -&gt; sec/d</v>
       </c>
       <c r="C2055" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D2055" t="s">
         <v>1029</v>
@@ -47108,14 +47111,14 @@
         <v>2054</v>
       </c>
       <c r="B2056" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>SEC/D -&gt; sec/d</v>
+        <f t="shared" si="31"/>
+        <v>sec/day -&gt; SEC/DAY</v>
       </c>
       <c r="C2056" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D2056" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E2056">
         <v>1</v>
@@ -47129,14 +47132,14 @@
         <v>2055</v>
       </c>
       <c r="B2057" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>fraction -&gt; ratio</v>
+        <f t="shared" si="31"/>
+        <v>sec/d -&gt; sec/day</v>
       </c>
       <c r="C2057" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D2057" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="E2057">
         <v>1</v>
@@ -47150,14 +47153,14 @@
         <v>2056</v>
       </c>
       <c r="B2058" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>fraction -&gt; dimensionless</v>
+        <f t="shared" ref="B2058:B2121" si="32">C2058&amp;" -&gt; " &amp;D2058</f>
+        <v>sec/d -&gt; SEC/D</v>
       </c>
       <c r="C2058" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D2058" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E2058">
         <v>1</v>
@@ -47172,13 +47175,13 @@
       </c>
       <c r="B2059" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; unitless</v>
+        <v>s2 -&gt; s*s</v>
       </c>
       <c r="C2059" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="D2059" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="E2059">
         <v>1</v>
@@ -47193,13 +47196,13 @@
       </c>
       <c r="B2060" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; None</v>
+        <v>s*s -&gt; s2</v>
       </c>
       <c r="C2060" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D2060" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="E2060">
         <v>1</v>
@@ -47214,13 +47217,13 @@
       </c>
       <c r="B2061" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; FRACTION</v>
+        <v>s*s -&gt; S*S</v>
       </c>
       <c r="C2061" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="D2061" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="E2061">
         <v>1</v>
@@ -47235,19 +47238,19 @@
       </c>
       <c r="B2062" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; percentage</v>
+        <v>SEC/DAY -&gt; sec/day</v>
       </c>
       <c r="C2062" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="D2062" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="E2062">
         <v>1</v>
       </c>
       <c r="F2062">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2063" spans="1:6" x14ac:dyDescent="0.35">
@@ -47256,19 +47259,19 @@
       </c>
       <c r="B2063" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>percentage -&gt; fraction</v>
+        <v>SEC/D -&gt; sec/d</v>
       </c>
       <c r="C2063" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="D2063" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="E2063">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F2063">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2064" spans="1:6" x14ac:dyDescent="0.35">
@@ -47277,10 +47280,10 @@
       </c>
       <c r="B2064" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ratio -&gt; fraction</v>
+        <v>fraction -&gt; ratio</v>
       </c>
       <c r="C2064" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D2064" t="s">
         <v>1036</v>
@@ -47298,13 +47301,13 @@
       </c>
       <c r="B2065" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ratio -&gt; RATIO</v>
+        <v>fraction -&gt; dimensionless</v>
       </c>
       <c r="C2065" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D2065" t="s">
         <v>1037</v>
-      </c>
-      <c r="D2065" t="s">
-        <v>1042</v>
       </c>
       <c r="E2065">
         <v>1</v>
@@ -47319,13 +47322,13 @@
       </c>
       <c r="B2066" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dimensionless -&gt; fraction</v>
+        <v>fraction -&gt; unitless</v>
       </c>
       <c r="C2066" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D2066" t="s">
         <v>1038</v>
-      </c>
-      <c r="D2066" t="s">
-        <v>1036</v>
       </c>
       <c r="E2066">
         <v>1</v>
@@ -47340,13 +47343,13 @@
       </c>
       <c r="B2067" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dimensionless -&gt; DIMENSIONLESS</v>
+        <v>fraction -&gt; None</v>
       </c>
       <c r="C2067" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D2067" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E2067">
         <v>1</v>
@@ -47361,13 +47364,13 @@
       </c>
       <c r="B2068" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>unitless -&gt; fraction</v>
+        <v>fraction -&gt; FRACTION</v>
       </c>
       <c r="C2068" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D2068" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="E2068">
         <v>1</v>
@@ -47382,19 +47385,19 @@
       </c>
       <c r="B2069" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>unitless -&gt; UNITLESS</v>
+        <v>fraction -&gt; percentage</v>
       </c>
       <c r="C2069" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D2069" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E2069">
         <v>1</v>
       </c>
       <c r="F2069">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2070" spans="1:6" x14ac:dyDescent="0.35">
@@ -47403,19 +47406,19 @@
       </c>
       <c r="B2070" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>None -&gt; fraction</v>
+        <v>percentage -&gt; fraction</v>
       </c>
       <c r="C2070" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="D2070" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E2070">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F2070">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="2071" spans="1:6" x14ac:dyDescent="0.35">
@@ -47424,13 +47427,13 @@
       </c>
       <c r="B2071" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>None -&gt; NONE</v>
+        <v>ratio -&gt; fraction</v>
       </c>
       <c r="C2071" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="D2071" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="E2071">
         <v>1</v>
@@ -47445,13 +47448,13 @@
       </c>
       <c r="B2072" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>FRACTION -&gt; fraction</v>
+        <v>ratio -&gt; RATIO</v>
       </c>
       <c r="C2072" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D2072" t="s">
         <v>1041</v>
-      </c>
-      <c r="D2072" t="s">
-        <v>1036</v>
       </c>
       <c r="E2072">
         <v>1</v>
@@ -47466,13 +47469,13 @@
       </c>
       <c r="B2073" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>RATIO -&gt; ratio</v>
+        <v>dimensionless -&gt; fraction</v>
       </c>
       <c r="C2073" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="D2073" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E2073">
         <v>1</v>
@@ -47487,13 +47490,13 @@
       </c>
       <c r="B2074" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DIMENSIONLESS -&gt; dimensionless</v>
+        <v>dimensionless -&gt; DIMENSIONLESS</v>
       </c>
       <c r="C2074" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="D2074" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="E2074">
         <v>1</v>
@@ -47508,13 +47511,13 @@
       </c>
       <c r="B2075" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>UNITLESS -&gt; unitless</v>
+        <v>unitless -&gt; fraction</v>
       </c>
       <c r="C2075" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D2075" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E2075">
         <v>1</v>
@@ -47529,13 +47532,13 @@
       </c>
       <c r="B2076" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>NONE -&gt; None</v>
+        <v>unitless -&gt; UNITLESS</v>
       </c>
       <c r="C2076" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="D2076" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E2076">
         <v>1</v>
@@ -47550,13 +47553,13 @@
       </c>
       <c r="B2077" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>percentage -&gt; %</v>
+        <v>None -&gt; fraction</v>
       </c>
       <c r="C2077" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D2077" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="E2077">
         <v>1</v>
@@ -47571,13 +47574,13 @@
       </c>
       <c r="B2078" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>% -&gt; percentage</v>
+        <v>None -&gt; NONE</v>
       </c>
       <c r="C2078" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="D2078" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E2078">
         <v>1</v>
@@ -47592,13 +47595,13 @@
       </c>
       <c r="B2079" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; dates</v>
+        <v>FRACTION -&gt; fraction</v>
       </c>
       <c r="C2079" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
       <c r="D2079" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="E2079">
         <v>1</v>
@@ -47613,13 +47616,13 @@
       </c>
       <c r="B2080" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; DATES</v>
+        <v>RATIO -&gt; ratio</v>
       </c>
       <c r="C2080" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D2080" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="E2080">
         <v>1</v>
@@ -47634,13 +47637,13 @@
       </c>
       <c r="B2081" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; DATE</v>
+        <v>DIMENSIONLESS -&gt; dimensionless</v>
       </c>
       <c r="C2081" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D2081" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="E2081">
         <v>1</v>
@@ -47655,13 +47658,13 @@
       </c>
       <c r="B2082" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dates -&gt; date</v>
+        <v>UNITLESS -&gt; unitless</v>
       </c>
       <c r="C2082" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D2082" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="E2082">
         <v>1</v>
@@ -47676,13 +47679,13 @@
       </c>
       <c r="B2083" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DATES -&gt; date</v>
+        <v>NONE -&gt; None</v>
       </c>
       <c r="C2083" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D2083" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="E2083">
         <v>1</v>
@@ -47697,13 +47700,13 @@
       </c>
       <c r="B2084" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DATE -&gt; date</v>
+        <v>percentage -&gt; %</v>
       </c>
       <c r="C2084" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D2084" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E2084">
         <v>1</v>
@@ -47718,13 +47721,13 @@
       </c>
       <c r="B2085" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>W -&gt; Watt</v>
+        <v>% -&gt; percentage</v>
       </c>
       <c r="C2085" t="s">
-        <v>70</v>
+        <v>1046</v>
       </c>
       <c r="D2085" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="E2085">
         <v>1</v>
@@ -47739,13 +47742,13 @@
       </c>
       <c r="B2086" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>W -&gt; W</v>
+        <v>date -&gt; dates</v>
       </c>
       <c r="C2086" t="s">
-        <v>70</v>
+        <v>1047</v>
       </c>
       <c r="D2086" t="s">
-        <v>70</v>
+        <v>1048</v>
       </c>
       <c r="E2086">
         <v>1</v>
@@ -47760,13 +47763,13 @@
       </c>
       <c r="B2087" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce -&gt; ozUS</v>
+        <v>date -&gt; DATES</v>
       </c>
       <c r="C2087" t="s">
-        <v>1158</v>
+        <v>1047</v>
       </c>
       <c r="D2087" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E2087">
         <v>1</v>
@@ -47781,19 +47784,19 @@
       </c>
       <c r="B2088" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce -&gt; gallonUS</v>
+        <v>date -&gt; DATE</v>
       </c>
       <c r="C2088" t="s">
-        <v>1158</v>
+        <v>1047</v>
       </c>
       <c r="D2088" t="s">
-        <v>400</v>
+        <v>1050</v>
       </c>
       <c r="E2088">
         <v>1</v>
       </c>
       <c r="F2088">
-        <v>7.8125E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2089" spans="1:6" x14ac:dyDescent="0.35">
@@ -47802,13 +47805,13 @@
       </c>
       <c r="B2089" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ozUS -&gt; fluid ounce</v>
+        <v>dates -&gt; date</v>
       </c>
       <c r="C2089" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="D2089" t="s">
-        <v>1158</v>
+        <v>1047</v>
       </c>
       <c r="E2089">
         <v>1</v>
@@ -47823,13 +47826,13 @@
       </c>
       <c r="B2090" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gill -&gt; gillUS</v>
+        <v>DATES -&gt; date</v>
       </c>
       <c r="C2090" t="s">
-        <v>388</v>
+        <v>1049</v>
       </c>
       <c r="D2090" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="E2090">
         <v>1</v>
@@ -47844,13 +47847,13 @@
       </c>
       <c r="B2091" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gill -&gt; giUS</v>
+        <v>DATE -&gt; date</v>
       </c>
       <c r="C2091" t="s">
-        <v>388</v>
+        <v>1050</v>
       </c>
       <c r="D2091" t="s">
-        <v>1064</v>
+        <v>1047</v>
       </c>
       <c r="E2091">
         <v>1</v>
@@ -47865,13 +47868,13 @@
       </c>
       <c r="B2092" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gillUS -&gt; gill</v>
+        <v>W -&gt; Watt</v>
       </c>
       <c r="C2092" t="s">
-        <v>1063</v>
+        <v>70</v>
       </c>
       <c r="D2092" t="s">
-        <v>388</v>
+        <v>1060</v>
       </c>
       <c r="E2092">
         <v>1</v>
@@ -47886,13 +47889,13 @@
       </c>
       <c r="B2093" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>giUS -&gt; gill</v>
+        <v>W -&gt; W</v>
       </c>
       <c r="C2093" t="s">
-        <v>1064</v>
+        <v>70</v>
       </c>
       <c r="D2093" t="s">
-        <v>388</v>
+        <v>70</v>
       </c>
       <c r="E2093">
         <v>1</v>
@@ -47907,13 +47910,13 @@
       </c>
       <c r="B2094" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pint -&gt; pintUS</v>
+        <v>fluid ounce -&gt; ozUS</v>
       </c>
       <c r="C2094" t="s">
-        <v>390</v>
+        <v>1157</v>
       </c>
       <c r="D2094" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E2094">
         <v>1</v>
@@ -47928,19 +47931,19 @@
       </c>
       <c r="B2095" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pint -&gt; ptUS</v>
+        <v>fluid ounce -&gt; gallonUS</v>
       </c>
       <c r="C2095" t="s">
-        <v>390</v>
+        <v>1157</v>
       </c>
       <c r="D2095" t="s">
-        <v>1066</v>
+        <v>400</v>
       </c>
       <c r="E2095">
         <v>1</v>
       </c>
       <c r="F2095">
-        <v>1</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="2096" spans="1:6" x14ac:dyDescent="0.35">
@@ -47949,13 +47952,13 @@
       </c>
       <c r="B2096" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pintUS -&gt; pint</v>
+        <v>ozUS -&gt; fluid ounce</v>
       </c>
       <c r="C2096" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D2096" t="s">
-        <v>390</v>
+        <v>1157</v>
       </c>
       <c r="E2096">
         <v>1</v>
@@ -47970,13 +47973,13 @@
       </c>
       <c r="B2097" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ptUS -&gt; pint</v>
+        <v>gill -&gt; gillUS</v>
       </c>
       <c r="C2097" t="s">
-        <v>1066</v>
+        <v>388</v>
       </c>
       <c r="D2097" t="s">
-        <v>390</v>
+        <v>1062</v>
       </c>
       <c r="E2097">
         <v>1</v>
@@ -47991,13 +47994,13 @@
       </c>
       <c r="B2098" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quart -&gt; quartUS</v>
+        <v>gill -&gt; giUS</v>
       </c>
       <c r="C2098" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D2098" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E2098">
         <v>1</v>
@@ -48012,19 +48015,19 @@
       </c>
       <c r="B2099" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quart -&gt; gallonUS</v>
+        <v>gillUS -&gt; gill</v>
       </c>
       <c r="C2099" t="s">
-        <v>392</v>
+        <v>1062</v>
       </c>
       <c r="D2099" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="E2099">
         <v>1</v>
       </c>
       <c r="F2099">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2100" spans="1:6" x14ac:dyDescent="0.35">
@@ -48033,13 +48036,13 @@
       </c>
       <c r="B2100" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quartUS -&gt; quart</v>
+        <v>giUS -&gt; gill</v>
       </c>
       <c r="C2100" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D2100" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E2100">
         <v>1</v>
@@ -48054,13 +48057,13 @@
       </c>
       <c r="B2101" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>qtUS -&gt; quart</v>
+        <v>pint -&gt; pintUS</v>
       </c>
       <c r="C2101" t="s">
-        <v>1068</v>
+        <v>390</v>
       </c>
       <c r="D2101" t="s">
-        <v>392</v>
+        <v>1064</v>
       </c>
       <c r="E2101">
         <v>1</v>
@@ -48075,19 +48078,19 @@
       </c>
       <c r="B2102" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUS -&gt; fluid ounce</v>
+        <v>pint -&gt; ptUS</v>
       </c>
       <c r="C2102" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D2102" t="s">
-        <v>1158</v>
+        <v>1065</v>
       </c>
       <c r="E2102">
         <v>1</v>
       </c>
       <c r="F2102">
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2103" spans="1:6" x14ac:dyDescent="0.35">
@@ -48096,19 +48099,19 @@
       </c>
       <c r="B2103" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUS -&gt; quart</v>
+        <v>pintUS -&gt; pint</v>
       </c>
       <c r="C2103" t="s">
-        <v>400</v>
+        <v>1064</v>
       </c>
       <c r="D2103" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E2103">
         <v>1</v>
       </c>
       <c r="F2103">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2104" spans="1:6" x14ac:dyDescent="0.35">
@@ -48117,13 +48120,13 @@
       </c>
       <c r="B2104" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; imperial gallon</v>
+        <v>ptUS -&gt; pint</v>
       </c>
       <c r="C2104" t="s">
-        <v>394</v>
+        <v>1065</v>
       </c>
       <c r="D2104" t="s">
-        <v>1069</v>
+        <v>390</v>
       </c>
       <c r="E2104">
         <v>1</v>
@@ -48138,19 +48141,19 @@
       </c>
       <c r="B2105" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; quartUK</v>
+        <v>quart -&gt; quartUS</v>
       </c>
       <c r="C2105" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D2105" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E2105">
         <v>1</v>
       </c>
       <c r="F2105">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2106" spans="1:6" x14ac:dyDescent="0.35">
@@ -48159,19 +48162,19 @@
       </c>
       <c r="B2106" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; fluid ounce UK</v>
+        <v>quart -&gt; gallonUS</v>
       </c>
       <c r="C2106" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D2106" t="s">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="E2106">
         <v>1</v>
       </c>
       <c r="F2106">
-        <v>160</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2107" spans="1:6" x14ac:dyDescent="0.35">
@@ -48180,19 +48183,19 @@
       </c>
       <c r="B2107" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; litre</v>
+        <v>quartUS -&gt; quart</v>
       </c>
       <c r="C2107" t="s">
-        <v>394</v>
+        <v>1066</v>
       </c>
       <c r="D2107" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="E2107">
         <v>1</v>
       </c>
       <c r="F2107">
-        <v>4.5460000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2108" spans="1:6" x14ac:dyDescent="0.35">
@@ -48201,13 +48204,13 @@
       </c>
       <c r="B2108" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>imperial gallon -&gt; gallonUK</v>
+        <v>qtUS -&gt; quart</v>
       </c>
       <c r="C2108" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D2108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E2108">
         <v>1</v>
@@ -48222,19 +48225,19 @@
       </c>
       <c r="B2109" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>imperial gallon -&gt; IMPERIAL GALLON</v>
+        <v>gallonUS -&gt; fluid ounce</v>
       </c>
       <c r="C2109" t="s">
-        <v>1069</v>
+        <v>400</v>
       </c>
       <c r="D2109" t="s">
-        <v>1071</v>
+        <v>1157</v>
       </c>
       <c r="E2109">
         <v>1</v>
       </c>
       <c r="F2109">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.35">
@@ -48243,19 +48246,19 @@
       </c>
       <c r="B2110" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; fl oz UK</v>
+        <v>gallonUS -&gt; quart</v>
       </c>
       <c r="C2110" t="s">
-        <v>1160</v>
+        <v>400</v>
       </c>
       <c r="D2110" t="s">
-        <v>1072</v>
+        <v>392</v>
       </c>
       <c r="E2110">
         <v>1</v>
       </c>
       <c r="F2110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.35">
@@ -48264,13 +48267,13 @@
       </c>
       <c r="B2111" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; ozUK</v>
+        <v>gallonUK -&gt; imperial gallon</v>
       </c>
       <c r="C2111" t="s">
-        <v>1160</v>
+        <v>394</v>
       </c>
       <c r="D2111" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="E2111">
         <v>1</v>
@@ -48285,19 +48288,19 @@
       </c>
       <c r="B2112" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; ounceUK</v>
+        <v>gallonUK -&gt; quartUK</v>
       </c>
       <c r="C2112" t="s">
-        <v>1160</v>
+        <v>394</v>
       </c>
       <c r="D2112" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E2112">
         <v>1</v>
       </c>
       <c r="F2112">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2113" spans="1:6" x14ac:dyDescent="0.35">
@@ -48306,19 +48309,19 @@
       </c>
       <c r="B2113" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; fluid ounce UKs</v>
+        <v>gallonUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2113" t="s">
-        <v>1160</v>
+        <v>394</v>
       </c>
       <c r="D2113" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E2113">
         <v>1</v>
       </c>
       <c r="F2113">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2114" spans="1:6" x14ac:dyDescent="0.35">
@@ -48327,19 +48330,19 @@
       </c>
       <c r="B2114" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; FLUID OUNCE UKS</v>
+        <v>gallonUK -&gt; litre</v>
       </c>
       <c r="C2114" t="s">
-        <v>1160</v>
+        <v>394</v>
       </c>
       <c r="D2114" t="s">
-        <v>1165</v>
+        <v>423</v>
       </c>
       <c r="E2114">
         <v>1</v>
       </c>
       <c r="F2114">
-        <v>1</v>
+        <v>4.5460000000000003</v>
       </c>
     </row>
     <row r="2115" spans="1:6" x14ac:dyDescent="0.35">
@@ -48347,14 +48350,14 @@
         <v>2113</v>
       </c>
       <c r="B2115" s="2" t="str">
-        <f t="shared" ref="B2115:B2178" si="33">C2115&amp;" -&gt; " &amp;D2115</f>
-        <v>fluid ounce UK -&gt; FLUID OUNCE UK</v>
+        <f t="shared" si="32"/>
+        <v>imperial gallon -&gt; gallonUK</v>
       </c>
       <c r="C2115" t="s">
-        <v>1160</v>
+        <v>1068</v>
       </c>
       <c r="D2115" t="s">
-        <v>1166</v>
+        <v>394</v>
       </c>
       <c r="E2115">
         <v>1</v>
@@ -48368,20 +48371,20 @@
         <v>2114</v>
       </c>
       <c r="B2116" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>fluid ounce UK -&gt; gallonUK</v>
+        <f t="shared" si="32"/>
+        <v>imperial gallon -&gt; IMPERIAL GALLON</v>
       </c>
       <c r="C2116" t="s">
-        <v>1160</v>
+        <v>1068</v>
       </c>
       <c r="D2116" t="s">
-        <v>394</v>
+        <v>1070</v>
       </c>
       <c r="E2116">
         <v>1</v>
       </c>
       <c r="F2116">
-        <v>6.2500000000000003E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2117" spans="1:6" x14ac:dyDescent="0.35">
@@ -48389,20 +48392,20 @@
         <v>2115</v>
       </c>
       <c r="B2117" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>fluid ounce UK -&gt; gillUK</v>
+        <f t="shared" si="32"/>
+        <v>fluid ounce UK -&gt; fl oz UK</v>
       </c>
       <c r="C2117" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D2117" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E2117">
         <v>1</v>
       </c>
       <c r="F2117">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2118" spans="1:6" x14ac:dyDescent="0.35">
@@ -48410,14 +48413,14 @@
         <v>2116</v>
       </c>
       <c r="B2118" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>fl oz UK -&gt; fluid ounce UK</v>
+        <f t="shared" si="32"/>
+        <v>fluid ounce UK -&gt; ozUK</v>
       </c>
       <c r="C2118" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D2118" t="s">
         <v>1072</v>
-      </c>
-      <c r="D2118" t="s">
-        <v>1160</v>
       </c>
       <c r="E2118">
         <v>1</v>
@@ -48431,14 +48434,14 @@
         <v>2117</v>
       </c>
       <c r="B2119" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>ozUK -&gt; fluid ounce UK</v>
+        <f t="shared" si="32"/>
+        <v>fluid ounce UK -&gt; ounceUK</v>
       </c>
       <c r="C2119" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D2119" t="s">
         <v>1073</v>
-      </c>
-      <c r="D2119" t="s">
-        <v>1160</v>
       </c>
       <c r="E2119">
         <v>1</v>
@@ -48452,11 +48455,11 @@
         <v>2118</v>
       </c>
       <c r="B2120" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>ounceUK -&gt; fluid ounce UK</v>
+        <f t="shared" si="32"/>
+        <v>fluid ounce UK -&gt; fluid ounce UKs</v>
       </c>
       <c r="C2120" t="s">
-        <v>1074</v>
+        <v>1159</v>
       </c>
       <c r="D2120" t="s">
         <v>1160</v>
@@ -48473,14 +48476,14 @@
         <v>2119</v>
       </c>
       <c r="B2121" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>gillUK -&gt; giUK</v>
+        <f t="shared" si="32"/>
+        <v>fluid ounce UK -&gt; FLUID OUNCE UKS</v>
       </c>
       <c r="C2121" t="s">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="D2121" t="s">
-        <v>1076</v>
+        <v>1164</v>
       </c>
       <c r="E2121">
         <v>1</v>
@@ -48494,14 +48497,14 @@
         <v>2120</v>
       </c>
       <c r="B2122" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>gillUK -&gt; gillUKs</v>
+        <f t="shared" ref="B2122:B2185" si="33">C2122&amp;" -&gt; " &amp;D2122</f>
+        <v>fluid ounce UK -&gt; FLUID OUNCE UK</v>
       </c>
       <c r="C2122" t="s">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="D2122" t="s">
-        <v>1077</v>
+        <v>1165</v>
       </c>
       <c r="E2122">
         <v>1</v>
@@ -48516,19 +48519,19 @@
       </c>
       <c r="B2123" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; GILLUKS</v>
+        <v>fluid ounce UK -&gt; gallonUK</v>
       </c>
       <c r="C2123" t="s">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="D2123" t="s">
-        <v>1078</v>
+        <v>394</v>
       </c>
       <c r="E2123">
         <v>1</v>
       </c>
       <c r="F2123">
-        <v>1</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="2124" spans="1:6" x14ac:dyDescent="0.35">
@@ -48537,19 +48540,19 @@
       </c>
       <c r="B2124" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; GILLUK</v>
+        <v>fluid ounce UK -&gt; gillUK</v>
       </c>
       <c r="C2124" t="s">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="D2124" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="E2124">
         <v>1</v>
       </c>
       <c r="F2124">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2125" spans="1:6" x14ac:dyDescent="0.35">
@@ -48558,19 +48561,19 @@
       </c>
       <c r="B2125" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; fluid ounce UK</v>
+        <v>fl oz UK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2125" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D2125" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E2125">
         <v>1</v>
       </c>
       <c r="F2125">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2126" spans="1:6" x14ac:dyDescent="0.35">
@@ -48579,19 +48582,19 @@
       </c>
       <c r="B2126" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; pintUK</v>
+        <v>ozUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2126" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D2126" t="s">
-        <v>1080</v>
+        <v>1159</v>
       </c>
       <c r="E2126">
         <v>1</v>
       </c>
       <c r="F2126">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2127" spans="1:6" x14ac:dyDescent="0.35">
@@ -48600,13 +48603,13 @@
       </c>
       <c r="B2127" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>giUK -&gt; gillUK</v>
+        <v>ounceUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2127" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D2127" t="s">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="E2127">
         <v>1</v>
@@ -48621,13 +48624,13 @@
       </c>
       <c r="B2128" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; ptUK</v>
+        <v>gillUK -&gt; giUK</v>
       </c>
       <c r="C2128" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D2128" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E2128">
         <v>1</v>
@@ -48642,13 +48645,13 @@
       </c>
       <c r="B2129" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; pintUKs</v>
+        <v>gillUK -&gt; gillUKs</v>
       </c>
       <c r="C2129" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D2129" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E2129">
         <v>1</v>
@@ -48663,13 +48666,13 @@
       </c>
       <c r="B2130" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; PINTUKS</v>
+        <v>gillUK -&gt; GILLUKS</v>
       </c>
       <c r="C2130" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D2130" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E2130">
         <v>1</v>
@@ -48684,13 +48687,13 @@
       </c>
       <c r="B2131" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; PINTUK</v>
+        <v>gillUK -&gt; GILLUK</v>
       </c>
       <c r="C2131" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D2131" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E2131">
         <v>1</v>
@@ -48705,13 +48708,13 @@
       </c>
       <c r="B2132" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; gillUK</v>
+        <v>gillUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2132" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D2132" t="s">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="E2132">
         <v>1</v>
@@ -48726,19 +48729,19 @@
       </c>
       <c r="B2133" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; quartUK</v>
+        <v>gillUK -&gt; pintUK</v>
       </c>
       <c r="C2133" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="D2133" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="E2133">
         <v>1</v>
       </c>
       <c r="F2133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2134" spans="1:6" x14ac:dyDescent="0.35">
@@ -48747,13 +48750,13 @@
       </c>
       <c r="B2134" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ptUK -&gt; pintUK</v>
+        <v>giUK -&gt; gillUK</v>
       </c>
       <c r="C2134" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D2134" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E2134">
         <v>1</v>
@@ -48768,13 +48771,13 @@
       </c>
       <c r="B2135" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; qtUK</v>
+        <v>pintUK -&gt; ptUK</v>
       </c>
       <c r="C2135" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="D2135" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="E2135">
         <v>1</v>
@@ -48789,13 +48792,13 @@
       </c>
       <c r="B2136" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; quartUKs</v>
+        <v>pintUK -&gt; pintUKs</v>
       </c>
       <c r="C2136" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="D2136" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E2136">
         <v>1</v>
@@ -48810,13 +48813,13 @@
       </c>
       <c r="B2137" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; QUARTUKS</v>
+        <v>pintUK -&gt; PINTUKS</v>
       </c>
       <c r="C2137" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="D2137" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="E2137">
         <v>1</v>
@@ -48831,13 +48834,13 @@
       </c>
       <c r="B2138" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; QUARTUK</v>
+        <v>pintUK -&gt; PINTUK</v>
       </c>
       <c r="C2138" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="D2138" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="E2138">
         <v>1</v>
@@ -48852,19 +48855,19 @@
       </c>
       <c r="B2139" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; pintUK</v>
+        <v>pintUK -&gt; gillUK</v>
       </c>
       <c r="C2139" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="D2139" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E2139">
         <v>1</v>
       </c>
       <c r="F2139">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2140" spans="1:6" x14ac:dyDescent="0.35">
@@ -48873,19 +48876,19 @@
       </c>
       <c r="B2140" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; gallonUK</v>
+        <v>pintUK -&gt; quartUK</v>
       </c>
       <c r="C2140" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="D2140" t="s">
-        <v>394</v>
+        <v>1069</v>
       </c>
       <c r="E2140">
         <v>1</v>
       </c>
       <c r="F2140">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2141" spans="1:6" x14ac:dyDescent="0.35">
@@ -48894,13 +48897,13 @@
       </c>
       <c r="B2141" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>qtUK -&gt; quartUK</v>
+        <v>ptUK -&gt; pintUK</v>
       </c>
       <c r="C2141" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D2141" t="s">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="E2141">
         <v>1</v>
@@ -48915,13 +48918,13 @@
       </c>
       <c r="B2142" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UKs -&gt; fluid ounce UK</v>
+        <v>quartUK -&gt; qtUK</v>
       </c>
       <c r="C2142" t="s">
-        <v>1161</v>
+        <v>1069</v>
       </c>
       <c r="D2142" t="s">
-        <v>1160</v>
+        <v>1084</v>
       </c>
       <c r="E2142">
         <v>1</v>
@@ -48936,13 +48939,13 @@
       </c>
       <c r="B2143" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUKs -&gt; gillUK</v>
+        <v>quartUK -&gt; quartUKs</v>
       </c>
       <c r="C2143" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="D2143" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="E2143">
         <v>1</v>
@@ -48957,13 +48960,13 @@
       </c>
       <c r="B2144" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUKs -&gt; pintUK</v>
+        <v>quartUK -&gt; QUARTUKS</v>
       </c>
       <c r="C2144" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="D2144" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="E2144">
         <v>1</v>
@@ -48978,13 +48981,13 @@
       </c>
       <c r="B2145" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUKs -&gt; quartUK</v>
+        <v>quartUK -&gt; QUARTUK</v>
       </c>
       <c r="C2145" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
       <c r="D2145" t="s">
-        <v>1070</v>
+        <v>1087</v>
       </c>
       <c r="E2145">
         <v>1</v>
@@ -48999,19 +49002,19 @@
       </c>
       <c r="B2146" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>FLUID OUNCE UKS -&gt; fluid ounce UK</v>
+        <v>quartUK -&gt; pintUK</v>
       </c>
       <c r="C2146" t="s">
-        <v>1165</v>
+        <v>1069</v>
       </c>
       <c r="D2146" t="s">
-        <v>1160</v>
+        <v>1079</v>
       </c>
       <c r="E2146">
         <v>1</v>
       </c>
       <c r="F2146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2147" spans="1:6" x14ac:dyDescent="0.35">
@@ -49020,19 +49023,19 @@
       </c>
       <c r="B2147" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>GILLUKS -&gt; gillUK</v>
+        <v>quartUK -&gt; gallonUK</v>
       </c>
       <c r="C2147" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="D2147" t="s">
-        <v>1075</v>
+        <v>394</v>
       </c>
       <c r="E2147">
         <v>1</v>
       </c>
       <c r="F2147">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2148" spans="1:6" x14ac:dyDescent="0.35">
@@ -49041,13 +49044,13 @@
       </c>
       <c r="B2148" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>PINTUKS -&gt; pintUK</v>
+        <v>qtUK -&gt; quartUK</v>
       </c>
       <c r="C2148" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D2148" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="E2148">
         <v>1</v>
@@ -49062,13 +49065,13 @@
       </c>
       <c r="B2149" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>QUARTUKS -&gt; quartUK</v>
+        <v>fluid ounce UKs -&gt; fluid ounce UK</v>
       </c>
       <c r="C2149" t="s">
-        <v>1087</v>
+        <v>1160</v>
       </c>
       <c r="D2149" t="s">
-        <v>1070</v>
+        <v>1159</v>
       </c>
       <c r="E2149">
         <v>1</v>
@@ -49083,13 +49086,13 @@
       </c>
       <c r="B2150" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>IMPERIAL GALLON -&gt; imperial gallon</v>
+        <v>gillUKs -&gt; gillUK</v>
       </c>
       <c r="C2150" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="D2150" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="E2150">
         <v>1</v>
@@ -49104,13 +49107,13 @@
       </c>
       <c r="B2151" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>FLUID OUNCE UK -&gt; fluid ounce UK</v>
+        <v>pintUKs -&gt; pintUK</v>
       </c>
       <c r="C2151" t="s">
-        <v>1166</v>
+        <v>1081</v>
       </c>
       <c r="D2151" t="s">
-        <v>1160</v>
+        <v>1079</v>
       </c>
       <c r="E2151">
         <v>1</v>
@@ -49125,13 +49128,13 @@
       </c>
       <c r="B2152" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>GILLUK -&gt; gillUK</v>
+        <v>quartUKs -&gt; quartUK</v>
       </c>
       <c r="C2152" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="D2152" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E2152">
         <v>1</v>
@@ -49146,13 +49149,13 @@
       </c>
       <c r="B2153" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>PINTUK -&gt; pintUK</v>
+        <v>FLUID OUNCE UKS -&gt; fluid ounce UK</v>
       </c>
       <c r="C2153" t="s">
-        <v>1084</v>
+        <v>1164</v>
       </c>
       <c r="D2153" t="s">
-        <v>1080</v>
+        <v>1159</v>
       </c>
       <c r="E2153">
         <v>1</v>
@@ -49167,13 +49170,13 @@
       </c>
       <c r="B2154" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>QUARTUK -&gt; quartUK</v>
+        <v>GILLUKS -&gt; gillUK</v>
       </c>
       <c r="C2154" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="D2154" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="E2154">
         <v>1</v>
@@ -49188,19 +49191,19 @@
       </c>
       <c r="B2155" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>litre -&gt; gallonUK</v>
+        <v>PINTUKS -&gt; pintUK</v>
       </c>
       <c r="C2155" t="s">
-        <v>423</v>
+        <v>1082</v>
       </c>
       <c r="D2155" t="s">
-        <v>394</v>
+        <v>1079</v>
       </c>
       <c r="E2155">
         <v>1</v>
       </c>
       <c r="F2155">
-        <v>0.21997360316761991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2156" spans="1:6" x14ac:dyDescent="0.35">
@@ -49209,19 +49212,19 @@
       </c>
       <c r="B2156" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Pa -&gt; KPa</v>
+        <v>QUARTUKS -&gt; quartUK</v>
       </c>
       <c r="C2156" t="s">
-        <v>612</v>
+        <v>1086</v>
       </c>
       <c r="D2156" t="s">
-        <v>615</v>
+        <v>1069</v>
       </c>
       <c r="E2156">
         <v>1</v>
       </c>
       <c r="F2156">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2157" spans="1:6" x14ac:dyDescent="0.35">
@@ -49230,13 +49233,13 @@
       </c>
       <c r="B2157" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>kPa -&gt; KPa</v>
+        <v>IMPERIAL GALLON -&gt; imperial gallon</v>
       </c>
       <c r="C2157" t="s">
-        <v>614</v>
+        <v>1070</v>
       </c>
       <c r="D2157" t="s">
-        <v>615</v>
+        <v>1068</v>
       </c>
       <c r="E2157">
         <v>1</v>
@@ -49251,13 +49254,13 @@
       </c>
       <c r="B2158" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; kPa</v>
+        <v>FLUID OUNCE UK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2158" t="s">
-        <v>615</v>
+        <v>1165</v>
       </c>
       <c r="D2158" t="s">
-        <v>614</v>
+        <v>1159</v>
       </c>
       <c r="E2158">
         <v>1</v>
@@ -49272,13 +49275,13 @@
       </c>
       <c r="B2159" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; KPA</v>
+        <v>GILLUK -&gt; gillUK</v>
       </c>
       <c r="C2159" t="s">
-        <v>615</v>
+        <v>1078</v>
       </c>
       <c r="D2159" t="s">
-        <v>644</v>
+        <v>1074</v>
       </c>
       <c r="E2159">
         <v>1</v>
@@ -49293,19 +49296,19 @@
       </c>
       <c r="B2160" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; Pa</v>
+        <v>PINTUK -&gt; pintUK</v>
       </c>
       <c r="C2160" t="s">
-        <v>615</v>
+        <v>1083</v>
       </c>
       <c r="D2160" t="s">
-        <v>612</v>
+        <v>1079</v>
       </c>
       <c r="E2160">
         <v>1</v>
       </c>
       <c r="F2160">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2161" spans="1:6" x14ac:dyDescent="0.35">
@@ -49314,13 +49317,13 @@
       </c>
       <c r="B2161" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPA -&gt; KPa</v>
+        <v>QUARTUK -&gt; quartUK</v>
       </c>
       <c r="C2161" t="s">
-        <v>644</v>
+        <v>1087</v>
       </c>
       <c r="D2161" t="s">
-        <v>615</v>
+        <v>1069</v>
       </c>
       <c r="E2161">
         <v>1</v>
@@ -49335,19 +49338,19 @@
       </c>
       <c r="B2162" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; J</v>
+        <v>litre -&gt; gallonUK</v>
       </c>
       <c r="C2162" t="s">
-        <v>1089</v>
+        <v>423</v>
       </c>
       <c r="D2162" t="s">
-        <v>1090</v>
+        <v>394</v>
       </c>
       <c r="E2162">
         <v>1</v>
       </c>
       <c r="F2162">
-        <v>1</v>
+        <v>0.21997360316761991</v>
       </c>
     </row>
     <row r="2163" spans="1:6" x14ac:dyDescent="0.35">
@@ -49356,19 +49359,19 @@
       </c>
       <c r="B2163" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Watt second</v>
+        <v>Pa -&gt; KPa</v>
       </c>
       <c r="C2163" t="s">
-        <v>1089</v>
+        <v>612</v>
       </c>
       <c r="D2163" t="s">
-        <v>1091</v>
+        <v>615</v>
       </c>
       <c r="E2163">
         <v>1</v>
       </c>
       <c r="F2163">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2164" spans="1:6" x14ac:dyDescent="0.35">
@@ -49377,13 +49380,13 @@
       </c>
       <c r="B2164" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; N*m</v>
+        <v>kPa -&gt; KPa</v>
       </c>
       <c r="C2164" t="s">
-        <v>1089</v>
+        <v>614</v>
       </c>
       <c r="D2164" t="s">
-        <v>1092</v>
+        <v>615</v>
       </c>
       <c r="E2164">
         <v>1</v>
@@ -49398,13 +49401,13 @@
       </c>
       <c r="B2165" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; kg*m2/s2</v>
+        <v>KPa -&gt; kPa</v>
       </c>
       <c r="C2165" t="s">
-        <v>1089</v>
+        <v>615</v>
       </c>
       <c r="D2165" t="s">
-        <v>1093</v>
+        <v>614</v>
       </c>
       <c r="E2165">
         <v>1</v>
@@ -49419,13 +49422,13 @@
       </c>
       <c r="B2166" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Joules</v>
+        <v>KPa -&gt; KPA</v>
       </c>
       <c r="C2166" t="s">
-        <v>1089</v>
+        <v>615</v>
       </c>
       <c r="D2166" t="s">
-        <v>1094</v>
+        <v>644</v>
       </c>
       <c r="E2166">
         <v>1</v>
@@ -49440,19 +49443,19 @@
       </c>
       <c r="B2167" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; JOULE</v>
+        <v>KPa -&gt; Pa</v>
       </c>
       <c r="C2167" t="s">
-        <v>1089</v>
+        <v>615</v>
       </c>
       <c r="D2167" t="s">
-        <v>1095</v>
+        <v>612</v>
       </c>
       <c r="E2167">
         <v>1</v>
       </c>
       <c r="F2167">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2168" spans="1:6" x14ac:dyDescent="0.35">
@@ -49461,19 +49464,19 @@
       </c>
       <c r="B2168" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; gram calorie</v>
+        <v>KPA -&gt; KPa</v>
       </c>
       <c r="C2168" t="s">
-        <v>1089</v>
+        <v>644</v>
       </c>
       <c r="D2168" t="s">
-        <v>1096</v>
+        <v>615</v>
       </c>
       <c r="E2168">
         <v>1</v>
       </c>
       <c r="F2168">
-        <v>0.23900573613766729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2169" spans="1:6" x14ac:dyDescent="0.35">
@@ -49482,19 +49485,19 @@
       </c>
       <c r="B2169" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Kilojoule</v>
+        <v>Joule -&gt; J</v>
       </c>
       <c r="C2169" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2169" t="s">
         <v>1089</v>
       </c>
-      <c r="D2169" t="s">
-        <v>1097</v>
-      </c>
       <c r="E2169">
         <v>1</v>
       </c>
       <c r="F2169">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2170" spans="1:6" x14ac:dyDescent="0.35">
@@ -49503,13 +49506,13 @@
       </c>
       <c r="B2170" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>J -&gt; Joule</v>
+        <v>Joule -&gt; Watt second</v>
       </c>
       <c r="C2170" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2170" t="s">
         <v>1090</v>
-      </c>
-      <c r="D2170" t="s">
-        <v>1089</v>
       </c>
       <c r="E2170">
         <v>1</v>
@@ -49524,13 +49527,13 @@
       </c>
       <c r="B2171" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>J -&gt; J</v>
+        <v>Joule -&gt; N*m</v>
       </c>
       <c r="C2171" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D2171" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E2171">
         <v>1</v>
@@ -49545,13 +49548,13 @@
       </c>
       <c r="B2172" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Joule</v>
+        <v>Joule -&gt; kg*m2/s2</v>
       </c>
       <c r="C2172" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D2172" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E2172">
         <v>1</v>
@@ -49566,13 +49569,13 @@
       </c>
       <c r="B2173" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Watt*second</v>
+        <v>Joule -&gt; Joules</v>
       </c>
       <c r="C2173" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D2173" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="E2173">
         <v>1</v>
@@ -49587,13 +49590,13 @@
       </c>
       <c r="B2174" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; W*s</v>
+        <v>Joule -&gt; JOULE</v>
       </c>
       <c r="C2174" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D2174" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="E2174">
         <v>1</v>
@@ -49608,19 +49611,19 @@
       </c>
       <c r="B2175" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Ws</v>
+        <v>Joule -&gt; gram calorie</v>
       </c>
       <c r="C2175" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D2175" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="E2175">
         <v>1</v>
       </c>
       <c r="F2175">
-        <v>1</v>
+        <v>0.23900573613766729</v>
       </c>
     </row>
     <row r="2176" spans="1:6" x14ac:dyDescent="0.35">
@@ -49629,19 +49632,19 @@
       </c>
       <c r="B2176" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; WATT SECOND</v>
+        <v>Joule -&gt; Kilojoule</v>
       </c>
       <c r="C2176" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D2176" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="E2176">
         <v>1</v>
       </c>
       <c r="F2176">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2177" spans="1:6" x14ac:dyDescent="0.35">
@@ -49650,13 +49653,13 @@
       </c>
       <c r="B2177" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N*m -&gt; Joule</v>
+        <v>J -&gt; Joule</v>
       </c>
       <c r="C2177" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D2177" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E2177">
         <v>1</v>
@@ -49671,13 +49674,13 @@
       </c>
       <c r="B2178" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N*m -&gt; N*M</v>
+        <v>J -&gt; J</v>
       </c>
       <c r="C2178" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D2178" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="E2178">
         <v>1</v>
@@ -49691,14 +49694,14 @@
         <v>2177</v>
       </c>
       <c r="B2179" s="2" t="str">
-        <f t="shared" ref="B2179:B2242" si="34">C2179&amp;" -&gt; " &amp;D2179</f>
-        <v>kg*m2/s2 -&gt; Joule</v>
+        <f t="shared" si="33"/>
+        <v>Watt second -&gt; Joule</v>
       </c>
       <c r="C2179" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D2179" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E2179">
         <v>1</v>
@@ -49712,14 +49715,14 @@
         <v>2178</v>
       </c>
       <c r="B2180" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>kg*m2/s2 -&gt; KG*M2/S2</v>
+        <f t="shared" si="33"/>
+        <v>Watt second -&gt; Watt*second</v>
       </c>
       <c r="C2180" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D2180" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E2180">
         <v>1</v>
@@ -49733,14 +49736,14 @@
         <v>2179</v>
       </c>
       <c r="B2181" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>Joules -&gt; Joule</v>
+        <f t="shared" si="33"/>
+        <v>Watt second -&gt; W*s</v>
       </c>
       <c r="C2181" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D2181" t="s">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="E2181">
         <v>1</v>
@@ -49754,14 +49757,14 @@
         <v>2180</v>
       </c>
       <c r="B2182" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>Joules -&gt; JOULES</v>
+        <f t="shared" si="33"/>
+        <v>Watt second -&gt; Ws</v>
       </c>
       <c r="C2182" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D2182" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E2182">
         <v>1</v>
@@ -49775,14 +49778,14 @@
         <v>2181</v>
       </c>
       <c r="B2183" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; kJ</v>
+        <f t="shared" si="33"/>
+        <v>Watt second -&gt; WATT SECOND</v>
       </c>
       <c r="C2183" t="s">
-        <v>1097</v>
+        <v>1090</v>
       </c>
       <c r="D2183" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E2183">
         <v>1</v>
@@ -49796,14 +49799,14 @@
         <v>2182</v>
       </c>
       <c r="B2184" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; KILOJOULE</v>
+        <f t="shared" si="33"/>
+        <v>N*m -&gt; Joule</v>
       </c>
       <c r="C2184" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D2184" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="E2184">
         <v>1</v>
@@ -49817,20 +49820,20 @@
         <v>2183</v>
       </c>
       <c r="B2185" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; Joule</v>
+        <f t="shared" si="33"/>
+        <v>N*m -&gt; N*M</v>
       </c>
       <c r="C2185" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D2185" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="E2185">
         <v>1</v>
       </c>
       <c r="F2185">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2186" spans="1:6" x14ac:dyDescent="0.35">
@@ -49838,20 +49841,20 @@
         <v>2184</v>
       </c>
       <c r="B2186" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; kilowatt hour</v>
+        <f t="shared" ref="B2186:B2249" si="34">C2186&amp;" -&gt; " &amp;D2186</f>
+        <v>kg*m2/s2 -&gt; Joule</v>
       </c>
       <c r="C2186" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D2186" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="E2186">
         <v>1</v>
       </c>
       <c r="F2186">
-        <v>2.7777777777777778E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2187" spans="1:6" x14ac:dyDescent="0.35">
@@ -49860,19 +49863,19 @@
       </c>
       <c r="B2187" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; British thermal unit</v>
+        <v>kg*m2/s2 -&gt; KG*M2/S2</v>
       </c>
       <c r="C2187" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="D2187" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="E2187">
         <v>1</v>
       </c>
       <c r="F2187">
-        <v>0.94786729857819907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2188" spans="1:6" x14ac:dyDescent="0.35">
@@ -49881,13 +49884,13 @@
       </c>
       <c r="B2188" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kJ -&gt; Kilojoule</v>
+        <v>Joules -&gt; Joule</v>
       </c>
       <c r="C2188" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="D2188" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="E2188">
         <v>1</v>
@@ -49902,13 +49905,13 @@
       </c>
       <c r="B2189" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kJ -&gt; KJ</v>
+        <v>Joules -&gt; JOULES</v>
       </c>
       <c r="C2189" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="D2189" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E2189">
         <v>1</v>
@@ -49923,13 +49926,13 @@
       </c>
       <c r="B2190" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kWh</v>
+        <v>Kilojoule -&gt; kJ</v>
       </c>
       <c r="C2190" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="D2190" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E2190">
         <v>1</v>
@@ -49944,13 +49947,13 @@
       </c>
       <c r="B2191" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kW*h</v>
+        <v>Kilojoule -&gt; KILOJOULE</v>
       </c>
       <c r="C2191" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="D2191" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E2191">
         <v>1</v>
@@ -49965,19 +49968,19 @@
       </c>
       <c r="B2192" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kilovatio hora</v>
+        <v>Kilojoule -&gt; Joule</v>
       </c>
       <c r="C2192" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="D2192" t="s">
-        <v>1112</v>
+        <v>1088</v>
       </c>
       <c r="E2192">
         <v>1</v>
       </c>
       <c r="F2192">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2193" spans="1:6" x14ac:dyDescent="0.35">
@@ -49986,19 +49989,19 @@
       </c>
       <c r="B2193" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; KILOWATT HOUR</v>
+        <v>Kilojoule -&gt; kilowatt hour</v>
       </c>
       <c r="C2193" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="D2193" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="E2193">
         <v>1</v>
       </c>
       <c r="F2193">
-        <v>1</v>
+        <v>2.7777777777777778E-4</v>
       </c>
     </row>
     <row r="2194" spans="1:6" x14ac:dyDescent="0.35">
@@ -50007,19 +50010,19 @@
       </c>
       <c r="B2194" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; Kilojoule</v>
+        <v>Kilojoule -&gt; British thermal unit</v>
       </c>
       <c r="C2194" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D2194" t="s">
         <v>1107</v>
       </c>
-      <c r="D2194" t="s">
-        <v>1097</v>
-      </c>
       <c r="E2194">
         <v>1</v>
       </c>
       <c r="F2194">
-        <v>3600</v>
+        <v>0.94786729857819907</v>
       </c>
     </row>
     <row r="2195" spans="1:6" x14ac:dyDescent="0.35">
@@ -50028,13 +50031,13 @@
       </c>
       <c r="B2195" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kWh -&gt; kilowatt hour</v>
+        <v>kJ -&gt; Kilojoule</v>
       </c>
       <c r="C2195" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D2195" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="E2195">
         <v>1</v>
@@ -50049,13 +50052,13 @@
       </c>
       <c r="B2196" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kWh -&gt; KWH</v>
+        <v>kJ -&gt; KJ</v>
       </c>
       <c r="C2196" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D2196" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E2196">
         <v>1</v>
@@ -50070,13 +50073,13 @@
       </c>
       <c r="B2197" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kW*h -&gt; kilowatt hour</v>
+        <v>kilowatt hour -&gt; kWh</v>
       </c>
       <c r="C2197" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D2197" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="E2197">
         <v>1</v>
@@ -50091,13 +50094,13 @@
       </c>
       <c r="B2198" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kW*h -&gt; KW*H</v>
+        <v>kilowatt hour -&gt; kW*h</v>
       </c>
       <c r="C2198" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="D2198" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="E2198">
         <v>1</v>
@@ -50112,13 +50115,13 @@
       </c>
       <c r="B2199" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilovatio hora -&gt; kilowatt hour</v>
+        <v>kilowatt hour -&gt; kilovatio hora</v>
       </c>
       <c r="C2199" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D2199" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="E2199">
         <v>1</v>
@@ -50133,13 +50136,13 @@
       </c>
       <c r="B2200" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilovatio hora -&gt; KILOVATIO HORA</v>
+        <v>kilowatt hour -&gt; KILOWATT HOUR</v>
       </c>
       <c r="C2200" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D2200" t="s">
         <v>1112</v>
-      </c>
-      <c r="D2200" t="s">
-        <v>1116</v>
       </c>
       <c r="E2200">
         <v>1</v>
@@ -50154,19 +50157,19 @@
       </c>
       <c r="B2201" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; BTU</v>
+        <v>kilowatt hour -&gt; Kilojoule</v>
       </c>
       <c r="C2201" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D2201" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="E2201">
         <v>1</v>
       </c>
       <c r="F2201">
-        <v>1</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2202" spans="1:6" x14ac:dyDescent="0.35">
@@ -50175,13 +50178,13 @@
       </c>
       <c r="B2202" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; BRITISH THERMAL UNIT</v>
+        <v>kWh -&gt; kilowatt hour</v>
       </c>
       <c r="C2202" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D2202" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="E2202">
         <v>1</v>
@@ -50196,19 +50199,19 @@
       </c>
       <c r="B2203" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; Kilojoule</v>
+        <v>kWh -&gt; KWH</v>
       </c>
       <c r="C2203" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D2203" t="s">
-        <v>1097</v>
+        <v>1113</v>
       </c>
       <c r="E2203">
         <v>1</v>
       </c>
       <c r="F2203">
-        <v>1.0549999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2204" spans="1:6" x14ac:dyDescent="0.35">
@@ -50217,13 +50220,13 @@
       </c>
       <c r="B2204" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BTU -&gt; British thermal unit</v>
+        <v>kW*h -&gt; kilowatt hour</v>
       </c>
       <c r="C2204" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D2204" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E2204">
         <v>1</v>
@@ -50238,13 +50241,13 @@
       </c>
       <c r="B2205" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BTU -&gt; BTU</v>
+        <v>kW*h -&gt; KW*H</v>
       </c>
       <c r="C2205" t="s">
-        <v>1117</v>
+        <v>1110</v>
       </c>
       <c r="D2205" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E2205">
         <v>1</v>
@@ -50259,13 +50262,13 @@
       </c>
       <c r="B2206" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt*second -&gt; Watt second</v>
+        <v>kilovatio hora -&gt; kilowatt hour</v>
       </c>
       <c r="C2206" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="D2206" t="s">
-        <v>1091</v>
+        <v>1106</v>
       </c>
       <c r="E2206">
         <v>1</v>
@@ -50280,13 +50283,13 @@
       </c>
       <c r="B2207" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt*second -&gt; WATT*SECOND</v>
+        <v>kilovatio hora -&gt; KILOVATIO HORA</v>
       </c>
       <c r="C2207" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="D2207" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E2207">
         <v>1</v>
@@ -50301,13 +50304,13 @@
       </c>
       <c r="B2208" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*s -&gt; Watt second</v>
+        <v>British thermal unit -&gt; BTU</v>
       </c>
       <c r="C2208" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="D2208" t="s">
-        <v>1091</v>
+        <v>1116</v>
       </c>
       <c r="E2208">
         <v>1</v>
@@ -50322,13 +50325,13 @@
       </c>
       <c r="B2209" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*s -&gt; W*S</v>
+        <v>British thermal unit -&gt; BRITISH THERMAL UNIT</v>
       </c>
       <c r="C2209" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="D2209" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E2209">
         <v>1</v>
@@ -50343,19 +50346,19 @@
       </c>
       <c r="B2210" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Ws -&gt; Watt second</v>
+        <v>British thermal unit -&gt; Kilojoule</v>
       </c>
       <c r="C2210" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="D2210" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="E2210">
         <v>1</v>
       </c>
       <c r="F2210">
-        <v>1</v>
+        <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="2211" spans="1:6" x14ac:dyDescent="0.35">
@@ -50364,13 +50367,13 @@
       </c>
       <c r="B2211" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Ws -&gt; WS</v>
+        <v>BTU -&gt; British thermal unit</v>
       </c>
       <c r="C2211" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="D2211" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="E2211">
         <v>1</v>
@@ -50385,13 +50388,13 @@
       </c>
       <c r="B2212" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; Wh</v>
+        <v>BTU -&gt; BTU</v>
       </c>
       <c r="C2212" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D2212" t="s">
-        <v>1123</v>
+        <v>1116</v>
       </c>
       <c r="E2212">
         <v>1</v>
@@ -50406,13 +50409,13 @@
       </c>
       <c r="B2213" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; W*h</v>
+        <v>Watt*second -&gt; Watt second</v>
       </c>
       <c r="C2213" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="D2213" t="s">
-        <v>1124</v>
+        <v>1090</v>
       </c>
       <c r="E2213">
         <v>1</v>
@@ -50427,13 +50430,13 @@
       </c>
       <c r="B2214" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; WATT HOUR</v>
+        <v>Watt*second -&gt; WATT*SECOND</v>
       </c>
       <c r="C2214" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="D2214" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="E2214">
         <v>1</v>
@@ -50448,13 +50451,13 @@
       </c>
       <c r="B2215" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Wh -&gt; Watt hour</v>
+        <v>W*s -&gt; Watt second</v>
       </c>
       <c r="C2215" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="D2215" t="s">
-        <v>1122</v>
+        <v>1090</v>
       </c>
       <c r="E2215">
         <v>1</v>
@@ -50469,13 +50472,13 @@
       </c>
       <c r="B2216" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Wh -&gt; WH</v>
+        <v>W*s -&gt; W*S</v>
       </c>
       <c r="C2216" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="D2216" t="s">
-        <v>1126</v>
+        <v>1119</v>
       </c>
       <c r="E2216">
         <v>1</v>
@@ -50490,13 +50493,13 @@
       </c>
       <c r="B2217" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*h -&gt; Watt hour</v>
+        <v>Ws -&gt; Watt second</v>
       </c>
       <c r="C2217" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="D2217" t="s">
-        <v>1122</v>
+        <v>1090</v>
       </c>
       <c r="E2217">
         <v>1</v>
@@ -50511,13 +50514,13 @@
       </c>
       <c r="B2218" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*h -&gt; W*H</v>
+        <v>Ws -&gt; WS</v>
       </c>
       <c r="C2218" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="D2218" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="E2218">
         <v>1</v>
@@ -50532,13 +50535,13 @@
       </c>
       <c r="B2219" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; cal</v>
+        <v>Watt hour -&gt; Wh</v>
       </c>
       <c r="C2219" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="D2219" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="E2219">
         <v>1</v>
@@ -50553,13 +50556,13 @@
       </c>
       <c r="B2220" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; calorie</v>
+        <v>Watt hour -&gt; W*h</v>
       </c>
       <c r="C2220" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="D2220" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="E2220">
         <v>1</v>
@@ -50574,13 +50577,13 @@
       </c>
       <c r="B2221" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; Calorie</v>
+        <v>Watt hour -&gt; WATT HOUR</v>
       </c>
       <c r="C2221" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="D2221" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E2221">
         <v>1</v>
@@ -50595,13 +50598,13 @@
       </c>
       <c r="B2222" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; GRAM CALORIE</v>
+        <v>Wh -&gt; Watt hour</v>
       </c>
       <c r="C2222" t="s">
-        <v>1096</v>
+        <v>1122</v>
       </c>
       <c r="D2222" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="E2222">
         <v>1</v>
@@ -50616,19 +50619,19 @@
       </c>
       <c r="B2223" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; Joule</v>
+        <v>Wh -&gt; WH</v>
       </c>
       <c r="C2223" t="s">
-        <v>1096</v>
+        <v>1122</v>
       </c>
       <c r="D2223" t="s">
-        <v>1089</v>
+        <v>1125</v>
       </c>
       <c r="E2223">
         <v>1</v>
       </c>
       <c r="F2223">
-        <v>4.1840000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2224" spans="1:6" x14ac:dyDescent="0.35">
@@ -50637,13 +50640,13 @@
       </c>
       <c r="B2224" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>cal -&gt; gram calorie</v>
+        <v>W*h -&gt; Watt hour</v>
       </c>
       <c r="C2224" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D2224" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="E2224">
         <v>1</v>
@@ -50658,13 +50661,13 @@
       </c>
       <c r="B2225" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>cal -&gt; CAL</v>
+        <v>W*h -&gt; W*H</v>
       </c>
       <c r="C2225" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D2225" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="E2225">
         <v>1</v>
@@ -50679,13 +50682,13 @@
       </c>
       <c r="B2226" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>calorie -&gt; gram calorie</v>
+        <v>gram calorie -&gt; cal</v>
       </c>
       <c r="C2226" t="s">
-        <v>1129</v>
+        <v>1095</v>
       </c>
       <c r="D2226" t="s">
-        <v>1096</v>
+        <v>1127</v>
       </c>
       <c r="E2226">
         <v>1</v>
@@ -50700,13 +50703,13 @@
       </c>
       <c r="B2227" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>calorie -&gt; CALORIE</v>
+        <v>gram calorie -&gt; calorie</v>
       </c>
       <c r="C2227" t="s">
-        <v>1129</v>
+        <v>1095</v>
       </c>
       <c r="D2227" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E2227">
         <v>1</v>
@@ -50721,13 +50724,13 @@
       </c>
       <c r="B2228" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Calorie -&gt; gram calorie</v>
+        <v>gram calorie -&gt; Calorie</v>
       </c>
       <c r="C2228" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="D2228" t="s">
-        <v>1096</v>
+        <v>1129</v>
       </c>
       <c r="E2228">
         <v>1</v>
@@ -50742,13 +50745,13 @@
       </c>
       <c r="B2229" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Calorie -&gt; CALORIE</v>
+        <v>gram calorie -&gt; GRAM CALORIE</v>
       </c>
       <c r="C2229" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D2229" t="s">
         <v>1130</v>
-      </c>
-      <c r="D2229" t="s">
-        <v>1133</v>
       </c>
       <c r="E2229">
         <v>1</v>
@@ -50763,19 +50766,19 @@
       </c>
       <c r="B2230" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>JOULE -&gt; Joule</v>
+        <v>gram calorie -&gt; Joule</v>
       </c>
       <c r="C2230" t="s">
         <v>1095</v>
       </c>
       <c r="D2230" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E2230">
         <v>1</v>
       </c>
       <c r="F2230">
-        <v>1</v>
+        <v>4.1840000000000002</v>
       </c>
     </row>
     <row r="2231" spans="1:6" x14ac:dyDescent="0.35">
@@ -50784,13 +50787,13 @@
       </c>
       <c r="B2231" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>WATT SECOND -&gt; Watt second</v>
+        <v>cal -&gt; gram calorie</v>
       </c>
       <c r="C2231" t="s">
-        <v>1101</v>
+        <v>1127</v>
       </c>
       <c r="D2231" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="E2231">
         <v>1</v>
@@ -50805,13 +50808,13 @@
       </c>
       <c r="B2232" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>N*M -&gt; N*m</v>
+        <v>cal -&gt; CAL</v>
       </c>
       <c r="C2232" t="s">
-        <v>1102</v>
+        <v>1127</v>
       </c>
       <c r="D2232" t="s">
-        <v>1092</v>
+        <v>1131</v>
       </c>
       <c r="E2232">
         <v>1</v>
@@ -50826,13 +50829,13 @@
       </c>
       <c r="B2233" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KG*M2/S2 -&gt; kg*m2/s2</v>
+        <v>calorie -&gt; gram calorie</v>
       </c>
       <c r="C2233" t="s">
-        <v>1103</v>
+        <v>1128</v>
       </c>
       <c r="D2233" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E2233">
         <v>1</v>
@@ -50847,13 +50850,13 @@
       </c>
       <c r="B2234" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>JOULES -&gt; Joules</v>
+        <v>calorie -&gt; CALORIE</v>
       </c>
       <c r="C2234" t="s">
-        <v>1104</v>
+        <v>1128</v>
       </c>
       <c r="D2234" t="s">
-        <v>1094</v>
+        <v>1132</v>
       </c>
       <c r="E2234">
         <v>1</v>
@@ -50868,13 +50871,13 @@
       </c>
       <c r="B2235" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOJOULE -&gt; Kilojoule</v>
+        <v>Calorie -&gt; gram calorie</v>
       </c>
       <c r="C2235" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="D2235" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E2235">
         <v>1</v>
@@ -50889,13 +50892,13 @@
       </c>
       <c r="B2236" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KJ -&gt; kJ</v>
+        <v>Calorie -&gt; CALORIE</v>
       </c>
       <c r="C2236" t="s">
-        <v>1109</v>
+        <v>1129</v>
       </c>
       <c r="D2236" t="s">
-        <v>1105</v>
+        <v>1132</v>
       </c>
       <c r="E2236">
         <v>1</v>
@@ -50910,13 +50913,13 @@
       </c>
       <c r="B2237" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOWATT HOUR -&gt; kilowatt hour</v>
+        <v>JOULE -&gt; Joule</v>
       </c>
       <c r="C2237" t="s">
-        <v>1113</v>
+        <v>1094</v>
       </c>
       <c r="D2237" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="E2237">
         <v>1</v>
@@ -50931,13 +50934,13 @@
       </c>
       <c r="B2238" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KWH -&gt; kWh</v>
+        <v>WATT SECOND -&gt; Watt second</v>
       </c>
       <c r="C2238" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="D2238" t="s">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="E2238">
         <v>1</v>
@@ -50952,13 +50955,13 @@
       </c>
       <c r="B2239" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KW*H -&gt; kW*h</v>
+        <v>N*M -&gt; N*m</v>
       </c>
       <c r="C2239" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
       <c r="D2239" t="s">
-        <v>1111</v>
+        <v>1091</v>
       </c>
       <c r="E2239">
         <v>1</v>
@@ -50973,13 +50976,13 @@
       </c>
       <c r="B2240" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOVATIO HORA -&gt; kilovatio hora</v>
+        <v>KG*M2/S2 -&gt; kg*m2/s2</v>
       </c>
       <c r="C2240" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="D2240" t="s">
-        <v>1112</v>
+        <v>1092</v>
       </c>
       <c r="E2240">
         <v>1</v>
@@ -50994,13 +50997,13 @@
       </c>
       <c r="B2241" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BRITISH THERMAL UNIT -&gt; British thermal unit</v>
+        <v>JOULES -&gt; Joules</v>
       </c>
       <c r="C2241" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="D2241" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="E2241">
         <v>1</v>
@@ -51015,13 +51018,13 @@
       </c>
       <c r="B2242" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>WATT*SECOND -&gt; Watt*second</v>
+        <v>KILOJOULE -&gt; Kilojoule</v>
       </c>
       <c r="C2242" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="D2242" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E2242">
         <v>1</v>
@@ -51035,14 +51038,14 @@
         <v>2241</v>
       </c>
       <c r="B2243" s="2" t="str">
-        <f t="shared" ref="B2243:B2293" si="35">C2243&amp;" -&gt; " &amp;D2243</f>
-        <v>W*S -&gt; W*s</v>
+        <f t="shared" si="34"/>
+        <v>KJ -&gt; kJ</v>
       </c>
       <c r="C2243" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="D2243" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="E2243">
         <v>1</v>
@@ -51056,14 +51059,14 @@
         <v>2242</v>
       </c>
       <c r="B2244" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>WS -&gt; Ws</v>
+        <f t="shared" si="34"/>
+        <v>KILOWATT HOUR -&gt; kilowatt hour</v>
       </c>
       <c r="C2244" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="D2244" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E2244">
         <v>1</v>
@@ -51077,14 +51080,14 @@
         <v>2243</v>
       </c>
       <c r="B2245" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>WATT HOUR -&gt; Watt hour</v>
+        <f t="shared" si="34"/>
+        <v>KWH -&gt; kWh</v>
       </c>
       <c r="C2245" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="D2245" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="E2245">
         <v>1</v>
@@ -51098,14 +51101,14 @@
         <v>2244</v>
       </c>
       <c r="B2246" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>WH -&gt; Wh</v>
+        <f t="shared" si="34"/>
+        <v>KW*H -&gt; kW*h</v>
       </c>
       <c r="C2246" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="D2246" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="E2246">
         <v>1</v>
@@ -51119,14 +51122,14 @@
         <v>2245</v>
       </c>
       <c r="B2247" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>W*H -&gt; W*h</v>
+        <f t="shared" si="34"/>
+        <v>KILOVATIO HORA -&gt; kilovatio hora</v>
       </c>
       <c r="C2247" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="D2247" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="E2247">
         <v>1</v>
@@ -51140,14 +51143,14 @@
         <v>2246</v>
       </c>
       <c r="B2248" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>GRAM CALORIE -&gt; gram calorie</v>
+        <f t="shared" si="34"/>
+        <v>BRITISH THERMAL UNIT -&gt; British thermal unit</v>
       </c>
       <c r="C2248" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="D2248" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
       <c r="E2248">
         <v>1</v>
@@ -51161,14 +51164,14 @@
         <v>2247</v>
       </c>
       <c r="B2249" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>CAL -&gt; cal</v>
+        <f t="shared" si="34"/>
+        <v>WATT*SECOND -&gt; Watt*second</v>
       </c>
       <c r="C2249" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="D2249" t="s">
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="E2249">
         <v>1</v>
@@ -51182,14 +51185,14 @@
         <v>2248</v>
       </c>
       <c r="B2250" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>CALORIE -&gt; calorie</v>
+        <f t="shared" ref="B2250:B2300" si="35">C2250&amp;" -&gt; " &amp;D2250</f>
+        <v>W*S -&gt; W*s</v>
       </c>
       <c r="C2250" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="D2250" t="s">
-        <v>1129</v>
+        <v>1098</v>
       </c>
       <c r="E2250">
         <v>1</v>
@@ -51204,13 +51207,13 @@
       </c>
       <c r="B2251" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CALORIE -&gt; Calorie</v>
+        <v>WS -&gt; Ws</v>
       </c>
       <c r="C2251" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="D2251" t="s">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="E2251">
         <v>1</v>
@@ -51225,13 +51228,13 @@
       </c>
       <c r="B2252" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; hp</v>
+        <v>WATT HOUR -&gt; Watt hour</v>
       </c>
       <c r="C2252" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="D2252" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="E2252">
         <v>1</v>
@@ -51246,13 +51249,13 @@
       </c>
       <c r="B2253" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; HORSEPOWER</v>
+        <v>WH -&gt; Wh</v>
       </c>
       <c r="C2253" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="D2253" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="E2253">
         <v>1</v>
@@ -51267,19 +51270,19 @@
       </c>
       <c r="B2254" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; Watt</v>
+        <v>W*H -&gt; W*h</v>
       </c>
       <c r="C2254" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="D2254" t="s">
-        <v>1061</v>
+        <v>1123</v>
       </c>
       <c r="E2254">
         <v>1</v>
       </c>
       <c r="F2254">
-        <v>745.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2255" spans="1:6" x14ac:dyDescent="0.35">
@@ -51288,13 +51291,13 @@
       </c>
       <c r="B2255" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>hp -&gt; Horsepower</v>
+        <v>GRAM CALORIE -&gt; gram calorie</v>
       </c>
       <c r="C2255" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="D2255" t="s">
-        <v>1134</v>
+        <v>1095</v>
       </c>
       <c r="E2255">
         <v>1</v>
@@ -51309,13 +51312,13 @@
       </c>
       <c r="B2256" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>hp -&gt; HP</v>
+        <v>CAL -&gt; cal</v>
       </c>
       <c r="C2256" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D2256" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="E2256">
         <v>1</v>
@@ -51330,13 +51333,13 @@
       </c>
       <c r="B2257" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; W</v>
+        <v>CALORIE -&gt; calorie</v>
       </c>
       <c r="C2257" t="s">
-        <v>1061</v>
+        <v>1132</v>
       </c>
       <c r="D2257" t="s">
-        <v>70</v>
+        <v>1128</v>
       </c>
       <c r="E2257">
         <v>1</v>
@@ -51351,13 +51354,13 @@
       </c>
       <c r="B2258" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; J/s</v>
+        <v>CALORIE -&gt; Calorie</v>
       </c>
       <c r="C2258" t="s">
-        <v>1061</v>
+        <v>1132</v>
       </c>
       <c r="D2258" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E2258">
         <v>1</v>
@@ -51372,13 +51375,13 @@
       </c>
       <c r="B2259" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; WATT</v>
+        <v>Horsepower -&gt; hp</v>
       </c>
       <c r="C2259" t="s">
-        <v>1061</v>
+        <v>1133</v>
       </c>
       <c r="D2259" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E2259">
         <v>1</v>
@@ -51393,19 +51396,19 @@
       </c>
       <c r="B2260" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; Horsepower</v>
+        <v>Horsepower -&gt; HORSEPOWER</v>
       </c>
       <c r="C2260" t="s">
-        <v>1061</v>
+        <v>1133</v>
       </c>
       <c r="D2260" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E2260">
         <v>1</v>
       </c>
       <c r="F2260">
-        <v>1.341021858656296E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.35">
@@ -51414,19 +51417,19 @@
       </c>
       <c r="B2261" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/s -&gt; Watt</v>
+        <v>Horsepower -&gt; Watt</v>
       </c>
       <c r="C2261" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="D2261" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E2261">
         <v>1</v>
       </c>
       <c r="F2261">
-        <v>1</v>
+        <v>745.7</v>
       </c>
     </row>
     <row r="2262" spans="1:6" x14ac:dyDescent="0.35">
@@ -51435,13 +51438,13 @@
       </c>
       <c r="B2262" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/s -&gt; J/S</v>
+        <v>hp -&gt; Horsepower</v>
       </c>
       <c r="C2262" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D2262" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="E2262">
         <v>1</v>
@@ -51456,13 +51459,13 @@
       </c>
       <c r="B2263" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>HORSEPOWER -&gt; Horsepower</v>
+        <v>hp -&gt; HP</v>
       </c>
       <c r="C2263" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D2263" t="s">
         <v>1136</v>
-      </c>
-      <c r="D2263" t="s">
-        <v>1134</v>
       </c>
       <c r="E2263">
         <v>1</v>
@@ -51477,13 +51480,13 @@
       </c>
       <c r="B2264" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>HP -&gt; hp</v>
+        <v>Watt -&gt; W</v>
       </c>
       <c r="C2264" t="s">
-        <v>1137</v>
+        <v>1060</v>
       </c>
       <c r="D2264" t="s">
-        <v>1135</v>
+        <v>70</v>
       </c>
       <c r="E2264">
         <v>1</v>
@@ -51498,13 +51501,13 @@
       </c>
       <c r="B2265" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WATT -&gt; Watt</v>
+        <v>Watt -&gt; J/s</v>
       </c>
       <c r="C2265" t="s">
-        <v>1139</v>
+        <v>1060</v>
       </c>
       <c r="D2265" t="s">
-        <v>1061</v>
+        <v>1137</v>
       </c>
       <c r="E2265">
         <v>1</v>
@@ -51519,10 +51522,10 @@
       </c>
       <c r="B2266" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/S -&gt; J/s</v>
+        <v>Watt -&gt; WATT</v>
       </c>
       <c r="C2266" t="s">
-        <v>1140</v>
+        <v>1060</v>
       </c>
       <c r="D2266" t="s">
         <v>1138</v>
@@ -51540,19 +51543,19 @@
       </c>
       <c r="B2267" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>stb/day/psi -&gt; STB/DAY-PSI</v>
+        <v>Watt -&gt; Horsepower</v>
       </c>
       <c r="C2267" t="s">
-        <v>995</v>
+        <v>1060</v>
       </c>
       <c r="D2267" t="s">
-        <v>1015</v>
+        <v>1133</v>
       </c>
       <c r="E2267">
         <v>1</v>
       </c>
       <c r="F2267">
-        <v>1</v>
+        <v>1.341021858656296E-3</v>
       </c>
     </row>
     <row r="2268" spans="1:6" x14ac:dyDescent="0.35">
@@ -51561,13 +51564,13 @@
       </c>
       <c r="B2268" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>stb/day/psi -&gt; STB/DAY-PSIA</v>
+        <v>J/s -&gt; Watt</v>
       </c>
       <c r="C2268" t="s">
-        <v>995</v>
+        <v>1137</v>
       </c>
       <c r="D2268" t="s">
-        <v>1016</v>
+        <v>1060</v>
       </c>
       <c r="E2268">
         <v>1</v>
@@ -51582,13 +51585,13 @@
       </c>
       <c r="B2269" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSI -&gt; stb/day/psi</v>
+        <v>J/s -&gt; J/S</v>
       </c>
       <c r="C2269" t="s">
-        <v>1015</v>
+        <v>1137</v>
       </c>
       <c r="D2269" t="s">
-        <v>995</v>
+        <v>1139</v>
       </c>
       <c r="E2269">
         <v>1</v>
@@ -51603,13 +51606,13 @@
       </c>
       <c r="B2270" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSI -&gt; STB/DAY-PSI</v>
+        <v>HORSEPOWER -&gt; Horsepower</v>
       </c>
       <c r="C2270" t="s">
-        <v>1015</v>
+        <v>1135</v>
       </c>
       <c r="D2270" t="s">
-        <v>1015</v>
+        <v>1133</v>
       </c>
       <c r="E2270">
         <v>1</v>
@@ -51624,13 +51627,13 @@
       </c>
       <c r="B2271" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSIA -&gt; stb/day/psi</v>
+        <v>HP -&gt; hp</v>
       </c>
       <c r="C2271" t="s">
-        <v>1016</v>
+        <v>1136</v>
       </c>
       <c r="D2271" t="s">
-        <v>995</v>
+        <v>1134</v>
       </c>
       <c r="E2271">
         <v>1</v>
@@ -51645,13 +51648,13 @@
       </c>
       <c r="B2272" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSIA -&gt; STB/DAY-PSIA</v>
+        <v>WATT -&gt; Watt</v>
       </c>
       <c r="C2272" t="s">
-        <v>1016</v>
+        <v>1138</v>
       </c>
       <c r="D2272" t="s">
-        <v>1016</v>
+        <v>1060</v>
       </c>
       <c r="E2272">
         <v>1</v>
@@ -51666,13 +51669,13 @@
       </c>
       <c r="B2273" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; SM3/DAY-BAR</v>
+        <v>J/S -&gt; J/s</v>
       </c>
       <c r="C2273" t="s">
-        <v>1003</v>
+        <v>1139</v>
       </c>
       <c r="D2273" t="s">
-        <v>1023</v>
+        <v>1137</v>
       </c>
       <c r="E2273">
         <v>1</v>
@@ -51687,13 +51690,13 @@
       </c>
       <c r="B2274" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; SM3/DAY-BARA</v>
+        <v>stb/day/psi -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2274" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D2274" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="E2274">
         <v>1</v>
@@ -51708,13 +51711,13 @@
       </c>
       <c r="B2275" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; sm3/day/barsa</v>
+        <v>stb/day/psi -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2275" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D2275" t="s">
-        <v>1141</v>
+        <v>1015</v>
       </c>
       <c r="E2275">
         <v>1</v>
@@ -51729,13 +51732,13 @@
       </c>
       <c r="B2276" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BAR -&gt; sm3/day/bar</v>
+        <v>STB/DAY-PSI -&gt; stb/day/psi</v>
       </c>
       <c r="C2276" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D2276" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E2276">
         <v>1</v>
@@ -51750,13 +51753,13 @@
       </c>
       <c r="B2277" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BAR -&gt; SM3/DAY-BAR</v>
+        <v>STB/DAY-PSI -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2277" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D2277" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="E2277">
         <v>1</v>
@@ -51771,13 +51774,13 @@
       </c>
       <c r="B2278" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BARA -&gt; sm3/day/bar</v>
+        <v>STB/DAY-PSIA -&gt; stb/day/psi</v>
       </c>
       <c r="C2278" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D2278" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="E2278">
         <v>1</v>
@@ -51792,13 +51795,13 @@
       </c>
       <c r="B2279" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BARA -&gt; SM3/DAY-BARA</v>
+        <v>STB/DAY-PSIA -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2279" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="D2279" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="E2279">
         <v>1</v>
@@ -51813,13 +51816,13 @@
       </c>
       <c r="B2280" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/barsa -&gt; sm3/day/bar</v>
+        <v>sm3/day/bar -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2280" t="s">
-        <v>1141</v>
+        <v>1002</v>
       </c>
       <c r="D2280" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="E2280">
         <v>1</v>
@@ -51834,13 +51837,13 @@
       </c>
       <c r="B2281" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/barsa -&gt; SM3/DAY/BARSA</v>
+        <v>sm3/day/bar -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2281" t="s">
-        <v>1141</v>
+        <v>1002</v>
       </c>
       <c r="D2281" t="s">
-        <v>1142</v>
+        <v>1023</v>
       </c>
       <c r="E2281">
         <v>1</v>
@@ -51855,13 +51858,13 @@
       </c>
       <c r="B2282" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/kPa -&gt; SM3/DAY-KPA</v>
+        <v>sm3/day/bar -&gt; sm3/day/barsa</v>
       </c>
       <c r="C2282" t="s">
-        <v>1058</v>
+        <v>1002</v>
       </c>
       <c r="D2282" t="s">
-        <v>1027</v>
+        <v>1140</v>
       </c>
       <c r="E2282">
         <v>1</v>
@@ -51876,13 +51879,13 @@
       </c>
       <c r="B2283" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-KPA -&gt; sm3/day/kPa</v>
+        <v>SM3/DAY-BAR -&gt; sm3/day/bar</v>
       </c>
       <c r="C2283" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D2283" t="s">
-        <v>1058</v>
+        <v>1002</v>
       </c>
       <c r="E2283">
         <v>1</v>
@@ -51897,13 +51900,13 @@
       </c>
       <c r="B2284" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-KPA -&gt; SM3/DAY-KPA</v>
+        <v>SM3/DAY-BAR -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2284" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D2284" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E2284">
         <v>1</v>
@@ -51918,13 +51921,13 @@
       </c>
       <c r="B2285" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY/BARSA -&gt; sm3/day/barsa</v>
+        <v>SM3/DAY-BARA -&gt; sm3/day/bar</v>
       </c>
       <c r="C2285" t="s">
-        <v>1142</v>
+        <v>1023</v>
       </c>
       <c r="D2285" t="s">
-        <v>1141</v>
+        <v>1002</v>
       </c>
       <c r="E2285">
         <v>1</v>
@@ -51939,19 +51942,19 @@
       </c>
       <c r="B2286" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/ft -&gt; C/m</v>
+        <v>SM3/DAY-BARA -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2286" t="s">
-        <v>1143</v>
+        <v>1023</v>
       </c>
       <c r="D2286" t="s">
-        <v>1144</v>
+        <v>1023</v>
       </c>
       <c r="E2286">
         <v>1</v>
       </c>
       <c r="F2286">
-        <v>1.8226888305628459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2287" spans="1:6" x14ac:dyDescent="0.35">
@@ -51960,19 +51963,19 @@
       </c>
       <c r="B2287" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>C/m -&gt; F/ft</v>
+        <v>sm3/day/barsa -&gt; sm3/day/bar</v>
       </c>
       <c r="C2287" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D2287" t="s">
-        <v>1143</v>
+        <v>1002</v>
       </c>
       <c r="E2287">
         <v>1</v>
       </c>
       <c r="F2287">
-        <v>0.54864000000000013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2288" spans="1:6" x14ac:dyDescent="0.35">
@@ -51981,19 +51984,19 @@
       </c>
       <c r="B2288" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/yd -&gt; F/in</v>
+        <v>sm3/day/barsa -&gt; SM3/DAY/BARSA</v>
       </c>
       <c r="C2288" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="D2288" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E2288">
         <v>1</v>
       </c>
       <c r="F2288">
-        <v>2.777777777777778E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2289" spans="1:6" x14ac:dyDescent="0.35">
@@ -52002,19 +52005,19 @@
       </c>
       <c r="B2289" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/ft -&gt; C/km</v>
+        <v>sm3/day/kPa -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2289" t="s">
-        <v>1143</v>
+        <v>1057</v>
       </c>
       <c r="D2289" t="s">
-        <v>1147</v>
+        <v>1026</v>
       </c>
       <c r="E2289">
         <v>1</v>
       </c>
       <c r="F2289">
-        <v>1822.6888305628461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2290" spans="1:6" x14ac:dyDescent="0.35">
@@ -52023,13 +52026,13 @@
       </c>
       <c r="B2290" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>K/m -&gt; C/m</v>
+        <v>SM3/DAY-KPA -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2290" t="s">
-        <v>1148</v>
+        <v>1026</v>
       </c>
       <c r="D2290" t="s">
-        <v>1144</v>
+        <v>1057</v>
       </c>
       <c r="E2290">
         <v>1</v>
@@ -52044,19 +52047,19 @@
       </c>
       <c r="B2291" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>K/m -&gt; C/cm</v>
+        <v>SM3/DAY-KPA -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2291" t="s">
-        <v>1148</v>
+        <v>1026</v>
       </c>
       <c r="D2291" t="s">
-        <v>1149</v>
+        <v>1026</v>
       </c>
       <c r="E2291">
         <v>1</v>
       </c>
       <c r="F2291">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2292" spans="1:6" x14ac:dyDescent="0.35">
@@ -52065,19 +52068,19 @@
       </c>
       <c r="B2292" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>C/min -&gt; C/hour</v>
+        <v>SM3/DAY/BARSA -&gt; sm3/day/barsa</v>
       </c>
       <c r="C2292" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="D2292" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="E2292">
         <v>1</v>
       </c>
       <c r="F2292">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2293" spans="1:6" x14ac:dyDescent="0.35">
@@ -52086,18 +52089,165 @@
       </c>
       <c r="B2293" s="2" t="str">
         <f t="shared" si="35"/>
+        <v>F/ft -&gt; C/m</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D2293" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E2293">
+        <v>1</v>
+      </c>
+      <c r="F2293">
+        <v>1.8226888305628459</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2294" s="1">
+        <v>2292</v>
+      </c>
+      <c r="B2294" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>C/m -&gt; F/ft</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D2294" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E2294">
+        <v>1</v>
+      </c>
+      <c r="F2294">
+        <v>0.54864000000000013</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2295" s="1">
+        <v>2293</v>
+      </c>
+      <c r="B2295" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>F/yd -&gt; F/in</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D2295" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E2295">
+        <v>1</v>
+      </c>
+      <c r="F2295">
+        <v>2.777777777777778E-2</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2296" s="1">
+        <v>2294</v>
+      </c>
+      <c r="B2296" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>F/ft -&gt; C/km</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D2296" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E2296">
+        <v>1</v>
+      </c>
+      <c r="F2296">
+        <v>1822.6888305628461</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2297" s="1">
+        <v>2295</v>
+      </c>
+      <c r="B2297" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>K/m -&gt; C/m</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D2297" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E2297">
+        <v>1</v>
+      </c>
+      <c r="F2297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2298" s="1">
+        <v>2296</v>
+      </c>
+      <c r="B2298" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>K/m -&gt; C/cm</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D2298" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E2298">
+        <v>1</v>
+      </c>
+      <c r="F2298">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2299" s="1">
+        <v>2297</v>
+      </c>
+      <c r="B2299" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>C/min -&gt; C/hour</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D2299" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E2299">
+        <v>1</v>
+      </c>
+      <c r="F2299">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2300" s="1">
+        <v>2298</v>
+      </c>
+      <c r="B2300" s="2" t="str">
+        <f t="shared" si="35"/>
         <v>C/day -&gt; F/s</v>
       </c>
-      <c r="C2293" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D2293" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E2293">
+      <c r="C2300" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D2300" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E2300">
         <v>250</v>
       </c>
-      <c r="F2293">
+      <c r="F2300">
         <v>5.208333333333333E-3</v>
       </c>
     </row>

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A0A1D2-F775-40D1-A39C-0FA56936CBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925655C-EE82-4704-BFA7-2162772BA4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17530" yWindow="5010" windowWidth="20280" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3948,7 +3948,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925655C-EE82-4704-BFA7-2162772BA4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC7312-551E-46B1-9325-D657DBA0CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17530" yWindow="5010" windowWidth="20280" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15090" yWindow="200" windowWidth="13860" windowHeight="20450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4604" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="1172">
   <si>
     <t>source</t>
   </si>
@@ -3942,13 +3942,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2300"/>
+  <dimension ref="A1:F2299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2032" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2069" sqref="E2069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47153,7 +47153,7 @@
         <v>2056</v>
       </c>
       <c r="B2058" s="2" t="str">
-        <f t="shared" ref="B2058:B2121" si="32">C2058&amp;" -&gt; " &amp;D2058</f>
+        <f t="shared" ref="B2058:B2120" si="32">C2058&amp;" -&gt; " &amp;D2058</f>
         <v>sec/d -&gt; SEC/D</v>
       </c>
       <c r="C2058" t="s">
@@ -47343,13 +47343,13 @@
       </c>
       <c r="B2067" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; None</v>
+        <v>fraction -&gt; FRACTION</v>
       </c>
       <c r="C2067" t="s">
         <v>1035</v>
       </c>
       <c r="D2067" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E2067">
         <v>1</v>
@@ -47364,19 +47364,19 @@
       </c>
       <c r="B2068" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; FRACTION</v>
+        <v>fraction -&gt; percentage</v>
       </c>
       <c r="C2068" t="s">
         <v>1035</v>
       </c>
       <c r="D2068" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="E2068">
         <v>1</v>
       </c>
       <c r="F2068">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2069" spans="1:6" x14ac:dyDescent="0.35">
@@ -47385,19 +47385,19 @@
       </c>
       <c r="B2069" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fraction -&gt; percentage</v>
+        <v>percentage -&gt; fraction</v>
       </c>
       <c r="C2069" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D2069" t="s">
         <v>1035</v>
       </c>
-      <c r="D2069" t="s">
-        <v>1045</v>
-      </c>
       <c r="E2069">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="F2069">
-        <v>100</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="2070" spans="1:6" x14ac:dyDescent="0.35">
@@ -47406,19 +47406,19 @@
       </c>
       <c r="B2070" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>percentage -&gt; fraction</v>
+        <v>ratio -&gt; fraction</v>
       </c>
       <c r="C2070" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="D2070" t="s">
         <v>1035</v>
       </c>
       <c r="E2070">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F2070">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2071" spans="1:6" x14ac:dyDescent="0.35">
@@ -47427,13 +47427,13 @@
       </c>
       <c r="B2071" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ratio -&gt; fraction</v>
+        <v>ratio -&gt; RATIO</v>
       </c>
       <c r="C2071" t="s">
         <v>1036</v>
       </c>
       <c r="D2071" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="E2071">
         <v>1</v>
@@ -47448,13 +47448,13 @@
       </c>
       <c r="B2072" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ratio -&gt; RATIO</v>
+        <v>dimensionless -&gt; fraction</v>
       </c>
       <c r="C2072" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D2072" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E2072">
         <v>1</v>
@@ -47469,13 +47469,13 @@
       </c>
       <c r="B2073" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dimensionless -&gt; fraction</v>
+        <v>dimensionless -&gt; DIMENSIONLESS</v>
       </c>
       <c r="C2073" t="s">
         <v>1037</v>
       </c>
       <c r="D2073" t="s">
-        <v>1035</v>
+        <v>1042</v>
       </c>
       <c r="E2073">
         <v>1</v>
@@ -47490,13 +47490,13 @@
       </c>
       <c r="B2074" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dimensionless -&gt; DIMENSIONLESS</v>
+        <v>unitless -&gt; fraction</v>
       </c>
       <c r="C2074" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D2074" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="E2074">
         <v>1</v>
@@ -47511,13 +47511,13 @@
       </c>
       <c r="B2075" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>unitless -&gt; fraction</v>
+        <v>unitless -&gt; UNITLESS</v>
       </c>
       <c r="C2075" t="s">
         <v>1038</v>
       </c>
       <c r="D2075" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="E2075">
         <v>1</v>
@@ -47532,13 +47532,13 @@
       </c>
       <c r="B2076" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>unitless -&gt; UNITLESS</v>
+        <v>None -&gt; fraction</v>
       </c>
       <c r="C2076" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D2076" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="E2076">
         <v>1</v>
@@ -47553,13 +47553,13 @@
       </c>
       <c r="B2077" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>None -&gt; fraction</v>
+        <v>None -&gt; NONE</v>
       </c>
       <c r="C2077" t="s">
         <v>1039</v>
       </c>
       <c r="D2077" t="s">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="E2077">
         <v>1</v>
@@ -47574,13 +47574,13 @@
       </c>
       <c r="B2078" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>None -&gt; NONE</v>
+        <v>FRACTION -&gt; fraction</v>
       </c>
       <c r="C2078" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D2078" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="E2078">
         <v>1</v>
@@ -47595,13 +47595,13 @@
       </c>
       <c r="B2079" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>FRACTION -&gt; fraction</v>
+        <v>RATIO -&gt; ratio</v>
       </c>
       <c r="C2079" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D2079" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E2079">
         <v>1</v>
@@ -47616,13 +47616,13 @@
       </c>
       <c r="B2080" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>RATIO -&gt; ratio</v>
+        <v>DIMENSIONLESS -&gt; dimensionless</v>
       </c>
       <c r="C2080" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D2080" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E2080">
         <v>1</v>
@@ -47637,13 +47637,13 @@
       </c>
       <c r="B2081" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DIMENSIONLESS -&gt; dimensionless</v>
+        <v>UNITLESS -&gt; unitless</v>
       </c>
       <c r="C2081" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D2081" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E2081">
         <v>1</v>
@@ -47658,13 +47658,13 @@
       </c>
       <c r="B2082" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>UNITLESS -&gt; unitless</v>
+        <v>NONE -&gt; None</v>
       </c>
       <c r="C2082" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D2082" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E2082">
         <v>1</v>
@@ -47679,13 +47679,13 @@
       </c>
       <c r="B2083" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>NONE -&gt; None</v>
+        <v>percentage -&gt; %</v>
       </c>
       <c r="C2083" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D2083" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="E2083">
         <v>1</v>
@@ -47700,13 +47700,13 @@
       </c>
       <c r="B2084" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>percentage -&gt; %</v>
+        <v>% -&gt; percentage</v>
       </c>
       <c r="C2084" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D2084" t="s">
         <v>1045</v>
-      </c>
-      <c r="D2084" t="s">
-        <v>1046</v>
       </c>
       <c r="E2084">
         <v>1</v>
@@ -47721,13 +47721,13 @@
       </c>
       <c r="B2085" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>% -&gt; percentage</v>
+        <v>date -&gt; dates</v>
       </c>
       <c r="C2085" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D2085" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E2085">
         <v>1</v>
@@ -47742,13 +47742,13 @@
       </c>
       <c r="B2086" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; dates</v>
+        <v>date -&gt; DATES</v>
       </c>
       <c r="C2086" t="s">
         <v>1047</v>
       </c>
       <c r="D2086" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E2086">
         <v>1</v>
@@ -47763,13 +47763,13 @@
       </c>
       <c r="B2087" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; DATES</v>
+        <v>date -&gt; DATE</v>
       </c>
       <c r="C2087" t="s">
         <v>1047</v>
       </c>
       <c r="D2087" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E2087">
         <v>1</v>
@@ -47784,13 +47784,13 @@
       </c>
       <c r="B2088" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; DATE</v>
+        <v>dates -&gt; date</v>
       </c>
       <c r="C2088" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D2088" t="s">
         <v>1047</v>
-      </c>
-      <c r="D2088" t="s">
-        <v>1050</v>
       </c>
       <c r="E2088">
         <v>1</v>
@@ -47805,10 +47805,10 @@
       </c>
       <c r="B2089" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dates -&gt; date</v>
+        <v>DATES -&gt; date</v>
       </c>
       <c r="C2089" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D2089" t="s">
         <v>1047</v>
@@ -47826,10 +47826,10 @@
       </c>
       <c r="B2090" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DATES -&gt; date</v>
+        <v>DATE -&gt; date</v>
       </c>
       <c r="C2090" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D2090" t="s">
         <v>1047</v>
@@ -47847,13 +47847,13 @@
       </c>
       <c r="B2091" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DATE -&gt; date</v>
+        <v>W -&gt; Watt</v>
       </c>
       <c r="C2091" t="s">
-        <v>1050</v>
+        <v>70</v>
       </c>
       <c r="D2091" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
       <c r="E2091">
         <v>1</v>
@@ -47868,13 +47868,13 @@
       </c>
       <c r="B2092" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>W -&gt; Watt</v>
+        <v>W -&gt; W</v>
       </c>
       <c r="C2092" t="s">
         <v>70</v>
       </c>
       <c r="D2092" t="s">
-        <v>1060</v>
+        <v>70</v>
       </c>
       <c r="E2092">
         <v>1</v>
@@ -47889,13 +47889,13 @@
       </c>
       <c r="B2093" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>W -&gt; W</v>
+        <v>fluid ounce -&gt; ozUS</v>
       </c>
       <c r="C2093" t="s">
-        <v>70</v>
+        <v>1157</v>
       </c>
       <c r="D2093" t="s">
-        <v>70</v>
+        <v>1061</v>
       </c>
       <c r="E2093">
         <v>1</v>
@@ -47910,19 +47910,19 @@
       </c>
       <c r="B2094" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce -&gt; ozUS</v>
+        <v>fluid ounce -&gt; gallonUS</v>
       </c>
       <c r="C2094" t="s">
         <v>1157</v>
       </c>
       <c r="D2094" t="s">
-        <v>1061</v>
+        <v>400</v>
       </c>
       <c r="E2094">
         <v>1</v>
       </c>
       <c r="F2094">
-        <v>1</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="2095" spans="1:6" x14ac:dyDescent="0.35">
@@ -47931,19 +47931,19 @@
       </c>
       <c r="B2095" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce -&gt; gallonUS</v>
+        <v>ozUS -&gt; fluid ounce</v>
       </c>
       <c r="C2095" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D2095" t="s">
         <v>1157</v>
       </c>
-      <c r="D2095" t="s">
-        <v>400</v>
-      </c>
       <c r="E2095">
         <v>1</v>
       </c>
       <c r="F2095">
-        <v>7.8125E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2096" spans="1:6" x14ac:dyDescent="0.35">
@@ -47952,13 +47952,13 @@
       </c>
       <c r="B2096" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ozUS -&gt; fluid ounce</v>
+        <v>gill -&gt; gillUS</v>
       </c>
       <c r="C2096" t="s">
-        <v>1061</v>
+        <v>388</v>
       </c>
       <c r="D2096" t="s">
-        <v>1157</v>
+        <v>1062</v>
       </c>
       <c r="E2096">
         <v>1</v>
@@ -47973,13 +47973,13 @@
       </c>
       <c r="B2097" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gill -&gt; gillUS</v>
+        <v>gill -&gt; giUS</v>
       </c>
       <c r="C2097" t="s">
         <v>388</v>
       </c>
       <c r="D2097" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E2097">
         <v>1</v>
@@ -47994,13 +47994,13 @@
       </c>
       <c r="B2098" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gill -&gt; giUS</v>
+        <v>gillUS -&gt; gill</v>
       </c>
       <c r="C2098" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D2098" t="s">
         <v>388</v>
-      </c>
-      <c r="D2098" t="s">
-        <v>1063</v>
       </c>
       <c r="E2098">
         <v>1</v>
@@ -48015,10 +48015,10 @@
       </c>
       <c r="B2099" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gillUS -&gt; gill</v>
+        <v>giUS -&gt; gill</v>
       </c>
       <c r="C2099" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D2099" t="s">
         <v>388</v>
@@ -48036,13 +48036,13 @@
       </c>
       <c r="B2100" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>giUS -&gt; gill</v>
+        <v>pint -&gt; pintUS</v>
       </c>
       <c r="C2100" t="s">
-        <v>1063</v>
+        <v>390</v>
       </c>
       <c r="D2100" t="s">
-        <v>388</v>
+        <v>1064</v>
       </c>
       <c r="E2100">
         <v>1</v>
@@ -48057,13 +48057,13 @@
       </c>
       <c r="B2101" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pint -&gt; pintUS</v>
+        <v>pint -&gt; ptUS</v>
       </c>
       <c r="C2101" t="s">
         <v>390</v>
       </c>
       <c r="D2101" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E2101">
         <v>1</v>
@@ -48078,13 +48078,13 @@
       </c>
       <c r="B2102" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pint -&gt; ptUS</v>
+        <v>pintUS -&gt; pint</v>
       </c>
       <c r="C2102" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D2102" t="s">
         <v>390</v>
-      </c>
-      <c r="D2102" t="s">
-        <v>1065</v>
       </c>
       <c r="E2102">
         <v>1</v>
@@ -48099,10 +48099,10 @@
       </c>
       <c r="B2103" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pintUS -&gt; pint</v>
+        <v>ptUS -&gt; pint</v>
       </c>
       <c r="C2103" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D2103" t="s">
         <v>390</v>
@@ -48120,13 +48120,13 @@
       </c>
       <c r="B2104" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ptUS -&gt; pint</v>
+        <v>quart -&gt; quartUS</v>
       </c>
       <c r="C2104" t="s">
-        <v>1065</v>
+        <v>392</v>
       </c>
       <c r="D2104" t="s">
-        <v>390</v>
+        <v>1066</v>
       </c>
       <c r="E2104">
         <v>1</v>
@@ -48141,19 +48141,19 @@
       </c>
       <c r="B2105" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quart -&gt; quartUS</v>
+        <v>quart -&gt; gallonUS</v>
       </c>
       <c r="C2105" t="s">
         <v>392</v>
       </c>
       <c r="D2105" t="s">
-        <v>1066</v>
+        <v>400</v>
       </c>
       <c r="E2105">
         <v>1</v>
       </c>
       <c r="F2105">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2106" spans="1:6" x14ac:dyDescent="0.35">
@@ -48162,19 +48162,19 @@
       </c>
       <c r="B2106" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quart -&gt; gallonUS</v>
+        <v>quartUS -&gt; quart</v>
       </c>
       <c r="C2106" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D2106" t="s">
         <v>392</v>
       </c>
-      <c r="D2106" t="s">
-        <v>400</v>
-      </c>
       <c r="E2106">
         <v>1</v>
       </c>
       <c r="F2106">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2107" spans="1:6" x14ac:dyDescent="0.35">
@@ -48183,10 +48183,10 @@
       </c>
       <c r="B2107" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quartUS -&gt; quart</v>
+        <v>qtUS -&gt; quart</v>
       </c>
       <c r="C2107" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D2107" t="s">
         <v>392</v>
@@ -48204,19 +48204,19 @@
       </c>
       <c r="B2108" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>qtUS -&gt; quart</v>
+        <v>gallonUS -&gt; fluid ounce</v>
       </c>
       <c r="C2108" t="s">
-        <v>1067</v>
+        <v>400</v>
       </c>
       <c r="D2108" t="s">
-        <v>392</v>
+        <v>1157</v>
       </c>
       <c r="E2108">
         <v>1</v>
       </c>
       <c r="F2108">
-        <v>1</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2109" spans="1:6" x14ac:dyDescent="0.35">
@@ -48225,19 +48225,19 @@
       </c>
       <c r="B2109" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUS -&gt; fluid ounce</v>
+        <v>gallonUS -&gt; quart</v>
       </c>
       <c r="C2109" t="s">
         <v>400</v>
       </c>
       <c r="D2109" t="s">
-        <v>1157</v>
+        <v>392</v>
       </c>
       <c r="E2109">
         <v>1</v>
       </c>
       <c r="F2109">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.35">
@@ -48246,19 +48246,19 @@
       </c>
       <c r="B2110" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUS -&gt; quart</v>
+        <v>gallonUK -&gt; imperial gallon</v>
       </c>
       <c r="C2110" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D2110" t="s">
-        <v>392</v>
+        <v>1068</v>
       </c>
       <c r="E2110">
         <v>1</v>
       </c>
       <c r="F2110">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.35">
@@ -48267,19 +48267,19 @@
       </c>
       <c r="B2111" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; imperial gallon</v>
+        <v>gallonUK -&gt; quartUK</v>
       </c>
       <c r="C2111" t="s">
         <v>394</v>
       </c>
       <c r="D2111" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E2111">
         <v>1</v>
       </c>
       <c r="F2111">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2112" spans="1:6" x14ac:dyDescent="0.35">
@@ -48288,19 +48288,19 @@
       </c>
       <c r="B2112" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; quartUK</v>
+        <v>gallonUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2112" t="s">
         <v>394</v>
       </c>
       <c r="D2112" t="s">
-        <v>1069</v>
+        <v>1159</v>
       </c>
       <c r="E2112">
         <v>1</v>
       </c>
       <c r="F2112">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2113" spans="1:6" x14ac:dyDescent="0.35">
@@ -48309,19 +48309,19 @@
       </c>
       <c r="B2113" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; fluid ounce UK</v>
+        <v>gallonUK -&gt; litre</v>
       </c>
       <c r="C2113" t="s">
         <v>394</v>
       </c>
       <c r="D2113" t="s">
-        <v>1159</v>
+        <v>423</v>
       </c>
       <c r="E2113">
         <v>1</v>
       </c>
       <c r="F2113">
-        <v>160</v>
+        <v>4.5460000000000003</v>
       </c>
     </row>
     <row r="2114" spans="1:6" x14ac:dyDescent="0.35">
@@ -48330,19 +48330,19 @@
       </c>
       <c r="B2114" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; litre</v>
+        <v>imperial gallon -&gt; gallonUK</v>
       </c>
       <c r="C2114" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D2114" t="s">
         <v>394</v>
       </c>
-      <c r="D2114" t="s">
-        <v>423</v>
-      </c>
       <c r="E2114">
         <v>1</v>
       </c>
       <c r="F2114">
-        <v>4.5460000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2115" spans="1:6" x14ac:dyDescent="0.35">
@@ -48351,13 +48351,13 @@
       </c>
       <c r="B2115" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>imperial gallon -&gt; gallonUK</v>
+        <v>imperial gallon -&gt; IMPERIAL GALLON</v>
       </c>
       <c r="C2115" t="s">
         <v>1068</v>
       </c>
       <c r="D2115" t="s">
-        <v>394</v>
+        <v>1070</v>
       </c>
       <c r="E2115">
         <v>1</v>
@@ -48372,13 +48372,13 @@
       </c>
       <c r="B2116" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>imperial gallon -&gt; IMPERIAL GALLON</v>
+        <v>fluid ounce UK -&gt; fl oz UK</v>
       </c>
       <c r="C2116" t="s">
-        <v>1068</v>
+        <v>1159</v>
       </c>
       <c r="D2116" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E2116">
         <v>1</v>
@@ -48393,13 +48393,13 @@
       </c>
       <c r="B2117" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; fl oz UK</v>
+        <v>fluid ounce UK -&gt; ozUK</v>
       </c>
       <c r="C2117" t="s">
         <v>1159</v>
       </c>
       <c r="D2117" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E2117">
         <v>1</v>
@@ -48414,13 +48414,13 @@
       </c>
       <c r="B2118" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; ozUK</v>
+        <v>fluid ounce UK -&gt; ounceUK</v>
       </c>
       <c r="C2118" t="s">
         <v>1159</v>
       </c>
       <c r="D2118" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E2118">
         <v>1</v>
@@ -48435,13 +48435,13 @@
       </c>
       <c r="B2119" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; ounceUK</v>
+        <v>fluid ounce UK -&gt; fluid ounce UKs</v>
       </c>
       <c r="C2119" t="s">
         <v>1159</v>
       </c>
       <c r="D2119" t="s">
-        <v>1073</v>
+        <v>1160</v>
       </c>
       <c r="E2119">
         <v>1</v>
@@ -48456,13 +48456,13 @@
       </c>
       <c r="B2120" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; fluid ounce UKs</v>
+        <v>fluid ounce UK -&gt; FLUID OUNCE UKS</v>
       </c>
       <c r="C2120" t="s">
         <v>1159</v>
       </c>
       <c r="D2120" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="E2120">
         <v>1</v>
@@ -48476,14 +48476,14 @@
         <v>2119</v>
       </c>
       <c r="B2121" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; FLUID OUNCE UKS</v>
+        <f t="shared" ref="B2121:B2184" si="33">C2121&amp;" -&gt; " &amp;D2121</f>
+        <v>fluid ounce UK -&gt; FLUID OUNCE UK</v>
       </c>
       <c r="C2121" t="s">
         <v>1159</v>
       </c>
       <c r="D2121" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E2121">
         <v>1</v>
@@ -48497,20 +48497,20 @@
         <v>2120</v>
       </c>
       <c r="B2122" s="2" t="str">
-        <f t="shared" ref="B2122:B2185" si="33">C2122&amp;" -&gt; " &amp;D2122</f>
-        <v>fluid ounce UK -&gt; FLUID OUNCE UK</v>
+        <f t="shared" si="33"/>
+        <v>fluid ounce UK -&gt; gallonUK</v>
       </c>
       <c r="C2122" t="s">
         <v>1159</v>
       </c>
       <c r="D2122" t="s">
-        <v>1165</v>
+        <v>394</v>
       </c>
       <c r="E2122">
         <v>1</v>
       </c>
       <c r="F2122">
-        <v>1</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="2123" spans="1:6" x14ac:dyDescent="0.35">
@@ -48519,19 +48519,19 @@
       </c>
       <c r="B2123" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UK -&gt; gallonUK</v>
+        <v>fluid ounce UK -&gt; gillUK</v>
       </c>
       <c r="C2123" t="s">
         <v>1159</v>
       </c>
       <c r="D2123" t="s">
-        <v>394</v>
+        <v>1074</v>
       </c>
       <c r="E2123">
         <v>1</v>
       </c>
       <c r="F2123">
-        <v>6.2500000000000003E-3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2124" spans="1:6" x14ac:dyDescent="0.35">
@@ -48540,19 +48540,19 @@
       </c>
       <c r="B2124" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UK -&gt; gillUK</v>
+        <v>fl oz UK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2124" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D2124" t="s">
         <v>1159</v>
       </c>
-      <c r="D2124" t="s">
-        <v>1074</v>
-      </c>
       <c r="E2124">
         <v>1</v>
       </c>
       <c r="F2124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2125" spans="1:6" x14ac:dyDescent="0.35">
@@ -48561,10 +48561,10 @@
       </c>
       <c r="B2125" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fl oz UK -&gt; fluid ounce UK</v>
+        <v>ozUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2125" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D2125" t="s">
         <v>1159</v>
@@ -48582,10 +48582,10 @@
       </c>
       <c r="B2126" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ozUK -&gt; fluid ounce UK</v>
+        <v>ounceUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2126" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D2126" t="s">
         <v>1159</v>
@@ -48603,13 +48603,13 @@
       </c>
       <c r="B2127" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ounceUK -&gt; fluid ounce UK</v>
+        <v>gillUK -&gt; giUK</v>
       </c>
       <c r="C2127" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="D2127" t="s">
-        <v>1159</v>
+        <v>1075</v>
       </c>
       <c r="E2127">
         <v>1</v>
@@ -48624,13 +48624,13 @@
       </c>
       <c r="B2128" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; giUK</v>
+        <v>gillUK -&gt; gillUKs</v>
       </c>
       <c r="C2128" t="s">
         <v>1074</v>
       </c>
       <c r="D2128" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E2128">
         <v>1</v>
@@ -48645,13 +48645,13 @@
       </c>
       <c r="B2129" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; gillUKs</v>
+        <v>gillUK -&gt; GILLUKS</v>
       </c>
       <c r="C2129" t="s">
         <v>1074</v>
       </c>
       <c r="D2129" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E2129">
         <v>1</v>
@@ -48666,13 +48666,13 @@
       </c>
       <c r="B2130" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; GILLUKS</v>
+        <v>gillUK -&gt; GILLUK</v>
       </c>
       <c r="C2130" t="s">
         <v>1074</v>
       </c>
       <c r="D2130" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E2130">
         <v>1</v>
@@ -48687,19 +48687,19 @@
       </c>
       <c r="B2131" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; GILLUK</v>
+        <v>gillUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2131" t="s">
         <v>1074</v>
       </c>
       <c r="D2131" t="s">
-        <v>1078</v>
+        <v>1159</v>
       </c>
       <c r="E2131">
         <v>1</v>
       </c>
       <c r="F2131">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2132" spans="1:6" x14ac:dyDescent="0.35">
@@ -48708,19 +48708,19 @@
       </c>
       <c r="B2132" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; fluid ounce UK</v>
+        <v>gillUK -&gt; pintUK</v>
       </c>
       <c r="C2132" t="s">
         <v>1074</v>
       </c>
       <c r="D2132" t="s">
-        <v>1159</v>
+        <v>1079</v>
       </c>
       <c r="E2132">
         <v>1</v>
       </c>
       <c r="F2132">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2133" spans="1:6" x14ac:dyDescent="0.35">
@@ -48729,19 +48729,19 @@
       </c>
       <c r="B2133" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; pintUK</v>
+        <v>giUK -&gt; gillUK</v>
       </c>
       <c r="C2133" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D2133" t="s">
         <v>1074</v>
       </c>
-      <c r="D2133" t="s">
-        <v>1079</v>
-      </c>
       <c r="E2133">
         <v>1</v>
       </c>
       <c r="F2133">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2134" spans="1:6" x14ac:dyDescent="0.35">
@@ -48750,13 +48750,13 @@
       </c>
       <c r="B2134" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>giUK -&gt; gillUK</v>
+        <v>pintUK -&gt; ptUK</v>
       </c>
       <c r="C2134" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="D2134" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E2134">
         <v>1</v>
@@ -48771,13 +48771,13 @@
       </c>
       <c r="B2135" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; ptUK</v>
+        <v>pintUK -&gt; pintUKs</v>
       </c>
       <c r="C2135" t="s">
         <v>1079</v>
       </c>
       <c r="D2135" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E2135">
         <v>1</v>
@@ -48792,13 +48792,13 @@
       </c>
       <c r="B2136" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; pintUKs</v>
+        <v>pintUK -&gt; PINTUKS</v>
       </c>
       <c r="C2136" t="s">
         <v>1079</v>
       </c>
       <c r="D2136" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E2136">
         <v>1</v>
@@ -48813,13 +48813,13 @@
       </c>
       <c r="B2137" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; PINTUKS</v>
+        <v>pintUK -&gt; PINTUK</v>
       </c>
       <c r="C2137" t="s">
         <v>1079</v>
       </c>
       <c r="D2137" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E2137">
         <v>1</v>
@@ -48834,19 +48834,19 @@
       </c>
       <c r="B2138" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; PINTUK</v>
+        <v>pintUK -&gt; gillUK</v>
       </c>
       <c r="C2138" t="s">
         <v>1079</v>
       </c>
       <c r="D2138" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="E2138">
         <v>1</v>
       </c>
       <c r="F2138">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2139" spans="1:6" x14ac:dyDescent="0.35">
@@ -48855,19 +48855,19 @@
       </c>
       <c r="B2139" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; gillUK</v>
+        <v>pintUK -&gt; quartUK</v>
       </c>
       <c r="C2139" t="s">
         <v>1079</v>
       </c>
       <c r="D2139" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E2139">
         <v>1</v>
       </c>
       <c r="F2139">
-        <v>4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2140" spans="1:6" x14ac:dyDescent="0.35">
@@ -48876,19 +48876,19 @@
       </c>
       <c r="B2140" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; quartUK</v>
+        <v>ptUK -&gt; pintUK</v>
       </c>
       <c r="C2140" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D2140" t="s">
         <v>1079</v>
       </c>
-      <c r="D2140" t="s">
-        <v>1069</v>
-      </c>
       <c r="E2140">
         <v>1</v>
       </c>
       <c r="F2140">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2141" spans="1:6" x14ac:dyDescent="0.35">
@@ -48897,13 +48897,13 @@
       </c>
       <c r="B2141" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ptUK -&gt; pintUK</v>
+        <v>quartUK -&gt; qtUK</v>
       </c>
       <c r="C2141" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="D2141" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="E2141">
         <v>1</v>
@@ -48918,13 +48918,13 @@
       </c>
       <c r="B2142" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; qtUK</v>
+        <v>quartUK -&gt; quartUKs</v>
       </c>
       <c r="C2142" t="s">
         <v>1069</v>
       </c>
       <c r="D2142" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E2142">
         <v>1</v>
@@ -48939,13 +48939,13 @@
       </c>
       <c r="B2143" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; quartUKs</v>
+        <v>quartUK -&gt; QUARTUKS</v>
       </c>
       <c r="C2143" t="s">
         <v>1069</v>
       </c>
       <c r="D2143" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E2143">
         <v>1</v>
@@ -48960,13 +48960,13 @@
       </c>
       <c r="B2144" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; QUARTUKS</v>
+        <v>quartUK -&gt; QUARTUK</v>
       </c>
       <c r="C2144" t="s">
         <v>1069</v>
       </c>
       <c r="D2144" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E2144">
         <v>1</v>
@@ -48981,19 +48981,19 @@
       </c>
       <c r="B2145" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; QUARTUK</v>
+        <v>quartUK -&gt; pintUK</v>
       </c>
       <c r="C2145" t="s">
         <v>1069</v>
       </c>
       <c r="D2145" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="E2145">
         <v>1</v>
       </c>
       <c r="F2145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2146" spans="1:6" x14ac:dyDescent="0.35">
@@ -49002,19 +49002,19 @@
       </c>
       <c r="B2146" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; pintUK</v>
+        <v>quartUK -&gt; gallonUK</v>
       </c>
       <c r="C2146" t="s">
         <v>1069</v>
       </c>
       <c r="D2146" t="s">
-        <v>1079</v>
+        <v>394</v>
       </c>
       <c r="E2146">
         <v>1</v>
       </c>
       <c r="F2146">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2147" spans="1:6" x14ac:dyDescent="0.35">
@@ -49023,19 +49023,19 @@
       </c>
       <c r="B2147" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; gallonUK</v>
+        <v>qtUK -&gt; quartUK</v>
       </c>
       <c r="C2147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D2147" t="s">
         <v>1069</v>
       </c>
-      <c r="D2147" t="s">
-        <v>394</v>
-      </c>
       <c r="E2147">
         <v>1</v>
       </c>
       <c r="F2147">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2148" spans="1:6" x14ac:dyDescent="0.35">
@@ -49044,13 +49044,13 @@
       </c>
       <c r="B2148" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>qtUK -&gt; quartUK</v>
+        <v>fluid ounce UKs -&gt; fluid ounce UK</v>
       </c>
       <c r="C2148" t="s">
-        <v>1084</v>
+        <v>1160</v>
       </c>
       <c r="D2148" t="s">
-        <v>1069</v>
+        <v>1159</v>
       </c>
       <c r="E2148">
         <v>1</v>
@@ -49065,13 +49065,13 @@
       </c>
       <c r="B2149" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UKs -&gt; fluid ounce UK</v>
+        <v>gillUKs -&gt; gillUK</v>
       </c>
       <c r="C2149" t="s">
-        <v>1160</v>
+        <v>1076</v>
       </c>
       <c r="D2149" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="E2149">
         <v>1</v>
@@ -49086,13 +49086,13 @@
       </c>
       <c r="B2150" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUKs -&gt; gillUK</v>
+        <v>pintUKs -&gt; pintUK</v>
       </c>
       <c r="C2150" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="D2150" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="E2150">
         <v>1</v>
@@ -49107,13 +49107,13 @@
       </c>
       <c r="B2151" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUKs -&gt; pintUK</v>
+        <v>quartUKs -&gt; quartUK</v>
       </c>
       <c r="C2151" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="D2151" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E2151">
         <v>1</v>
@@ -49128,13 +49128,13 @@
       </c>
       <c r="B2152" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUKs -&gt; quartUK</v>
+        <v>FLUID OUNCE UKS -&gt; fluid ounce UK</v>
       </c>
       <c r="C2152" t="s">
-        <v>1085</v>
+        <v>1164</v>
       </c>
       <c r="D2152" t="s">
-        <v>1069</v>
+        <v>1159</v>
       </c>
       <c r="E2152">
         <v>1</v>
@@ -49149,13 +49149,13 @@
       </c>
       <c r="B2153" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>FLUID OUNCE UKS -&gt; fluid ounce UK</v>
+        <v>GILLUKS -&gt; gillUK</v>
       </c>
       <c r="C2153" t="s">
-        <v>1164</v>
+        <v>1077</v>
       </c>
       <c r="D2153" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="E2153">
         <v>1</v>
@@ -49170,13 +49170,13 @@
       </c>
       <c r="B2154" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>GILLUKS -&gt; gillUK</v>
+        <v>PINTUKS -&gt; pintUK</v>
       </c>
       <c r="C2154" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="D2154" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="E2154">
         <v>1</v>
@@ -49191,13 +49191,13 @@
       </c>
       <c r="B2155" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>PINTUKS -&gt; pintUK</v>
+        <v>QUARTUKS -&gt; quartUK</v>
       </c>
       <c r="C2155" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="D2155" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E2155">
         <v>1</v>
@@ -49212,13 +49212,13 @@
       </c>
       <c r="B2156" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>QUARTUKS -&gt; quartUK</v>
+        <v>IMPERIAL GALLON -&gt; imperial gallon</v>
       </c>
       <c r="C2156" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="D2156" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E2156">
         <v>1</v>
@@ -49233,13 +49233,13 @@
       </c>
       <c r="B2157" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>IMPERIAL GALLON -&gt; imperial gallon</v>
+        <v>FLUID OUNCE UK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2157" t="s">
-        <v>1070</v>
+        <v>1165</v>
       </c>
       <c r="D2157" t="s">
-        <v>1068</v>
+        <v>1159</v>
       </c>
       <c r="E2157">
         <v>1</v>
@@ -49254,13 +49254,13 @@
       </c>
       <c r="B2158" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>FLUID OUNCE UK -&gt; fluid ounce UK</v>
+        <v>GILLUK -&gt; gillUK</v>
       </c>
       <c r="C2158" t="s">
-        <v>1165</v>
+        <v>1078</v>
       </c>
       <c r="D2158" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="E2158">
         <v>1</v>
@@ -49275,13 +49275,13 @@
       </c>
       <c r="B2159" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>GILLUK -&gt; gillUK</v>
+        <v>PINTUK -&gt; pintUK</v>
       </c>
       <c r="C2159" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="D2159" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="E2159">
         <v>1</v>
@@ -49296,13 +49296,13 @@
       </c>
       <c r="B2160" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>PINTUK -&gt; pintUK</v>
+        <v>QUARTUK -&gt; quartUK</v>
       </c>
       <c r="C2160" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="D2160" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="E2160">
         <v>1</v>
@@ -49317,19 +49317,19 @@
       </c>
       <c r="B2161" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>QUARTUK -&gt; quartUK</v>
+        <v>litre -&gt; gallonUK</v>
       </c>
       <c r="C2161" t="s">
-        <v>1087</v>
+        <v>423</v>
       </c>
       <c r="D2161" t="s">
-        <v>1069</v>
+        <v>394</v>
       </c>
       <c r="E2161">
         <v>1</v>
       </c>
       <c r="F2161">
-        <v>1</v>
+        <v>0.21997360316761991</v>
       </c>
     </row>
     <row r="2162" spans="1:6" x14ac:dyDescent="0.35">
@@ -49338,19 +49338,19 @@
       </c>
       <c r="B2162" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>litre -&gt; gallonUK</v>
+        <v>Pa -&gt; KPa</v>
       </c>
       <c r="C2162" t="s">
-        <v>423</v>
+        <v>612</v>
       </c>
       <c r="D2162" t="s">
-        <v>394</v>
+        <v>615</v>
       </c>
       <c r="E2162">
         <v>1</v>
       </c>
       <c r="F2162">
-        <v>0.21997360316761991</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2163" spans="1:6" x14ac:dyDescent="0.35">
@@ -49359,10 +49359,10 @@
       </c>
       <c r="B2163" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Pa -&gt; KPa</v>
+        <v>kPa -&gt; KPa</v>
       </c>
       <c r="C2163" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D2163" t="s">
         <v>615</v>
@@ -49371,7 +49371,7 @@
         <v>1</v>
       </c>
       <c r="F2163">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2164" spans="1:6" x14ac:dyDescent="0.35">
@@ -49380,13 +49380,13 @@
       </c>
       <c r="B2164" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>kPa -&gt; KPa</v>
+        <v>KPa -&gt; kPa</v>
       </c>
       <c r="C2164" t="s">
+        <v>615</v>
+      </c>
+      <c r="D2164" t="s">
         <v>614</v>
-      </c>
-      <c r="D2164" t="s">
-        <v>615</v>
       </c>
       <c r="E2164">
         <v>1</v>
@@ -49401,13 +49401,13 @@
       </c>
       <c r="B2165" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; kPa</v>
+        <v>KPa -&gt; KPA</v>
       </c>
       <c r="C2165" t="s">
         <v>615</v>
       </c>
       <c r="D2165" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="E2165">
         <v>1</v>
@@ -49422,19 +49422,19 @@
       </c>
       <c r="B2166" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; KPA</v>
+        <v>KPa -&gt; Pa</v>
       </c>
       <c r="C2166" t="s">
         <v>615</v>
       </c>
       <c r="D2166" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="E2166">
         <v>1</v>
       </c>
       <c r="F2166">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2167" spans="1:6" x14ac:dyDescent="0.35">
@@ -49443,19 +49443,19 @@
       </c>
       <c r="B2167" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; Pa</v>
+        <v>KPA -&gt; KPa</v>
       </c>
       <c r="C2167" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2167" t="s">
         <v>615</v>
       </c>
-      <c r="D2167" t="s">
-        <v>612</v>
-      </c>
       <c r="E2167">
         <v>1</v>
       </c>
       <c r="F2167">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2168" spans="1:6" x14ac:dyDescent="0.35">
@@ -49464,13 +49464,13 @@
       </c>
       <c r="B2168" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPA -&gt; KPa</v>
+        <v>Joule -&gt; J</v>
       </c>
       <c r="C2168" t="s">
-        <v>644</v>
+        <v>1088</v>
       </c>
       <c r="D2168" t="s">
-        <v>615</v>
+        <v>1089</v>
       </c>
       <c r="E2168">
         <v>1</v>
@@ -49485,13 +49485,13 @@
       </c>
       <c r="B2169" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; J</v>
+        <v>Joule -&gt; Watt second</v>
       </c>
       <c r="C2169" t="s">
         <v>1088</v>
       </c>
       <c r="D2169" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E2169">
         <v>1</v>
@@ -49506,13 +49506,13 @@
       </c>
       <c r="B2170" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Watt second</v>
+        <v>Joule -&gt; N*m</v>
       </c>
       <c r="C2170" t="s">
         <v>1088</v>
       </c>
       <c r="D2170" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E2170">
         <v>1</v>
@@ -49527,13 +49527,13 @@
       </c>
       <c r="B2171" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; N*m</v>
+        <v>Joule -&gt; kg*m2/s2</v>
       </c>
       <c r="C2171" t="s">
         <v>1088</v>
       </c>
       <c r="D2171" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E2171">
         <v>1</v>
@@ -49548,13 +49548,13 @@
       </c>
       <c r="B2172" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; kg*m2/s2</v>
+        <v>Joule -&gt; Joules</v>
       </c>
       <c r="C2172" t="s">
         <v>1088</v>
       </c>
       <c r="D2172" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E2172">
         <v>1</v>
@@ -49569,13 +49569,13 @@
       </c>
       <c r="B2173" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Joules</v>
+        <v>Joule -&gt; JOULE</v>
       </c>
       <c r="C2173" t="s">
         <v>1088</v>
       </c>
       <c r="D2173" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E2173">
         <v>1</v>
@@ -49590,19 +49590,19 @@
       </c>
       <c r="B2174" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; JOULE</v>
+        <v>Joule -&gt; gram calorie</v>
       </c>
       <c r="C2174" t="s">
         <v>1088</v>
       </c>
       <c r="D2174" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E2174">
         <v>1</v>
       </c>
       <c r="F2174">
-        <v>1</v>
+        <v>0.23900573613766729</v>
       </c>
     </row>
     <row r="2175" spans="1:6" x14ac:dyDescent="0.35">
@@ -49611,19 +49611,19 @@
       </c>
       <c r="B2175" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; gram calorie</v>
+        <v>Joule -&gt; Kilojoule</v>
       </c>
       <c r="C2175" t="s">
         <v>1088</v>
       </c>
       <c r="D2175" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E2175">
         <v>1</v>
       </c>
       <c r="F2175">
-        <v>0.23900573613766729</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2176" spans="1:6" x14ac:dyDescent="0.35">
@@ -49632,19 +49632,19 @@
       </c>
       <c r="B2176" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Kilojoule</v>
+        <v>J -&gt; Joule</v>
       </c>
       <c r="C2176" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D2176" t="s">
         <v>1088</v>
       </c>
-      <c r="D2176" t="s">
-        <v>1096</v>
-      </c>
       <c r="E2176">
         <v>1</v>
       </c>
       <c r="F2176">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2177" spans="1:6" x14ac:dyDescent="0.35">
@@ -49653,13 +49653,13 @@
       </c>
       <c r="B2177" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>J -&gt; Joule</v>
+        <v>J -&gt; J</v>
       </c>
       <c r="C2177" t="s">
         <v>1089</v>
       </c>
       <c r="D2177" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="E2177">
         <v>1</v>
@@ -49674,13 +49674,13 @@
       </c>
       <c r="B2178" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>J -&gt; J</v>
+        <v>Watt second -&gt; Joule</v>
       </c>
       <c r="C2178" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D2178" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E2178">
         <v>1</v>
@@ -49695,13 +49695,13 @@
       </c>
       <c r="B2179" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Joule</v>
+        <v>Watt second -&gt; Watt*second</v>
       </c>
       <c r="C2179" t="s">
         <v>1090</v>
       </c>
       <c r="D2179" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="E2179">
         <v>1</v>
@@ -49716,13 +49716,13 @@
       </c>
       <c r="B2180" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Watt*second</v>
+        <v>Watt second -&gt; W*s</v>
       </c>
       <c r="C2180" t="s">
         <v>1090</v>
       </c>
       <c r="D2180" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E2180">
         <v>1</v>
@@ -49737,13 +49737,13 @@
       </c>
       <c r="B2181" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; W*s</v>
+        <v>Watt second -&gt; Ws</v>
       </c>
       <c r="C2181" t="s">
         <v>1090</v>
       </c>
       <c r="D2181" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E2181">
         <v>1</v>
@@ -49758,13 +49758,13 @@
       </c>
       <c r="B2182" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Ws</v>
+        <v>Watt second -&gt; WATT SECOND</v>
       </c>
       <c r="C2182" t="s">
         <v>1090</v>
       </c>
       <c r="D2182" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E2182">
         <v>1</v>
@@ -49779,13 +49779,13 @@
       </c>
       <c r="B2183" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; WATT SECOND</v>
+        <v>N*m -&gt; Joule</v>
       </c>
       <c r="C2183" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D2183" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E2183">
         <v>1</v>
@@ -49800,13 +49800,13 @@
       </c>
       <c r="B2184" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>N*m -&gt; Joule</v>
+        <v>N*m -&gt; N*M</v>
       </c>
       <c r="C2184" t="s">
         <v>1091</v>
       </c>
       <c r="D2184" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="E2184">
         <v>1</v>
@@ -49820,14 +49820,14 @@
         <v>2183</v>
       </c>
       <c r="B2185" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>N*m -&gt; N*M</v>
+        <f t="shared" ref="B2185:B2248" si="34">C2185&amp;" -&gt; " &amp;D2185</f>
+        <v>kg*m2/s2 -&gt; Joule</v>
       </c>
       <c r="C2185" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D2185" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="E2185">
         <v>1</v>
@@ -49841,14 +49841,14 @@
         <v>2184</v>
       </c>
       <c r="B2186" s="2" t="str">
-        <f t="shared" ref="B2186:B2249" si="34">C2186&amp;" -&gt; " &amp;D2186</f>
-        <v>kg*m2/s2 -&gt; Joule</v>
+        <f t="shared" si="34"/>
+        <v>kg*m2/s2 -&gt; KG*M2/S2</v>
       </c>
       <c r="C2186" t="s">
         <v>1092</v>
       </c>
       <c r="D2186" t="s">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="E2186">
         <v>1</v>
@@ -49863,13 +49863,13 @@
       </c>
       <c r="B2187" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kg*m2/s2 -&gt; KG*M2/S2</v>
+        <v>Joules -&gt; Joule</v>
       </c>
       <c r="C2187" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D2187" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="E2187">
         <v>1</v>
@@ -49884,13 +49884,13 @@
       </c>
       <c r="B2188" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Joules -&gt; Joule</v>
+        <v>Joules -&gt; JOULES</v>
       </c>
       <c r="C2188" t="s">
         <v>1093</v>
       </c>
       <c r="D2188" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="E2188">
         <v>1</v>
@@ -49905,13 +49905,13 @@
       </c>
       <c r="B2189" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Joules -&gt; JOULES</v>
+        <v>Kilojoule -&gt; kJ</v>
       </c>
       <c r="C2189" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="D2189" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E2189">
         <v>1</v>
@@ -49926,13 +49926,13 @@
       </c>
       <c r="B2190" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; kJ</v>
+        <v>Kilojoule -&gt; KILOJOULE</v>
       </c>
       <c r="C2190" t="s">
         <v>1096</v>
       </c>
       <c r="D2190" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="E2190">
         <v>1</v>
@@ -49947,19 +49947,19 @@
       </c>
       <c r="B2191" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; KILOJOULE</v>
+        <v>Kilojoule -&gt; Joule</v>
       </c>
       <c r="C2191" t="s">
         <v>1096</v>
       </c>
       <c r="D2191" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
       <c r="E2191">
         <v>1</v>
       </c>
       <c r="F2191">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2192" spans="1:6" x14ac:dyDescent="0.35">
@@ -49968,19 +49968,19 @@
       </c>
       <c r="B2192" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; Joule</v>
+        <v>Kilojoule -&gt; kilowatt hour</v>
       </c>
       <c r="C2192" t="s">
         <v>1096</v>
       </c>
       <c r="D2192" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="E2192">
         <v>1</v>
       </c>
       <c r="F2192">
-        <v>1000</v>
+        <v>2.7777777777777778E-4</v>
       </c>
     </row>
     <row r="2193" spans="1:6" x14ac:dyDescent="0.35">
@@ -49989,19 +49989,19 @@
       </c>
       <c r="B2193" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; kilowatt hour</v>
+        <v>Kilojoule -&gt; British thermal unit</v>
       </c>
       <c r="C2193" t="s">
         <v>1096</v>
       </c>
       <c r="D2193" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E2193">
         <v>1</v>
       </c>
       <c r="F2193">
-        <v>2.7777777777777778E-4</v>
+        <v>0.94786729857819907</v>
       </c>
     </row>
     <row r="2194" spans="1:6" x14ac:dyDescent="0.35">
@@ -50010,19 +50010,19 @@
       </c>
       <c r="B2194" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; British thermal unit</v>
+        <v>kJ -&gt; Kilojoule</v>
       </c>
       <c r="C2194" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D2194" t="s">
         <v>1096</v>
       </c>
-      <c r="D2194" t="s">
-        <v>1107</v>
-      </c>
       <c r="E2194">
         <v>1</v>
       </c>
       <c r="F2194">
-        <v>0.94786729857819907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2195" spans="1:6" x14ac:dyDescent="0.35">
@@ -50031,13 +50031,13 @@
       </c>
       <c r="B2195" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kJ -&gt; Kilojoule</v>
+        <v>kJ -&gt; KJ</v>
       </c>
       <c r="C2195" t="s">
         <v>1104</v>
       </c>
       <c r="D2195" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="E2195">
         <v>1</v>
@@ -50052,13 +50052,13 @@
       </c>
       <c r="B2196" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kJ -&gt; KJ</v>
+        <v>kilowatt hour -&gt; kWh</v>
       </c>
       <c r="C2196" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D2196" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E2196">
         <v>1</v>
@@ -50073,13 +50073,13 @@
       </c>
       <c r="B2197" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kWh</v>
+        <v>kilowatt hour -&gt; kW*h</v>
       </c>
       <c r="C2197" t="s">
         <v>1106</v>
       </c>
       <c r="D2197" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E2197">
         <v>1</v>
@@ -50094,13 +50094,13 @@
       </c>
       <c r="B2198" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kW*h</v>
+        <v>kilowatt hour -&gt; kilovatio hora</v>
       </c>
       <c r="C2198" t="s">
         <v>1106</v>
       </c>
       <c r="D2198" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E2198">
         <v>1</v>
@@ -50115,13 +50115,13 @@
       </c>
       <c r="B2199" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kilovatio hora</v>
+        <v>kilowatt hour -&gt; KILOWATT HOUR</v>
       </c>
       <c r="C2199" t="s">
         <v>1106</v>
       </c>
       <c r="D2199" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E2199">
         <v>1</v>
@@ -50136,19 +50136,19 @@
       </c>
       <c r="B2200" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; KILOWATT HOUR</v>
+        <v>kilowatt hour -&gt; Kilojoule</v>
       </c>
       <c r="C2200" t="s">
         <v>1106</v>
       </c>
       <c r="D2200" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
       <c r="E2200">
         <v>1</v>
       </c>
       <c r="F2200">
-        <v>1</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2201" spans="1:6" x14ac:dyDescent="0.35">
@@ -50157,19 +50157,19 @@
       </c>
       <c r="B2201" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; Kilojoule</v>
+        <v>kWh -&gt; kilowatt hour</v>
       </c>
       <c r="C2201" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D2201" t="s">
         <v>1106</v>
       </c>
-      <c r="D2201" t="s">
-        <v>1096</v>
-      </c>
       <c r="E2201">
         <v>1</v>
       </c>
       <c r="F2201">
-        <v>3600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2202" spans="1:6" x14ac:dyDescent="0.35">
@@ -50178,13 +50178,13 @@
       </c>
       <c r="B2202" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kWh -&gt; kilowatt hour</v>
+        <v>kWh -&gt; KWH</v>
       </c>
       <c r="C2202" t="s">
         <v>1109</v>
       </c>
       <c r="D2202" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="E2202">
         <v>1</v>
@@ -50199,13 +50199,13 @@
       </c>
       <c r="B2203" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kWh -&gt; KWH</v>
+        <v>kW*h -&gt; kilowatt hour</v>
       </c>
       <c r="C2203" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D2203" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="E2203">
         <v>1</v>
@@ -50220,13 +50220,13 @@
       </c>
       <c r="B2204" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kW*h -&gt; kilowatt hour</v>
+        <v>kW*h -&gt; KW*H</v>
       </c>
       <c r="C2204" t="s">
         <v>1110</v>
       </c>
       <c r="D2204" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="E2204">
         <v>1</v>
@@ -50241,13 +50241,13 @@
       </c>
       <c r="B2205" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kW*h -&gt; KW*H</v>
+        <v>kilovatio hora -&gt; kilowatt hour</v>
       </c>
       <c r="C2205" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D2205" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="E2205">
         <v>1</v>
@@ -50262,13 +50262,13 @@
       </c>
       <c r="B2206" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilovatio hora -&gt; kilowatt hour</v>
+        <v>kilovatio hora -&gt; KILOVATIO HORA</v>
       </c>
       <c r="C2206" t="s">
         <v>1111</v>
       </c>
       <c r="D2206" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="E2206">
         <v>1</v>
@@ -50283,13 +50283,13 @@
       </c>
       <c r="B2207" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilovatio hora -&gt; KILOVATIO HORA</v>
+        <v>British thermal unit -&gt; BTU</v>
       </c>
       <c r="C2207" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="D2207" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E2207">
         <v>1</v>
@@ -50304,13 +50304,13 @@
       </c>
       <c r="B2208" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; BTU</v>
+        <v>British thermal unit -&gt; BRITISH THERMAL UNIT</v>
       </c>
       <c r="C2208" t="s">
         <v>1107</v>
       </c>
       <c r="D2208" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E2208">
         <v>1</v>
@@ -50325,19 +50325,19 @@
       </c>
       <c r="B2209" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; BRITISH THERMAL UNIT</v>
+        <v>British thermal unit -&gt; Kilojoule</v>
       </c>
       <c r="C2209" t="s">
         <v>1107</v>
       </c>
       <c r="D2209" t="s">
-        <v>1117</v>
+        <v>1096</v>
       </c>
       <c r="E2209">
         <v>1</v>
       </c>
       <c r="F2209">
-        <v>1</v>
+        <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="2210" spans="1:6" x14ac:dyDescent="0.35">
@@ -50346,19 +50346,19 @@
       </c>
       <c r="B2210" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; Kilojoule</v>
+        <v>BTU -&gt; British thermal unit</v>
       </c>
       <c r="C2210" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D2210" t="s">
         <v>1107</v>
       </c>
-      <c r="D2210" t="s">
-        <v>1096</v>
-      </c>
       <c r="E2210">
         <v>1</v>
       </c>
       <c r="F2210">
-        <v>1.0549999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2211" spans="1:6" x14ac:dyDescent="0.35">
@@ -50367,13 +50367,13 @@
       </c>
       <c r="B2211" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BTU -&gt; British thermal unit</v>
+        <v>BTU -&gt; BTU</v>
       </c>
       <c r="C2211" t="s">
         <v>1116</v>
       </c>
       <c r="D2211" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="E2211">
         <v>1</v>
@@ -50388,13 +50388,13 @@
       </c>
       <c r="B2212" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BTU -&gt; BTU</v>
+        <v>Watt*second -&gt; Watt second</v>
       </c>
       <c r="C2212" t="s">
-        <v>1116</v>
+        <v>1097</v>
       </c>
       <c r="D2212" t="s">
-        <v>1116</v>
+        <v>1090</v>
       </c>
       <c r="E2212">
         <v>1</v>
@@ -50409,13 +50409,13 @@
       </c>
       <c r="B2213" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt*second -&gt; Watt second</v>
+        <v>Watt*second -&gt; WATT*SECOND</v>
       </c>
       <c r="C2213" t="s">
         <v>1097</v>
       </c>
       <c r="D2213" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="E2213">
         <v>1</v>
@@ -50430,13 +50430,13 @@
       </c>
       <c r="B2214" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt*second -&gt; WATT*SECOND</v>
+        <v>W*s -&gt; Watt second</v>
       </c>
       <c r="C2214" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D2214" t="s">
-        <v>1118</v>
+        <v>1090</v>
       </c>
       <c r="E2214">
         <v>1</v>
@@ -50451,13 +50451,13 @@
       </c>
       <c r="B2215" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*s -&gt; Watt second</v>
+        <v>W*s -&gt; W*S</v>
       </c>
       <c r="C2215" t="s">
         <v>1098</v>
       </c>
       <c r="D2215" t="s">
-        <v>1090</v>
+        <v>1119</v>
       </c>
       <c r="E2215">
         <v>1</v>
@@ -50472,13 +50472,13 @@
       </c>
       <c r="B2216" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*s -&gt; W*S</v>
+        <v>Ws -&gt; Watt second</v>
       </c>
       <c r="C2216" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D2216" t="s">
-        <v>1119</v>
+        <v>1090</v>
       </c>
       <c r="E2216">
         <v>1</v>
@@ -50493,13 +50493,13 @@
       </c>
       <c r="B2217" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Ws -&gt; Watt second</v>
+        <v>Ws -&gt; WS</v>
       </c>
       <c r="C2217" t="s">
         <v>1099</v>
       </c>
       <c r="D2217" t="s">
-        <v>1090</v>
+        <v>1120</v>
       </c>
       <c r="E2217">
         <v>1</v>
@@ -50514,13 +50514,13 @@
       </c>
       <c r="B2218" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Ws -&gt; WS</v>
+        <v>Watt hour -&gt; Wh</v>
       </c>
       <c r="C2218" t="s">
-        <v>1099</v>
+        <v>1121</v>
       </c>
       <c r="D2218" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E2218">
         <v>1</v>
@@ -50535,13 +50535,13 @@
       </c>
       <c r="B2219" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; Wh</v>
+        <v>Watt hour -&gt; W*h</v>
       </c>
       <c r="C2219" t="s">
         <v>1121</v>
       </c>
       <c r="D2219" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E2219">
         <v>1</v>
@@ -50556,13 +50556,13 @@
       </c>
       <c r="B2220" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; W*h</v>
+        <v>Watt hour -&gt; WATT HOUR</v>
       </c>
       <c r="C2220" t="s">
         <v>1121</v>
       </c>
       <c r="D2220" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E2220">
         <v>1</v>
@@ -50577,13 +50577,13 @@
       </c>
       <c r="B2221" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; WATT HOUR</v>
+        <v>Wh -&gt; Watt hour</v>
       </c>
       <c r="C2221" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D2221" t="s">
         <v>1121</v>
-      </c>
-      <c r="D2221" t="s">
-        <v>1124</v>
       </c>
       <c r="E2221">
         <v>1</v>
@@ -50598,13 +50598,13 @@
       </c>
       <c r="B2222" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Wh -&gt; Watt hour</v>
+        <v>Wh -&gt; WH</v>
       </c>
       <c r="C2222" t="s">
         <v>1122</v>
       </c>
       <c r="D2222" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="E2222">
         <v>1</v>
@@ -50619,13 +50619,13 @@
       </c>
       <c r="B2223" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Wh -&gt; WH</v>
+        <v>W*h -&gt; Watt hour</v>
       </c>
       <c r="C2223" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D2223" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E2223">
         <v>1</v>
@@ -50640,13 +50640,13 @@
       </c>
       <c r="B2224" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*h -&gt; Watt hour</v>
+        <v>W*h -&gt; W*H</v>
       </c>
       <c r="C2224" t="s">
         <v>1123</v>
       </c>
       <c r="D2224" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="E2224">
         <v>1</v>
@@ -50661,13 +50661,13 @@
       </c>
       <c r="B2225" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*h -&gt; W*H</v>
+        <v>gram calorie -&gt; cal</v>
       </c>
       <c r="C2225" t="s">
-        <v>1123</v>
+        <v>1095</v>
       </c>
       <c r="D2225" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E2225">
         <v>1</v>
@@ -50682,13 +50682,13 @@
       </c>
       <c r="B2226" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; cal</v>
+        <v>gram calorie -&gt; calorie</v>
       </c>
       <c r="C2226" t="s">
         <v>1095</v>
       </c>
       <c r="D2226" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E2226">
         <v>1</v>
@@ -50703,13 +50703,13 @@
       </c>
       <c r="B2227" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; calorie</v>
+        <v>gram calorie -&gt; Calorie</v>
       </c>
       <c r="C2227" t="s">
         <v>1095</v>
       </c>
       <c r="D2227" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E2227">
         <v>1</v>
@@ -50724,13 +50724,13 @@
       </c>
       <c r="B2228" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; Calorie</v>
+        <v>gram calorie -&gt; GRAM CALORIE</v>
       </c>
       <c r="C2228" t="s">
         <v>1095</v>
       </c>
       <c r="D2228" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E2228">
         <v>1</v>
@@ -50745,19 +50745,19 @@
       </c>
       <c r="B2229" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; GRAM CALORIE</v>
+        <v>gram calorie -&gt; Joule</v>
       </c>
       <c r="C2229" t="s">
         <v>1095</v>
       </c>
       <c r="D2229" t="s">
-        <v>1130</v>
+        <v>1088</v>
       </c>
       <c r="E2229">
         <v>1</v>
       </c>
       <c r="F2229">
-        <v>1</v>
+        <v>4.1840000000000002</v>
       </c>
     </row>
     <row r="2230" spans="1:6" x14ac:dyDescent="0.35">
@@ -50766,19 +50766,19 @@
       </c>
       <c r="B2230" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; Joule</v>
+        <v>cal -&gt; gram calorie</v>
       </c>
       <c r="C2230" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D2230" t="s">
         <v>1095</v>
       </c>
-      <c r="D2230" t="s">
-        <v>1088</v>
-      </c>
       <c r="E2230">
         <v>1</v>
       </c>
       <c r="F2230">
-        <v>4.1840000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2231" spans="1:6" x14ac:dyDescent="0.35">
@@ -50787,13 +50787,13 @@
       </c>
       <c r="B2231" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>cal -&gt; gram calorie</v>
+        <v>cal -&gt; CAL</v>
       </c>
       <c r="C2231" t="s">
         <v>1127</v>
       </c>
       <c r="D2231" t="s">
-        <v>1095</v>
+        <v>1131</v>
       </c>
       <c r="E2231">
         <v>1</v>
@@ -50808,13 +50808,13 @@
       </c>
       <c r="B2232" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>cal -&gt; CAL</v>
+        <v>calorie -&gt; gram calorie</v>
       </c>
       <c r="C2232" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D2232" t="s">
-        <v>1131</v>
+        <v>1095</v>
       </c>
       <c r="E2232">
         <v>1</v>
@@ -50829,13 +50829,13 @@
       </c>
       <c r="B2233" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>calorie -&gt; gram calorie</v>
+        <v>calorie -&gt; CALORIE</v>
       </c>
       <c r="C2233" t="s">
         <v>1128</v>
       </c>
       <c r="D2233" t="s">
-        <v>1095</v>
+        <v>1132</v>
       </c>
       <c r="E2233">
         <v>1</v>
@@ -50850,13 +50850,13 @@
       </c>
       <c r="B2234" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>calorie -&gt; CALORIE</v>
+        <v>Calorie -&gt; gram calorie</v>
       </c>
       <c r="C2234" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D2234" t="s">
-        <v>1132</v>
+        <v>1095</v>
       </c>
       <c r="E2234">
         <v>1</v>
@@ -50871,13 +50871,13 @@
       </c>
       <c r="B2235" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Calorie -&gt; gram calorie</v>
+        <v>Calorie -&gt; CALORIE</v>
       </c>
       <c r="C2235" t="s">
         <v>1129</v>
       </c>
       <c r="D2235" t="s">
-        <v>1095</v>
+        <v>1132</v>
       </c>
       <c r="E2235">
         <v>1</v>
@@ -50892,13 +50892,13 @@
       </c>
       <c r="B2236" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Calorie -&gt; CALORIE</v>
+        <v>JOULE -&gt; Joule</v>
       </c>
       <c r="C2236" t="s">
-        <v>1129</v>
+        <v>1094</v>
       </c>
       <c r="D2236" t="s">
-        <v>1132</v>
+        <v>1088</v>
       </c>
       <c r="E2236">
         <v>1</v>
@@ -50913,13 +50913,13 @@
       </c>
       <c r="B2237" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>JOULE -&gt; Joule</v>
+        <v>WATT SECOND -&gt; Watt second</v>
       </c>
       <c r="C2237" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D2237" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E2237">
         <v>1</v>
@@ -50934,13 +50934,13 @@
       </c>
       <c r="B2238" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>WATT SECOND -&gt; Watt second</v>
+        <v>N*M -&gt; N*m</v>
       </c>
       <c r="C2238" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D2238" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E2238">
         <v>1</v>
@@ -50955,13 +50955,13 @@
       </c>
       <c r="B2239" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>N*M -&gt; N*m</v>
+        <v>KG*M2/S2 -&gt; kg*m2/s2</v>
       </c>
       <c r="C2239" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="D2239" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E2239">
         <v>1</v>
@@ -50976,13 +50976,13 @@
       </c>
       <c r="B2240" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KG*M2/S2 -&gt; kg*m2/s2</v>
+        <v>JOULES -&gt; Joules</v>
       </c>
       <c r="C2240" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D2240" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E2240">
         <v>1</v>
@@ -50997,13 +50997,13 @@
       </c>
       <c r="B2241" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>JOULES -&gt; Joules</v>
+        <v>KILOJOULE -&gt; Kilojoule</v>
       </c>
       <c r="C2241" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="D2241" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E2241">
         <v>1</v>
@@ -51018,13 +51018,13 @@
       </c>
       <c r="B2242" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOJOULE -&gt; Kilojoule</v>
+        <v>KJ -&gt; kJ</v>
       </c>
       <c r="C2242" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="D2242" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="E2242">
         <v>1</v>
@@ -51039,13 +51039,13 @@
       </c>
       <c r="B2243" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KJ -&gt; kJ</v>
+        <v>KILOWATT HOUR -&gt; kilowatt hour</v>
       </c>
       <c r="C2243" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="D2243" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E2243">
         <v>1</v>
@@ -51060,13 +51060,13 @@
       </c>
       <c r="B2244" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOWATT HOUR -&gt; kilowatt hour</v>
+        <v>KWH -&gt; kWh</v>
       </c>
       <c r="C2244" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D2244" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E2244">
         <v>1</v>
@@ -51081,13 +51081,13 @@
       </c>
       <c r="B2245" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KWH -&gt; kWh</v>
+        <v>KW*H -&gt; kW*h</v>
       </c>
       <c r="C2245" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="D2245" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E2245">
         <v>1</v>
@@ -51102,13 +51102,13 @@
       </c>
       <c r="B2246" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KW*H -&gt; kW*h</v>
+        <v>KILOVATIO HORA -&gt; kilovatio hora</v>
       </c>
       <c r="C2246" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D2246" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="E2246">
         <v>1</v>
@@ -51123,13 +51123,13 @@
       </c>
       <c r="B2247" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOVATIO HORA -&gt; kilovatio hora</v>
+        <v>BRITISH THERMAL UNIT -&gt; British thermal unit</v>
       </c>
       <c r="C2247" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2247" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E2247">
         <v>1</v>
@@ -51144,13 +51144,13 @@
       </c>
       <c r="B2248" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BRITISH THERMAL UNIT -&gt; British thermal unit</v>
+        <v>WATT*SECOND -&gt; Watt*second</v>
       </c>
       <c r="C2248" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D2248" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="E2248">
         <v>1</v>
@@ -51164,14 +51164,14 @@
         <v>2247</v>
       </c>
       <c r="B2249" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>WATT*SECOND -&gt; Watt*second</v>
+        <f t="shared" ref="B2249:B2299" si="35">C2249&amp;" -&gt; " &amp;D2249</f>
+        <v>W*S -&gt; W*s</v>
       </c>
       <c r="C2249" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D2249" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E2249">
         <v>1</v>
@@ -51185,14 +51185,14 @@
         <v>2248</v>
       </c>
       <c r="B2250" s="2" t="str">
-        <f t="shared" ref="B2250:B2300" si="35">C2250&amp;" -&gt; " &amp;D2250</f>
-        <v>W*S -&gt; W*s</v>
+        <f t="shared" si="35"/>
+        <v>WS -&gt; Ws</v>
       </c>
       <c r="C2250" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="D2250" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E2250">
         <v>1</v>
@@ -51207,13 +51207,13 @@
       </c>
       <c r="B2251" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WS -&gt; Ws</v>
+        <v>WATT HOUR -&gt; Watt hour</v>
       </c>
       <c r="C2251" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="D2251" t="s">
-        <v>1099</v>
+        <v>1121</v>
       </c>
       <c r="E2251">
         <v>1</v>
@@ -51228,13 +51228,13 @@
       </c>
       <c r="B2252" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WATT HOUR -&gt; Watt hour</v>
+        <v>WH -&gt; Wh</v>
       </c>
       <c r="C2252" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D2252" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E2252">
         <v>1</v>
@@ -51249,13 +51249,13 @@
       </c>
       <c r="B2253" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WH -&gt; Wh</v>
+        <v>W*H -&gt; W*h</v>
       </c>
       <c r="C2253" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D2253" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E2253">
         <v>1</v>
@@ -51270,13 +51270,13 @@
       </c>
       <c r="B2254" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>W*H -&gt; W*h</v>
+        <v>GRAM CALORIE -&gt; gram calorie</v>
       </c>
       <c r="C2254" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="D2254" t="s">
-        <v>1123</v>
+        <v>1095</v>
       </c>
       <c r="E2254">
         <v>1</v>
@@ -51291,13 +51291,13 @@
       </c>
       <c r="B2255" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>GRAM CALORIE -&gt; gram calorie</v>
+        <v>CAL -&gt; cal</v>
       </c>
       <c r="C2255" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D2255" t="s">
-        <v>1095</v>
+        <v>1127</v>
       </c>
       <c r="E2255">
         <v>1</v>
@@ -51312,13 +51312,13 @@
       </c>
       <c r="B2256" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CAL -&gt; cal</v>
+        <v>CALORIE -&gt; calorie</v>
       </c>
       <c r="C2256" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D2256" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E2256">
         <v>1</v>
@@ -51333,13 +51333,13 @@
       </c>
       <c r="B2257" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CALORIE -&gt; calorie</v>
+        <v>CALORIE -&gt; Calorie</v>
       </c>
       <c r="C2257" t="s">
         <v>1132</v>
       </c>
       <c r="D2257" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E2257">
         <v>1</v>
@@ -51354,13 +51354,13 @@
       </c>
       <c r="B2258" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CALORIE -&gt; Calorie</v>
+        <v>Horsepower -&gt; hp</v>
       </c>
       <c r="C2258" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D2258" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
       <c r="E2258">
         <v>1</v>
@@ -51375,13 +51375,13 @@
       </c>
       <c r="B2259" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; hp</v>
+        <v>Horsepower -&gt; HORSEPOWER</v>
       </c>
       <c r="C2259" t="s">
         <v>1133</v>
       </c>
       <c r="D2259" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="E2259">
         <v>1</v>
@@ -51396,19 +51396,19 @@
       </c>
       <c r="B2260" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; HORSEPOWER</v>
+        <v>Horsepower -&gt; Watt</v>
       </c>
       <c r="C2260" t="s">
         <v>1133</v>
       </c>
       <c r="D2260" t="s">
-        <v>1135</v>
+        <v>1060</v>
       </c>
       <c r="E2260">
         <v>1</v>
       </c>
       <c r="F2260">
-        <v>1</v>
+        <v>745.7</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.35">
@@ -51417,19 +51417,19 @@
       </c>
       <c r="B2261" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; Watt</v>
+        <v>hp -&gt; Horsepower</v>
       </c>
       <c r="C2261" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D2261" t="s">
         <v>1133</v>
       </c>
-      <c r="D2261" t="s">
-        <v>1060</v>
-      </c>
       <c r="E2261">
         <v>1</v>
       </c>
       <c r="F2261">
-        <v>745.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2262" spans="1:6" x14ac:dyDescent="0.35">
@@ -51438,13 +51438,13 @@
       </c>
       <c r="B2262" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>hp -&gt; Horsepower</v>
+        <v>hp -&gt; HP</v>
       </c>
       <c r="C2262" t="s">
         <v>1134</v>
       </c>
       <c r="D2262" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="E2262">
         <v>1</v>
@@ -51459,13 +51459,13 @@
       </c>
       <c r="B2263" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>hp -&gt; HP</v>
+        <v>Watt -&gt; W</v>
       </c>
       <c r="C2263" t="s">
-        <v>1134</v>
+        <v>1060</v>
       </c>
       <c r="D2263" t="s">
-        <v>1136</v>
+        <v>70</v>
       </c>
       <c r="E2263">
         <v>1</v>
@@ -51480,13 +51480,13 @@
       </c>
       <c r="B2264" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; W</v>
+        <v>Watt -&gt; J/s</v>
       </c>
       <c r="C2264" t="s">
         <v>1060</v>
       </c>
       <c r="D2264" t="s">
-        <v>70</v>
+        <v>1137</v>
       </c>
       <c r="E2264">
         <v>1</v>
@@ -51501,13 +51501,13 @@
       </c>
       <c r="B2265" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; J/s</v>
+        <v>Watt -&gt; WATT</v>
       </c>
       <c r="C2265" t="s">
         <v>1060</v>
       </c>
       <c r="D2265" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E2265">
         <v>1</v>
@@ -51522,19 +51522,19 @@
       </c>
       <c r="B2266" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; WATT</v>
+        <v>Watt -&gt; Horsepower</v>
       </c>
       <c r="C2266" t="s">
         <v>1060</v>
       </c>
       <c r="D2266" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="E2266">
         <v>1</v>
       </c>
       <c r="F2266">
-        <v>1</v>
+        <v>1.341021858656296E-3</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.35">
@@ -51543,19 +51543,19 @@
       </c>
       <c r="B2267" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; Horsepower</v>
+        <v>J/s -&gt; Watt</v>
       </c>
       <c r="C2267" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D2267" t="s">
         <v>1060</v>
       </c>
-      <c r="D2267" t="s">
-        <v>1133</v>
-      </c>
       <c r="E2267">
         <v>1</v>
       </c>
       <c r="F2267">
-        <v>1.341021858656296E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2268" spans="1:6" x14ac:dyDescent="0.35">
@@ -51564,13 +51564,13 @@
       </c>
       <c r="B2268" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/s -&gt; Watt</v>
+        <v>J/s -&gt; J/S</v>
       </c>
       <c r="C2268" t="s">
         <v>1137</v>
       </c>
       <c r="D2268" t="s">
-        <v>1060</v>
+        <v>1139</v>
       </c>
       <c r="E2268">
         <v>1</v>
@@ -51585,13 +51585,13 @@
       </c>
       <c r="B2269" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/s -&gt; J/S</v>
+        <v>HORSEPOWER -&gt; Horsepower</v>
       </c>
       <c r="C2269" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D2269" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E2269">
         <v>1</v>
@@ -51606,13 +51606,13 @@
       </c>
       <c r="B2270" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>HORSEPOWER -&gt; Horsepower</v>
+        <v>HP -&gt; hp</v>
       </c>
       <c r="C2270" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="D2270" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E2270">
         <v>1</v>
@@ -51627,13 +51627,13 @@
       </c>
       <c r="B2271" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>HP -&gt; hp</v>
+        <v>WATT -&gt; Watt</v>
       </c>
       <c r="C2271" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D2271" t="s">
-        <v>1134</v>
+        <v>1060</v>
       </c>
       <c r="E2271">
         <v>1</v>
@@ -51648,13 +51648,13 @@
       </c>
       <c r="B2272" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WATT -&gt; Watt</v>
+        <v>J/S -&gt; J/s</v>
       </c>
       <c r="C2272" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D2272" t="s">
-        <v>1060</v>
+        <v>1137</v>
       </c>
       <c r="E2272">
         <v>1</v>
@@ -51669,13 +51669,13 @@
       </c>
       <c r="B2273" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/S -&gt; J/s</v>
+        <v>stb/day/psi -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2273" t="s">
-        <v>1139</v>
+        <v>994</v>
       </c>
       <c r="D2273" t="s">
-        <v>1137</v>
+        <v>1014</v>
       </c>
       <c r="E2273">
         <v>1</v>
@@ -51690,13 +51690,13 @@
       </c>
       <c r="B2274" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>stb/day/psi -&gt; STB/DAY-PSI</v>
+        <v>stb/day/psi -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2274" t="s">
         <v>994</v>
       </c>
       <c r="D2274" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E2274">
         <v>1</v>
@@ -51711,13 +51711,13 @@
       </c>
       <c r="B2275" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>stb/day/psi -&gt; STB/DAY-PSIA</v>
+        <v>STB/DAY-PSI -&gt; stb/day/psi</v>
       </c>
       <c r="C2275" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D2275" t="s">
         <v>994</v>
-      </c>
-      <c r="D2275" t="s">
-        <v>1015</v>
       </c>
       <c r="E2275">
         <v>1</v>
@@ -51732,13 +51732,13 @@
       </c>
       <c r="B2276" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSI -&gt; stb/day/psi</v>
+        <v>STB/DAY-PSI -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2276" t="s">
         <v>1014</v>
       </c>
       <c r="D2276" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="E2276">
         <v>1</v>
@@ -51753,13 +51753,13 @@
       </c>
       <c r="B2277" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSI -&gt; STB/DAY-PSI</v>
+        <v>STB/DAY-PSIA -&gt; stb/day/psi</v>
       </c>
       <c r="C2277" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D2277" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
       <c r="E2277">
         <v>1</v>
@@ -51774,13 +51774,13 @@
       </c>
       <c r="B2278" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSIA -&gt; stb/day/psi</v>
+        <v>STB/DAY-PSIA -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2278" t="s">
         <v>1015</v>
       </c>
       <c r="D2278" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="E2278">
         <v>1</v>
@@ -51795,13 +51795,13 @@
       </c>
       <c r="B2279" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSIA -&gt; STB/DAY-PSIA</v>
+        <v>sm3/day/bar -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2279" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D2279" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="E2279">
         <v>1</v>
@@ -51816,13 +51816,13 @@
       </c>
       <c r="B2280" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; SM3/DAY-BAR</v>
+        <v>sm3/day/bar -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2280" t="s">
         <v>1002</v>
       </c>
       <c r="D2280" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E2280">
         <v>1</v>
@@ -51837,13 +51837,13 @@
       </c>
       <c r="B2281" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; SM3/DAY-BARA</v>
+        <v>sm3/day/bar -&gt; sm3/day/barsa</v>
       </c>
       <c r="C2281" t="s">
         <v>1002</v>
       </c>
       <c r="D2281" t="s">
-        <v>1023</v>
+        <v>1140</v>
       </c>
       <c r="E2281">
         <v>1</v>
@@ -51858,13 +51858,13 @@
       </c>
       <c r="B2282" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; sm3/day/barsa</v>
+        <v>SM3/DAY-BAR -&gt; sm3/day/bar</v>
       </c>
       <c r="C2282" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2282" t="s">
         <v>1002</v>
-      </c>
-      <c r="D2282" t="s">
-        <v>1140</v>
       </c>
       <c r="E2282">
         <v>1</v>
@@ -51879,13 +51879,13 @@
       </c>
       <c r="B2283" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BAR -&gt; sm3/day/bar</v>
+        <v>SM3/DAY-BAR -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2283" t="s">
         <v>1022</v>
       </c>
       <c r="D2283" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="E2283">
         <v>1</v>
@@ -51900,13 +51900,13 @@
       </c>
       <c r="B2284" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BAR -&gt; SM3/DAY-BAR</v>
+        <v>SM3/DAY-BARA -&gt; sm3/day/bar</v>
       </c>
       <c r="C2284" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D2284" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="E2284">
         <v>1</v>
@@ -51921,13 +51921,13 @@
       </c>
       <c r="B2285" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BARA -&gt; sm3/day/bar</v>
+        <v>SM3/DAY-BARA -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2285" t="s">
         <v>1023</v>
       </c>
       <c r="D2285" t="s">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="E2285">
         <v>1</v>
@@ -51942,13 +51942,13 @@
       </c>
       <c r="B2286" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BARA -&gt; SM3/DAY-BARA</v>
+        <v>sm3/day/barsa -&gt; sm3/day/bar</v>
       </c>
       <c r="C2286" t="s">
-        <v>1023</v>
+        <v>1140</v>
       </c>
       <c r="D2286" t="s">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="E2286">
         <v>1</v>
@@ -51963,13 +51963,13 @@
       </c>
       <c r="B2287" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/barsa -&gt; sm3/day/bar</v>
+        <v>sm3/day/barsa -&gt; SM3/DAY/BARSA</v>
       </c>
       <c r="C2287" t="s">
         <v>1140</v>
       </c>
       <c r="D2287" t="s">
-        <v>1002</v>
+        <v>1141</v>
       </c>
       <c r="E2287">
         <v>1</v>
@@ -51984,13 +51984,13 @@
       </c>
       <c r="B2288" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/barsa -&gt; SM3/DAY/BARSA</v>
+        <v>sm3/day/kPa -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2288" t="s">
-        <v>1140</v>
+        <v>1057</v>
       </c>
       <c r="D2288" t="s">
-        <v>1141</v>
+        <v>1026</v>
       </c>
       <c r="E2288">
         <v>1</v>
@@ -52005,13 +52005,13 @@
       </c>
       <c r="B2289" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/kPa -&gt; SM3/DAY-KPA</v>
+        <v>SM3/DAY-KPA -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2289" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D2289" t="s">
         <v>1057</v>
-      </c>
-      <c r="D2289" t="s">
-        <v>1026</v>
       </c>
       <c r="E2289">
         <v>1</v>
@@ -52026,13 +52026,13 @@
       </c>
       <c r="B2290" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-KPA -&gt; sm3/day/kPa</v>
+        <v>SM3/DAY-KPA -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2290" t="s">
         <v>1026</v>
       </c>
       <c r="D2290" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="E2290">
         <v>1</v>
@@ -52047,13 +52047,13 @@
       </c>
       <c r="B2291" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-KPA -&gt; SM3/DAY-KPA</v>
+        <v>SM3/DAY/BARSA -&gt; sm3/day/barsa</v>
       </c>
       <c r="C2291" t="s">
-        <v>1026</v>
+        <v>1141</v>
       </c>
       <c r="D2291" t="s">
-        <v>1026</v>
+        <v>1140</v>
       </c>
       <c r="E2291">
         <v>1</v>
@@ -52068,19 +52068,19 @@
       </c>
       <c r="B2292" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY/BARSA -&gt; sm3/day/barsa</v>
+        <v>F/ft -&gt; C/m</v>
       </c>
       <c r="C2292" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="D2292" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="E2292">
         <v>1</v>
       </c>
       <c r="F2292">
-        <v>1</v>
+        <v>1.8226888305628459</v>
       </c>
     </row>
     <row r="2293" spans="1:6" x14ac:dyDescent="0.35">
@@ -52089,19 +52089,19 @@
       </c>
       <c r="B2293" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/ft -&gt; C/m</v>
+        <v>C/m -&gt; F/ft</v>
       </c>
       <c r="C2293" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D2293" t="s">
         <v>1142</v>
       </c>
-      <c r="D2293" t="s">
-        <v>1143</v>
-      </c>
       <c r="E2293">
         <v>1</v>
       </c>
       <c r="F2293">
-        <v>1.8226888305628459</v>
+        <v>0.54864000000000013</v>
       </c>
     </row>
     <row r="2294" spans="1:6" x14ac:dyDescent="0.35">
@@ -52110,19 +52110,19 @@
       </c>
       <c r="B2294" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>C/m -&gt; F/ft</v>
+        <v>F/yd -&gt; F/in</v>
       </c>
       <c r="C2294" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D2294" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E2294">
         <v>1</v>
       </c>
       <c r="F2294">
-        <v>0.54864000000000013</v>
+        <v>2.777777777777778E-2</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.35">
@@ -52131,19 +52131,19 @@
       </c>
       <c r="B2295" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/yd -&gt; F/in</v>
+        <v>F/ft -&gt; C/km</v>
       </c>
       <c r="C2295" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D2295" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E2295">
         <v>1</v>
       </c>
       <c r="F2295">
-        <v>2.777777777777778E-2</v>
+        <v>1822.6888305628461</v>
       </c>
     </row>
     <row r="2296" spans="1:6" x14ac:dyDescent="0.35">
@@ -52152,19 +52152,19 @@
       </c>
       <c r="B2296" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/ft -&gt; C/km</v>
+        <v>K/m -&gt; C/m</v>
       </c>
       <c r="C2296" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="D2296" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E2296">
         <v>1</v>
       </c>
       <c r="F2296">
-        <v>1822.6888305628461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2297" spans="1:6" x14ac:dyDescent="0.35">
@@ -52173,19 +52173,19 @@
       </c>
       <c r="B2297" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>K/m -&gt; C/m</v>
+        <v>K/m -&gt; C/cm</v>
       </c>
       <c r="C2297" t="s">
         <v>1147</v>
       </c>
       <c r="D2297" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
       <c r="E2297">
         <v>1</v>
       </c>
       <c r="F2297">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="2298" spans="1:6" x14ac:dyDescent="0.35">
@@ -52194,19 +52194,19 @@
       </c>
       <c r="B2298" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>K/m -&gt; C/cm</v>
+        <v>C/min -&gt; C/hour</v>
       </c>
       <c r="C2298" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="D2298" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="E2298">
         <v>1</v>
       </c>
       <c r="F2298">
-        <v>0.01</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2299" spans="1:6" x14ac:dyDescent="0.35">
@@ -52215,39 +52215,18 @@
       </c>
       <c r="B2299" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>C/min -&gt; C/hour</v>
+        <v>C/day -&gt; F/s</v>
       </c>
       <c r="C2299" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D2299" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E2299">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F2299">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2300" s="1">
-        <v>2298</v>
-      </c>
-      <c r="B2300" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>C/day -&gt; F/s</v>
-      </c>
-      <c r="C2300" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D2300" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E2300">
-        <v>250</v>
-      </c>
-      <c r="F2300">
         <v>5.208333333333333E-3</v>
       </c>
     </row>

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAC7312-551E-46B1-9325-D657DBA0CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB2083-8C22-49EC-99D4-F32663FA616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15090" yWindow="200" windowWidth="13860" windowHeight="20450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2296</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="1170">
   <si>
     <t>source</t>
   </si>
@@ -3153,9 +3153,6 @@
     <t>unitless</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>FRACTION</t>
   </si>
   <si>
@@ -3166,9 +3163,6 @@
   </si>
   <si>
     <t>UNITLESS</t>
-  </si>
-  <si>
-    <t>NONE</t>
   </si>
   <si>
     <t>percentage</t>
@@ -3942,13 +3936,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2299"/>
+  <dimension ref="A1:F2296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2032" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1945" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2069" sqref="E2069"/>
+      <selection pane="bottomRight" activeCell="B1953" sqref="B1953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3960,10 +3954,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3975,7 +3969,7 @@
         <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -8232,7 +8226,7 @@
         <v>105</v>
       </c>
       <c r="D204" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -8355,7 +8349,7 @@
         <v>Centigrade -&gt; Celsius</v>
       </c>
       <c r="C210" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D210" t="s">
         <v>105</v>
@@ -10794,7 +10788,7 @@
         <v>157</v>
       </c>
       <c r="D326" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -11064,10 +11058,10 @@
         <v>tenth -&gt; te</v>
       </c>
       <c r="C339" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D339" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -11085,10 +11079,10 @@
         <v>tenth -&gt; TENTH</v>
       </c>
       <c r="C340" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D340" t="s">
         <v>1166</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1168</v>
       </c>
       <c r="E340">
         <v>1</v>
@@ -11106,7 +11100,7 @@
         <v>tenth -&gt; inch</v>
       </c>
       <c r="C341" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D341" t="s">
         <v>168</v>
@@ -11127,10 +11121,10 @@
         <v>te -&gt; tenth</v>
       </c>
       <c r="C342" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D342" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -11148,10 +11142,10 @@
         <v>tenth -&gt; 0.1 in</v>
       </c>
       <c r="C343" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D343" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -11172,7 +11166,7 @@
         <v>168</v>
       </c>
       <c r="D344" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -20073,7 +20067,7 @@
         <v>fluid ounce -&gt; fl oz</v>
       </c>
       <c r="C768" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D768" t="s">
         <v>385</v>
@@ -20094,7 +20088,7 @@
         <v>fluid ounce -&gt; oz</v>
       </c>
       <c r="C769" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D769" t="s">
         <v>386</v>
@@ -20115,7 +20109,7 @@
         <v>fluid ounce -&gt; ounce</v>
       </c>
       <c r="C770" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D770" t="s">
         <v>387</v>
@@ -20136,10 +20130,10 @@
         <v>fluid ounce -&gt; fluid ounces</v>
       </c>
       <c r="C771" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D771" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E771">
         <v>1</v>
@@ -20157,10 +20151,10 @@
         <v>fluid ounce -&gt; FLUID OUNCES</v>
       </c>
       <c r="C772" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D772" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E772">
         <v>1</v>
@@ -20178,10 +20172,10 @@
         <v>fluid ounce -&gt; FLUID OUNCE</v>
       </c>
       <c r="C773" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D773" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E773">
         <v>1</v>
@@ -20199,7 +20193,7 @@
         <v>fluid ounce -&gt; gill</v>
       </c>
       <c r="C774" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D774" t="s">
         <v>388</v>
@@ -20223,7 +20217,7 @@
         <v>385</v>
       </c>
       <c r="D775" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E775">
         <v>1</v>
@@ -20265,7 +20259,7 @@
         <v>386</v>
       </c>
       <c r="D777" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E777">
         <v>1</v>
@@ -20328,7 +20322,7 @@
         <v>387</v>
       </c>
       <c r="D780" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E780">
         <v>1</v>
@@ -20559,7 +20553,7 @@
         <v>388</v>
       </c>
       <c r="D791" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E791">
         <v>1</v>
@@ -21543,10 +21537,10 @@
         <v>fluid ounces -&gt; fluid ounce</v>
       </c>
       <c r="C838" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="D838" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E838">
         <v>1</v>
@@ -21627,10 +21621,10 @@
         <v>FLUID OUNCES -&gt; fluid ounce</v>
       </c>
       <c r="C842" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D842" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E842">
         <v>1</v>
@@ -21711,10 +21705,10 @@
         <v>FLUID OUNCE -&gt; fluid ounce</v>
       </c>
       <c r="C846" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="D846" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E846">
         <v>1</v>
@@ -22194,7 +22188,7 @@
         <v>millilitre -&gt; ml</v>
       </c>
       <c r="C869" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D869" t="s">
         <v>157</v>
@@ -22215,10 +22209,10 @@
         <v>millilitre -&gt; milliliter</v>
       </c>
       <c r="C870" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D870" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E870">
         <v>1</v>
@@ -22236,7 +22230,7 @@
         <v>millilitre -&gt; cubic centimeter</v>
       </c>
       <c r="C871" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D871" t="s">
         <v>426</v>
@@ -22257,10 +22251,10 @@
         <v>millilitre -&gt; millilitres</v>
       </c>
       <c r="C872" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D872" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E872">
         <v>1</v>
@@ -22278,10 +22272,10 @@
         <v>millilitre -&gt; MILLILITRES</v>
       </c>
       <c r="C873" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D873" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E873">
         <v>1</v>
@@ -22299,10 +22293,10 @@
         <v>millilitre -&gt; millilitre</v>
       </c>
       <c r="C874" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D874" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E874">
         <v>1</v>
@@ -22320,10 +22314,10 @@
         <v>milliliter -&gt; millilitre</v>
       </c>
       <c r="C875" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D875" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E875">
         <v>1</v>
@@ -22341,10 +22335,10 @@
         <v>milliliter -&gt; milliliter</v>
       </c>
       <c r="C876" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D876" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E876">
         <v>1</v>
@@ -22365,7 +22359,7 @@
         <v>426</v>
       </c>
       <c r="D877" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E877">
         <v>1</v>
@@ -26724,10 +26718,10 @@
         <v>MILLILITRES -&gt; millilitre</v>
       </c>
       <c r="C1085" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="D1085" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E1085">
         <v>1</v>
@@ -32418,7 +32412,7 @@
         <v>651</v>
       </c>
       <c r="D1356" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E1356">
         <v>1</v>
@@ -32775,7 +32769,7 @@
         <v>656</v>
       </c>
       <c r="D1373" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E1373">
         <v>1</v>
@@ -43674,7 +43668,7 @@
         <v>954</v>
       </c>
       <c r="D1892" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E1892">
         <v>1</v>
@@ -43692,7 +43686,7 @@
         <v>b -&gt; bit</v>
       </c>
       <c r="C1893" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D1893" t="s">
         <v>954</v>
@@ -43716,7 +43710,7 @@
         <v>954</v>
       </c>
       <c r="D1894" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E1894">
         <v>1</v>
@@ -43734,7 +43728,7 @@
         <v>BIT -&gt; bit</v>
       </c>
       <c r="C1895" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D1895" t="s">
         <v>954</v>
@@ -43755,10 +43749,10 @@
         <v>b -&gt; BIT</v>
       </c>
       <c r="C1896" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D1896" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E1896">
         <v>1</v>
@@ -43776,10 +43770,10 @@
         <v>BIT -&gt; b</v>
       </c>
       <c r="C1897" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D1897" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E1897">
         <v>1</v>
@@ -46506,10 +46500,10 @@
         <v>sm3/day/kPa -&gt; sm3d/kPa</v>
       </c>
       <c r="C2027" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D2027" t="s">
         <v>1057</v>
-      </c>
-      <c r="D2027" t="s">
-        <v>1059</v>
       </c>
       <c r="E2027">
         <v>1</v>
@@ -46527,10 +46521,10 @@
         <v>sm3/day/kPa -&gt; sm3/day-kPa</v>
       </c>
       <c r="C2028" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D2028" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E2028">
         <v>1</v>
@@ -46548,10 +46542,10 @@
         <v>sm3/day/kPa -&gt; sm3/d/kPa</v>
       </c>
       <c r="C2029" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D2029" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E2029">
         <v>1</v>
@@ -46569,7 +46563,7 @@
         <v>sm3/day/kPa -&gt; SM3/DAY/KPA</v>
       </c>
       <c r="C2030" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D2030" t="s">
         <v>1024</v>
@@ -46590,10 +46584,10 @@
         <v>sm3d/kPa -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2031" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D2031" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E2031">
         <v>1</v>
@@ -46611,7 +46605,7 @@
         <v>sm3d/kPa -&gt; SM3D/KPA</v>
       </c>
       <c r="C2032" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D2032" t="s">
         <v>1025</v>
@@ -46632,10 +46626,10 @@
         <v>sm3/day-kPa -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2033" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D2033" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E2033">
         <v>1</v>
@@ -46653,7 +46647,7 @@
         <v>sm3/day-kPa -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2034" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D2034" t="s">
         <v>1026</v>
@@ -46674,10 +46668,10 @@
         <v>sm3/d/kPa -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2035" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D2035" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E2035">
         <v>1</v>
@@ -46695,7 +46689,7 @@
         <v>sm3/d/kPa -&gt; SM3/D/KPA</v>
       </c>
       <c r="C2036" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D2036" t="s">
         <v>1027</v>
@@ -47013,7 +47007,7 @@
         <v>1024</v>
       </c>
       <c r="D2051" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E2051">
         <v>1</v>
@@ -47034,7 +47028,7 @@
         <v>1025</v>
       </c>
       <c r="D2052" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E2052">
         <v>1</v>
@@ -47055,7 +47049,7 @@
         <v>1026</v>
       </c>
       <c r="D2053" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E2053">
         <v>1</v>
@@ -47076,7 +47070,7 @@
         <v>1027</v>
       </c>
       <c r="D2054" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E2054">
         <v>1</v>
@@ -47153,7 +47147,7 @@
         <v>2056</v>
       </c>
       <c r="B2058" s="2" t="str">
-        <f t="shared" ref="B2058:B2120" si="32">C2058&amp;" -&gt; " &amp;D2058</f>
+        <f t="shared" ref="B2058:B2117" si="32">C2058&amp;" -&gt; " &amp;D2058</f>
         <v>sec/d -&gt; SEC/D</v>
       </c>
       <c r="C2058" t="s">
@@ -47349,7 +47343,7 @@
         <v>1035</v>
       </c>
       <c r="D2067" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E2067">
         <v>1</v>
@@ -47370,7 +47364,7 @@
         <v>1035</v>
       </c>
       <c r="D2068" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E2068">
         <v>1</v>
@@ -47388,7 +47382,7 @@
         <v>percentage -&gt; fraction</v>
       </c>
       <c r="C2069" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D2069" t="s">
         <v>1035</v>
@@ -47433,7 +47427,7 @@
         <v>1036</v>
       </c>
       <c r="D2071" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E2071">
         <v>1</v>
@@ -47475,7 +47469,7 @@
         <v>1037</v>
       </c>
       <c r="D2073" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E2073">
         <v>1</v>
@@ -47517,7 +47511,7 @@
         <v>1038</v>
       </c>
       <c r="D2075" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E2075">
         <v>1</v>
@@ -47532,7 +47526,7 @@
       </c>
       <c r="B2076" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>None -&gt; fraction</v>
+        <v>FRACTION -&gt; fraction</v>
       </c>
       <c r="C2076" t="s">
         <v>1039</v>
@@ -47553,13 +47547,13 @@
       </c>
       <c r="B2077" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>None -&gt; NONE</v>
+        <v>RATIO -&gt; ratio</v>
       </c>
       <c r="C2077" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D2077" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="E2077">
         <v>1</v>
@@ -47574,13 +47568,13 @@
       </c>
       <c r="B2078" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>FRACTION -&gt; fraction</v>
+        <v>DIMENSIONLESS -&gt; dimensionless</v>
       </c>
       <c r="C2078" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D2078" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E2078">
         <v>1</v>
@@ -47595,13 +47589,13 @@
       </c>
       <c r="B2079" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>RATIO -&gt; ratio</v>
+        <v>UNITLESS -&gt; unitless</v>
       </c>
       <c r="C2079" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D2079" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="E2079">
         <v>1</v>
@@ -47616,13 +47610,13 @@
       </c>
       <c r="B2080" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DIMENSIONLESS -&gt; dimensionless</v>
+        <v>percentage -&gt; %</v>
       </c>
       <c r="C2080" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D2080" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="E2080">
         <v>1</v>
@@ -47637,13 +47631,13 @@
       </c>
       <c r="B2081" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>UNITLESS -&gt; unitless</v>
+        <v>% -&gt; percentage</v>
       </c>
       <c r="C2081" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D2081" t="s">
         <v>1043</v>
-      </c>
-      <c r="D2081" t="s">
-        <v>1038</v>
       </c>
       <c r="E2081">
         <v>1</v>
@@ -47658,13 +47652,13 @@
       </c>
       <c r="B2082" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>NONE -&gt; None</v>
+        <v>date -&gt; dates</v>
       </c>
       <c r="C2082" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D2082" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="E2082">
         <v>1</v>
@@ -47679,13 +47673,13 @@
       </c>
       <c r="B2083" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>percentage -&gt; %</v>
+        <v>date -&gt; DATES</v>
       </c>
       <c r="C2083" t="s">
         <v>1045</v>
       </c>
       <c r="D2083" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E2083">
         <v>1</v>
@@ -47700,13 +47694,13 @@
       </c>
       <c r="B2084" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>% -&gt; percentage</v>
+        <v>date -&gt; DATE</v>
       </c>
       <c r="C2084" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D2084" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E2084">
         <v>1</v>
@@ -47721,13 +47715,13 @@
       </c>
       <c r="B2085" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; dates</v>
+        <v>dates -&gt; date</v>
       </c>
       <c r="C2085" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D2085" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E2085">
         <v>1</v>
@@ -47742,13 +47736,13 @@
       </c>
       <c r="B2086" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; DATES</v>
+        <v>DATES -&gt; date</v>
       </c>
       <c r="C2086" t="s">
         <v>1047</v>
       </c>
       <c r="D2086" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E2086">
         <v>1</v>
@@ -47763,13 +47757,13 @@
       </c>
       <c r="B2087" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>date -&gt; DATE</v>
+        <v>DATE -&gt; date</v>
       </c>
       <c r="C2087" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="D2087" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E2087">
         <v>1</v>
@@ -47784,13 +47778,13 @@
       </c>
       <c r="B2088" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>dates -&gt; date</v>
+        <v>W -&gt; Watt</v>
       </c>
       <c r="C2088" t="s">
-        <v>1048</v>
+        <v>70</v>
       </c>
       <c r="D2088" t="s">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="E2088">
         <v>1</v>
@@ -47805,13 +47799,13 @@
       </c>
       <c r="B2089" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DATES -&gt; date</v>
+        <v>W -&gt; W</v>
       </c>
       <c r="C2089" t="s">
-        <v>1049</v>
+        <v>70</v>
       </c>
       <c r="D2089" t="s">
-        <v>1047</v>
+        <v>70</v>
       </c>
       <c r="E2089">
         <v>1</v>
@@ -47826,13 +47820,13 @@
       </c>
       <c r="B2090" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>DATE -&gt; date</v>
+        <v>fluid ounce -&gt; ozUS</v>
       </c>
       <c r="C2090" t="s">
-        <v>1050</v>
+        <v>1155</v>
       </c>
       <c r="D2090" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="E2090">
         <v>1</v>
@@ -47847,19 +47841,19 @@
       </c>
       <c r="B2091" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>W -&gt; Watt</v>
+        <v>fluid ounce -&gt; gallonUS</v>
       </c>
       <c r="C2091" t="s">
-        <v>70</v>
+        <v>1155</v>
       </c>
       <c r="D2091" t="s">
-        <v>1060</v>
+        <v>400</v>
       </c>
       <c r="E2091">
         <v>1</v>
       </c>
       <c r="F2091">
-        <v>1</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="2092" spans="1:6" x14ac:dyDescent="0.35">
@@ -47868,13 +47862,13 @@
       </c>
       <c r="B2092" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>W -&gt; W</v>
+        <v>ozUS -&gt; fluid ounce</v>
       </c>
       <c r="C2092" t="s">
-        <v>70</v>
+        <v>1059</v>
       </c>
       <c r="D2092" t="s">
-        <v>70</v>
+        <v>1155</v>
       </c>
       <c r="E2092">
         <v>1</v>
@@ -47889,13 +47883,13 @@
       </c>
       <c r="B2093" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce -&gt; ozUS</v>
+        <v>gill -&gt; gillUS</v>
       </c>
       <c r="C2093" t="s">
-        <v>1157</v>
+        <v>388</v>
       </c>
       <c r="D2093" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E2093">
         <v>1</v>
@@ -47910,19 +47904,19 @@
       </c>
       <c r="B2094" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce -&gt; gallonUS</v>
+        <v>gill -&gt; giUS</v>
       </c>
       <c r="C2094" t="s">
-        <v>1157</v>
+        <v>388</v>
       </c>
       <c r="D2094" t="s">
-        <v>400</v>
+        <v>1061</v>
       </c>
       <c r="E2094">
         <v>1</v>
       </c>
       <c r="F2094">
-        <v>7.8125E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2095" spans="1:6" x14ac:dyDescent="0.35">
@@ -47931,13 +47925,13 @@
       </c>
       <c r="B2095" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ozUS -&gt; fluid ounce</v>
+        <v>gillUS -&gt; gill</v>
       </c>
       <c r="C2095" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D2095" t="s">
-        <v>1157</v>
+        <v>388</v>
       </c>
       <c r="E2095">
         <v>1</v>
@@ -47952,13 +47946,13 @@
       </c>
       <c r="B2096" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gill -&gt; gillUS</v>
+        <v>giUS -&gt; gill</v>
       </c>
       <c r="C2096" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D2096" t="s">
         <v>388</v>
-      </c>
-      <c r="D2096" t="s">
-        <v>1062</v>
       </c>
       <c r="E2096">
         <v>1</v>
@@ -47973,13 +47967,13 @@
       </c>
       <c r="B2097" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gill -&gt; giUS</v>
+        <v>pint -&gt; pintUS</v>
       </c>
       <c r="C2097" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D2097" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E2097">
         <v>1</v>
@@ -47994,13 +47988,13 @@
       </c>
       <c r="B2098" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gillUS -&gt; gill</v>
+        <v>pint -&gt; ptUS</v>
       </c>
       <c r="C2098" t="s">
-        <v>1062</v>
+        <v>390</v>
       </c>
       <c r="D2098" t="s">
-        <v>388</v>
+        <v>1063</v>
       </c>
       <c r="E2098">
         <v>1</v>
@@ -48015,13 +48009,13 @@
       </c>
       <c r="B2099" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>giUS -&gt; gill</v>
+        <v>pintUS -&gt; pint</v>
       </c>
       <c r="C2099" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D2099" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E2099">
         <v>1</v>
@@ -48036,13 +48030,13 @@
       </c>
       <c r="B2100" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pint -&gt; pintUS</v>
+        <v>ptUS -&gt; pint</v>
       </c>
       <c r="C2100" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D2100" t="s">
         <v>390</v>
-      </c>
-      <c r="D2100" t="s">
-        <v>1064</v>
       </c>
       <c r="E2100">
         <v>1</v>
@@ -48057,13 +48051,13 @@
       </c>
       <c r="B2101" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pint -&gt; ptUS</v>
+        <v>quart -&gt; quartUS</v>
       </c>
       <c r="C2101" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D2101" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E2101">
         <v>1</v>
@@ -48078,19 +48072,19 @@
       </c>
       <c r="B2102" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>pintUS -&gt; pint</v>
+        <v>quart -&gt; gallonUS</v>
       </c>
       <c r="C2102" t="s">
-        <v>1064</v>
+        <v>392</v>
       </c>
       <c r="D2102" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E2102">
         <v>1</v>
       </c>
       <c r="F2102">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2103" spans="1:6" x14ac:dyDescent="0.35">
@@ -48099,13 +48093,13 @@
       </c>
       <c r="B2103" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>ptUS -&gt; pint</v>
+        <v>quartUS -&gt; quart</v>
       </c>
       <c r="C2103" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D2103" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E2103">
         <v>1</v>
@@ -48120,13 +48114,13 @@
       </c>
       <c r="B2104" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quart -&gt; quartUS</v>
+        <v>qtUS -&gt; quart</v>
       </c>
       <c r="C2104" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D2104" t="s">
         <v>392</v>
-      </c>
-      <c r="D2104" t="s">
-        <v>1066</v>
       </c>
       <c r="E2104">
         <v>1</v>
@@ -48141,19 +48135,19 @@
       </c>
       <c r="B2105" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quart -&gt; gallonUS</v>
+        <v>gallonUS -&gt; fluid ounce</v>
       </c>
       <c r="C2105" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D2105" t="s">
-        <v>400</v>
+        <v>1155</v>
       </c>
       <c r="E2105">
         <v>1</v>
       </c>
       <c r="F2105">
-        <v>0.25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2106" spans="1:6" x14ac:dyDescent="0.35">
@@ -48162,10 +48156,10 @@
       </c>
       <c r="B2106" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>quartUS -&gt; quart</v>
+        <v>gallonUS -&gt; quart</v>
       </c>
       <c r="C2106" t="s">
-        <v>1066</v>
+        <v>400</v>
       </c>
       <c r="D2106" t="s">
         <v>392</v>
@@ -48174,7 +48168,7 @@
         <v>1</v>
       </c>
       <c r="F2106">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2107" spans="1:6" x14ac:dyDescent="0.35">
@@ -48183,13 +48177,13 @@
       </c>
       <c r="B2107" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>qtUS -&gt; quart</v>
+        <v>gallonUK -&gt; imperial gallon</v>
       </c>
       <c r="C2107" t="s">
-        <v>1067</v>
+        <v>394</v>
       </c>
       <c r="D2107" t="s">
-        <v>392</v>
+        <v>1066</v>
       </c>
       <c r="E2107">
         <v>1</v>
@@ -48204,19 +48198,19 @@
       </c>
       <c r="B2108" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUS -&gt; fluid ounce</v>
+        <v>gallonUK -&gt; quartUK</v>
       </c>
       <c r="C2108" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D2108" t="s">
-        <v>1157</v>
+        <v>1067</v>
       </c>
       <c r="E2108">
         <v>1</v>
       </c>
       <c r="F2108">
-        <v>128</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2109" spans="1:6" x14ac:dyDescent="0.35">
@@ -48225,19 +48219,19 @@
       </c>
       <c r="B2109" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUS -&gt; quart</v>
+        <v>gallonUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2109" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D2109" t="s">
-        <v>392</v>
+        <v>1157</v>
       </c>
       <c r="E2109">
         <v>1</v>
       </c>
       <c r="F2109">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2110" spans="1:6" x14ac:dyDescent="0.35">
@@ -48246,19 +48240,19 @@
       </c>
       <c r="B2110" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; imperial gallon</v>
+        <v>gallonUK -&gt; litre</v>
       </c>
       <c r="C2110" t="s">
         <v>394</v>
       </c>
       <c r="D2110" t="s">
-        <v>1068</v>
+        <v>423</v>
       </c>
       <c r="E2110">
         <v>1</v>
       </c>
       <c r="F2110">
-        <v>1</v>
+        <v>4.5460000000000003</v>
       </c>
     </row>
     <row r="2111" spans="1:6" x14ac:dyDescent="0.35">
@@ -48267,19 +48261,19 @@
       </c>
       <c r="B2111" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; quartUK</v>
+        <v>imperial gallon -&gt; gallonUK</v>
       </c>
       <c r="C2111" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D2111" t="s">
         <v>394</v>
       </c>
-      <c r="D2111" t="s">
-        <v>1069</v>
-      </c>
       <c r="E2111">
         <v>1</v>
       </c>
       <c r="F2111">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2112" spans="1:6" x14ac:dyDescent="0.35">
@@ -48288,19 +48282,19 @@
       </c>
       <c r="B2112" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; fluid ounce UK</v>
+        <v>imperial gallon -&gt; IMPERIAL GALLON</v>
       </c>
       <c r="C2112" t="s">
-        <v>394</v>
+        <v>1066</v>
       </c>
       <c r="D2112" t="s">
-        <v>1159</v>
+        <v>1068</v>
       </c>
       <c r="E2112">
         <v>1</v>
       </c>
       <c r="F2112">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2113" spans="1:6" x14ac:dyDescent="0.35">
@@ -48309,19 +48303,19 @@
       </c>
       <c r="B2113" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>gallonUK -&gt; litre</v>
+        <v>fluid ounce UK -&gt; fl oz UK</v>
       </c>
       <c r="C2113" t="s">
-        <v>394</v>
+        <v>1157</v>
       </c>
       <c r="D2113" t="s">
-        <v>423</v>
+        <v>1069</v>
       </c>
       <c r="E2113">
         <v>1</v>
       </c>
       <c r="F2113">
-        <v>4.5460000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2114" spans="1:6" x14ac:dyDescent="0.35">
@@ -48330,13 +48324,13 @@
       </c>
       <c r="B2114" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>imperial gallon -&gt; gallonUK</v>
+        <v>fluid ounce UK -&gt; ozUK</v>
       </c>
       <c r="C2114" t="s">
-        <v>1068</v>
+        <v>1157</v>
       </c>
       <c r="D2114" t="s">
-        <v>394</v>
+        <v>1070</v>
       </c>
       <c r="E2114">
         <v>1</v>
@@ -48351,13 +48345,13 @@
       </c>
       <c r="B2115" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>imperial gallon -&gt; IMPERIAL GALLON</v>
+        <v>fluid ounce UK -&gt; ounceUK</v>
       </c>
       <c r="C2115" t="s">
-        <v>1068</v>
+        <v>1157</v>
       </c>
       <c r="D2115" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E2115">
         <v>1</v>
@@ -48372,13 +48366,13 @@
       </c>
       <c r="B2116" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; fl oz UK</v>
+        <v>fluid ounce UK -&gt; fluid ounce UKs</v>
       </c>
       <c r="C2116" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D2116" t="s">
-        <v>1071</v>
+        <v>1158</v>
       </c>
       <c r="E2116">
         <v>1</v>
@@ -48393,13 +48387,13 @@
       </c>
       <c r="B2117" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; ozUK</v>
+        <v>fluid ounce UK -&gt; FLUID OUNCE UKS</v>
       </c>
       <c r="C2117" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D2117" t="s">
-        <v>1072</v>
+        <v>1162</v>
       </c>
       <c r="E2117">
         <v>1</v>
@@ -48413,14 +48407,14 @@
         <v>2116</v>
       </c>
       <c r="B2118" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; ounceUK</v>
+        <f t="shared" ref="B2118:B2181" si="33">C2118&amp;" -&gt; " &amp;D2118</f>
+        <v>fluid ounce UK -&gt; FLUID OUNCE UK</v>
       </c>
       <c r="C2118" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D2118" t="s">
-        <v>1073</v>
+        <v>1163</v>
       </c>
       <c r="E2118">
         <v>1</v>
@@ -48434,20 +48428,20 @@
         <v>2117</v>
       </c>
       <c r="B2119" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; fluid ounce UKs</v>
+        <f t="shared" si="33"/>
+        <v>fluid ounce UK -&gt; gallonUK</v>
       </c>
       <c r="C2119" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D2119" t="s">
-        <v>1160</v>
+        <v>394</v>
       </c>
       <c r="E2119">
         <v>1</v>
       </c>
       <c r="F2119">
-        <v>1</v>
+        <v>6.2500000000000003E-3</v>
       </c>
     </row>
     <row r="2120" spans="1:6" x14ac:dyDescent="0.35">
@@ -48455,20 +48449,20 @@
         <v>2118</v>
       </c>
       <c r="B2120" s="2" t="str">
-        <f t="shared" si="32"/>
-        <v>fluid ounce UK -&gt; FLUID OUNCE UKS</v>
+        <f t="shared" si="33"/>
+        <v>fluid ounce UK -&gt; gillUK</v>
       </c>
       <c r="C2120" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D2120" t="s">
-        <v>1164</v>
+        <v>1072</v>
       </c>
       <c r="E2120">
         <v>1</v>
       </c>
       <c r="F2120">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2121" spans="1:6" x14ac:dyDescent="0.35">
@@ -48476,14 +48470,14 @@
         <v>2119</v>
       </c>
       <c r="B2121" s="2" t="str">
-        <f t="shared" ref="B2121:B2184" si="33">C2121&amp;" -&gt; " &amp;D2121</f>
-        <v>fluid ounce UK -&gt; FLUID OUNCE UK</v>
+        <f t="shared" si="33"/>
+        <v>fl oz UK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2121" t="s">
-        <v>1159</v>
+        <v>1069</v>
       </c>
       <c r="D2121" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="E2121">
         <v>1</v>
@@ -48498,19 +48492,19 @@
       </c>
       <c r="B2122" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UK -&gt; gallonUK</v>
+        <v>ozUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2122" t="s">
-        <v>1159</v>
+        <v>1070</v>
       </c>
       <c r="D2122" t="s">
-        <v>394</v>
+        <v>1157</v>
       </c>
       <c r="E2122">
         <v>1</v>
       </c>
       <c r="F2122">
-        <v>6.2500000000000003E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2123" spans="1:6" x14ac:dyDescent="0.35">
@@ -48519,19 +48513,19 @@
       </c>
       <c r="B2123" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UK -&gt; gillUK</v>
+        <v>ounceUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2123" t="s">
-        <v>1159</v>
+        <v>1071</v>
       </c>
       <c r="D2123" t="s">
-        <v>1074</v>
+        <v>1157</v>
       </c>
       <c r="E2123">
         <v>1</v>
       </c>
       <c r="F2123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2124" spans="1:6" x14ac:dyDescent="0.35">
@@ -48540,13 +48534,13 @@
       </c>
       <c r="B2124" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fl oz UK -&gt; fluid ounce UK</v>
+        <v>gillUK -&gt; giUK</v>
       </c>
       <c r="C2124" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D2124" t="s">
-        <v>1159</v>
+        <v>1073</v>
       </c>
       <c r="E2124">
         <v>1</v>
@@ -48561,13 +48555,13 @@
       </c>
       <c r="B2125" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ozUK -&gt; fluid ounce UK</v>
+        <v>gillUK -&gt; gillUKs</v>
       </c>
       <c r="C2125" t="s">
         <v>1072</v>
       </c>
       <c r="D2125" t="s">
-        <v>1159</v>
+        <v>1074</v>
       </c>
       <c r="E2125">
         <v>1</v>
@@ -48582,13 +48576,13 @@
       </c>
       <c r="B2126" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ounceUK -&gt; fluid ounce UK</v>
+        <v>gillUK -&gt; GILLUKS</v>
       </c>
       <c r="C2126" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D2126" t="s">
-        <v>1159</v>
+        <v>1075</v>
       </c>
       <c r="E2126">
         <v>1</v>
@@ -48603,13 +48597,13 @@
       </c>
       <c r="B2127" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; giUK</v>
+        <v>gillUK -&gt; GILLUK</v>
       </c>
       <c r="C2127" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D2127" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E2127">
         <v>1</v>
@@ -48624,19 +48618,19 @@
       </c>
       <c r="B2128" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; gillUKs</v>
+        <v>gillUK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2128" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D2128" t="s">
-        <v>1076</v>
+        <v>1157</v>
       </c>
       <c r="E2128">
         <v>1</v>
       </c>
       <c r="F2128">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2129" spans="1:6" x14ac:dyDescent="0.35">
@@ -48645,10 +48639,10 @@
       </c>
       <c r="B2129" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; GILLUKS</v>
+        <v>gillUK -&gt; pintUK</v>
       </c>
       <c r="C2129" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D2129" t="s">
         <v>1077</v>
@@ -48657,7 +48651,7 @@
         <v>1</v>
       </c>
       <c r="F2129">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2130" spans="1:6" x14ac:dyDescent="0.35">
@@ -48666,13 +48660,13 @@
       </c>
       <c r="B2130" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; GILLUK</v>
+        <v>giUK -&gt; gillUK</v>
       </c>
       <c r="C2130" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D2130" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E2130">
         <v>1</v>
@@ -48687,19 +48681,19 @@
       </c>
       <c r="B2131" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; fluid ounce UK</v>
+        <v>pintUK -&gt; ptUK</v>
       </c>
       <c r="C2131" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D2131" t="s">
-        <v>1159</v>
+        <v>1078</v>
       </c>
       <c r="E2131">
         <v>1</v>
       </c>
       <c r="F2131">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2132" spans="1:6" x14ac:dyDescent="0.35">
@@ -48708,10 +48702,10 @@
       </c>
       <c r="B2132" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUK -&gt; pintUK</v>
+        <v>pintUK -&gt; pintUKs</v>
       </c>
       <c r="C2132" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D2132" t="s">
         <v>1079</v>
@@ -48720,7 +48714,7 @@
         <v>1</v>
       </c>
       <c r="F2132">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2133" spans="1:6" x14ac:dyDescent="0.35">
@@ -48729,13 +48723,13 @@
       </c>
       <c r="B2133" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>giUK -&gt; gillUK</v>
+        <v>pintUK -&gt; PINTUKS</v>
       </c>
       <c r="C2133" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D2133" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="E2133">
         <v>1</v>
@@ -48750,13 +48744,13 @@
       </c>
       <c r="B2134" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; ptUK</v>
+        <v>pintUK -&gt; PINTUK</v>
       </c>
       <c r="C2134" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D2134" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E2134">
         <v>1</v>
@@ -48771,19 +48765,19 @@
       </c>
       <c r="B2135" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; pintUKs</v>
+        <v>pintUK -&gt; gillUK</v>
       </c>
       <c r="C2135" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D2135" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="E2135">
         <v>1</v>
       </c>
       <c r="F2135">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2136" spans="1:6" x14ac:dyDescent="0.35">
@@ -48792,19 +48786,19 @@
       </c>
       <c r="B2136" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; PINTUKS</v>
+        <v>pintUK -&gt; quartUK</v>
       </c>
       <c r="C2136" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D2136" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="E2136">
         <v>1</v>
       </c>
       <c r="F2136">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2137" spans="1:6" x14ac:dyDescent="0.35">
@@ -48813,13 +48807,13 @@
       </c>
       <c r="B2137" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; PINTUK</v>
+        <v>ptUK -&gt; pintUK</v>
       </c>
       <c r="C2137" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D2137" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E2137">
         <v>1</v>
@@ -48834,19 +48828,19 @@
       </c>
       <c r="B2138" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; gillUK</v>
+        <v>quartUK -&gt; qtUK</v>
       </c>
       <c r="C2138" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="D2138" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="E2138">
         <v>1</v>
       </c>
       <c r="F2138">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2139" spans="1:6" x14ac:dyDescent="0.35">
@@ -48855,19 +48849,19 @@
       </c>
       <c r="B2139" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUK -&gt; quartUK</v>
+        <v>quartUK -&gt; quartUKs</v>
       </c>
       <c r="C2139" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="D2139" t="s">
-        <v>1069</v>
+        <v>1083</v>
       </c>
       <c r="E2139">
         <v>1</v>
       </c>
       <c r="F2139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2140" spans="1:6" x14ac:dyDescent="0.35">
@@ -48876,13 +48870,13 @@
       </c>
       <c r="B2140" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>ptUK -&gt; pintUK</v>
+        <v>quartUK -&gt; QUARTUKS</v>
       </c>
       <c r="C2140" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="D2140" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="E2140">
         <v>1</v>
@@ -48897,13 +48891,13 @@
       </c>
       <c r="B2141" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; qtUK</v>
+        <v>quartUK -&gt; QUARTUK</v>
       </c>
       <c r="C2141" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D2141" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E2141">
         <v>1</v>
@@ -48918,19 +48912,19 @@
       </c>
       <c r="B2142" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; quartUKs</v>
+        <v>quartUK -&gt; pintUK</v>
       </c>
       <c r="C2142" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D2142" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="E2142">
         <v>1</v>
       </c>
       <c r="F2142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2143" spans="1:6" x14ac:dyDescent="0.35">
@@ -48939,19 +48933,19 @@
       </c>
       <c r="B2143" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; QUARTUKS</v>
+        <v>quartUK -&gt; gallonUK</v>
       </c>
       <c r="C2143" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D2143" t="s">
-        <v>1086</v>
+        <v>394</v>
       </c>
       <c r="E2143">
         <v>1</v>
       </c>
       <c r="F2143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2144" spans="1:6" x14ac:dyDescent="0.35">
@@ -48960,13 +48954,13 @@
       </c>
       <c r="B2144" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; QUARTUK</v>
+        <v>qtUK -&gt; quartUK</v>
       </c>
       <c r="C2144" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="D2144" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="E2144">
         <v>1</v>
@@ -48981,19 +48975,19 @@
       </c>
       <c r="B2145" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; pintUK</v>
+        <v>fluid ounce UKs -&gt; fluid ounce UK</v>
       </c>
       <c r="C2145" t="s">
-        <v>1069</v>
+        <v>1158</v>
       </c>
       <c r="D2145" t="s">
-        <v>1079</v>
+        <v>1157</v>
       </c>
       <c r="E2145">
         <v>1</v>
       </c>
       <c r="F2145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2146" spans="1:6" x14ac:dyDescent="0.35">
@@ -49002,19 +48996,19 @@
       </c>
       <c r="B2146" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUK -&gt; gallonUK</v>
+        <v>gillUKs -&gt; gillUK</v>
       </c>
       <c r="C2146" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="D2146" t="s">
-        <v>394</v>
+        <v>1072</v>
       </c>
       <c r="E2146">
         <v>1</v>
       </c>
       <c r="F2146">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2147" spans="1:6" x14ac:dyDescent="0.35">
@@ -49023,13 +49017,13 @@
       </c>
       <c r="B2147" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>qtUK -&gt; quartUK</v>
+        <v>pintUKs -&gt; pintUK</v>
       </c>
       <c r="C2147" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D2147" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="E2147">
         <v>1</v>
@@ -49044,13 +49038,13 @@
       </c>
       <c r="B2148" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>fluid ounce UKs -&gt; fluid ounce UK</v>
+        <v>quartUKs -&gt; quartUK</v>
       </c>
       <c r="C2148" t="s">
-        <v>1160</v>
+        <v>1083</v>
       </c>
       <c r="D2148" t="s">
-        <v>1159</v>
+        <v>1067</v>
       </c>
       <c r="E2148">
         <v>1</v>
@@ -49065,13 +49059,13 @@
       </c>
       <c r="B2149" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>gillUKs -&gt; gillUK</v>
+        <v>FLUID OUNCE UKS -&gt; fluid ounce UK</v>
       </c>
       <c r="C2149" t="s">
-        <v>1076</v>
+        <v>1162</v>
       </c>
       <c r="D2149" t="s">
-        <v>1074</v>
+        <v>1157</v>
       </c>
       <c r="E2149">
         <v>1</v>
@@ -49086,13 +49080,13 @@
       </c>
       <c r="B2150" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>pintUKs -&gt; pintUK</v>
+        <v>GILLUKS -&gt; gillUK</v>
       </c>
       <c r="C2150" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D2150" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="E2150">
         <v>1</v>
@@ -49107,13 +49101,13 @@
       </c>
       <c r="B2151" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>quartUKs -&gt; quartUK</v>
+        <v>PINTUKS -&gt; pintUK</v>
       </c>
       <c r="C2151" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D2151" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="E2151">
         <v>1</v>
@@ -49128,13 +49122,13 @@
       </c>
       <c r="B2152" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>FLUID OUNCE UKS -&gt; fluid ounce UK</v>
+        <v>QUARTUKS -&gt; quartUK</v>
       </c>
       <c r="C2152" t="s">
-        <v>1164</v>
+        <v>1084</v>
       </c>
       <c r="D2152" t="s">
-        <v>1159</v>
+        <v>1067</v>
       </c>
       <c r="E2152">
         <v>1</v>
@@ -49149,13 +49143,13 @@
       </c>
       <c r="B2153" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>GILLUKS -&gt; gillUK</v>
+        <v>IMPERIAL GALLON -&gt; imperial gallon</v>
       </c>
       <c r="C2153" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="D2153" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="E2153">
         <v>1</v>
@@ -49170,13 +49164,13 @@
       </c>
       <c r="B2154" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>PINTUKS -&gt; pintUK</v>
+        <v>FLUID OUNCE UK -&gt; fluid ounce UK</v>
       </c>
       <c r="C2154" t="s">
-        <v>1082</v>
+        <v>1163</v>
       </c>
       <c r="D2154" t="s">
-        <v>1079</v>
+        <v>1157</v>
       </c>
       <c r="E2154">
         <v>1</v>
@@ -49191,13 +49185,13 @@
       </c>
       <c r="B2155" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>QUARTUKS -&gt; quartUK</v>
+        <v>GILLUK -&gt; gillUK</v>
       </c>
       <c r="C2155" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="D2155" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E2155">
         <v>1</v>
@@ -49212,13 +49206,13 @@
       </c>
       <c r="B2156" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>IMPERIAL GALLON -&gt; imperial gallon</v>
+        <v>PINTUK -&gt; pintUK</v>
       </c>
       <c r="C2156" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="D2156" t="s">
-        <v>1068</v>
+        <v>1077</v>
       </c>
       <c r="E2156">
         <v>1</v>
@@ -49233,13 +49227,13 @@
       </c>
       <c r="B2157" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>FLUID OUNCE UK -&gt; fluid ounce UK</v>
+        <v>QUARTUK -&gt; quartUK</v>
       </c>
       <c r="C2157" t="s">
-        <v>1165</v>
+        <v>1085</v>
       </c>
       <c r="D2157" t="s">
-        <v>1159</v>
+        <v>1067</v>
       </c>
       <c r="E2157">
         <v>1</v>
@@ -49254,19 +49248,19 @@
       </c>
       <c r="B2158" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>GILLUK -&gt; gillUK</v>
+        <v>litre -&gt; gallonUK</v>
       </c>
       <c r="C2158" t="s">
-        <v>1078</v>
+        <v>423</v>
       </c>
       <c r="D2158" t="s">
-        <v>1074</v>
+        <v>394</v>
       </c>
       <c r="E2158">
         <v>1</v>
       </c>
       <c r="F2158">
-        <v>1</v>
+        <v>0.21997360316761991</v>
       </c>
     </row>
     <row r="2159" spans="1:6" x14ac:dyDescent="0.35">
@@ -49275,19 +49269,19 @@
       </c>
       <c r="B2159" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>PINTUK -&gt; pintUK</v>
+        <v>Pa -&gt; KPa</v>
       </c>
       <c r="C2159" t="s">
-        <v>1083</v>
+        <v>612</v>
       </c>
       <c r="D2159" t="s">
-        <v>1079</v>
+        <v>615</v>
       </c>
       <c r="E2159">
         <v>1</v>
       </c>
       <c r="F2159">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2160" spans="1:6" x14ac:dyDescent="0.35">
@@ -49296,13 +49290,13 @@
       </c>
       <c r="B2160" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>QUARTUK -&gt; quartUK</v>
+        <v>kPa -&gt; KPa</v>
       </c>
       <c r="C2160" t="s">
-        <v>1087</v>
+        <v>614</v>
       </c>
       <c r="D2160" t="s">
-        <v>1069</v>
+        <v>615</v>
       </c>
       <c r="E2160">
         <v>1</v>
@@ -49317,19 +49311,19 @@
       </c>
       <c r="B2161" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>litre -&gt; gallonUK</v>
+        <v>KPa -&gt; kPa</v>
       </c>
       <c r="C2161" t="s">
-        <v>423</v>
+        <v>615</v>
       </c>
       <c r="D2161" t="s">
-        <v>394</v>
+        <v>614</v>
       </c>
       <c r="E2161">
         <v>1</v>
       </c>
       <c r="F2161">
-        <v>0.21997360316761991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2162" spans="1:6" x14ac:dyDescent="0.35">
@@ -49338,19 +49332,19 @@
       </c>
       <c r="B2162" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Pa -&gt; KPa</v>
+        <v>KPa -&gt; KPA</v>
       </c>
       <c r="C2162" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D2162" t="s">
-        <v>615</v>
+        <v>644</v>
       </c>
       <c r="E2162">
         <v>1</v>
       </c>
       <c r="F2162">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2163" spans="1:6" x14ac:dyDescent="0.35">
@@ -49359,19 +49353,19 @@
       </c>
       <c r="B2163" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>kPa -&gt; KPa</v>
+        <v>KPa -&gt; Pa</v>
       </c>
       <c r="C2163" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D2163" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E2163">
         <v>1</v>
       </c>
       <c r="F2163">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2164" spans="1:6" x14ac:dyDescent="0.35">
@@ -49380,13 +49374,13 @@
       </c>
       <c r="B2164" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; kPa</v>
+        <v>KPA -&gt; KPa</v>
       </c>
       <c r="C2164" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2164" t="s">
         <v>615</v>
-      </c>
-      <c r="D2164" t="s">
-        <v>614</v>
       </c>
       <c r="E2164">
         <v>1</v>
@@ -49401,13 +49395,13 @@
       </c>
       <c r="B2165" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; KPA</v>
+        <v>Joule -&gt; J</v>
       </c>
       <c r="C2165" t="s">
-        <v>615</v>
+        <v>1086</v>
       </c>
       <c r="D2165" t="s">
-        <v>644</v>
+        <v>1087</v>
       </c>
       <c r="E2165">
         <v>1</v>
@@ -49422,19 +49416,19 @@
       </c>
       <c r="B2166" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPa -&gt; Pa</v>
+        <v>Joule -&gt; Watt second</v>
       </c>
       <c r="C2166" t="s">
-        <v>615</v>
+        <v>1086</v>
       </c>
       <c r="D2166" t="s">
-        <v>612</v>
+        <v>1088</v>
       </c>
       <c r="E2166">
         <v>1</v>
       </c>
       <c r="F2166">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2167" spans="1:6" x14ac:dyDescent="0.35">
@@ -49443,13 +49437,13 @@
       </c>
       <c r="B2167" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>KPA -&gt; KPa</v>
+        <v>Joule -&gt; N*m</v>
       </c>
       <c r="C2167" t="s">
-        <v>644</v>
+        <v>1086</v>
       </c>
       <c r="D2167" t="s">
-        <v>615</v>
+        <v>1089</v>
       </c>
       <c r="E2167">
         <v>1</v>
@@ -49464,13 +49458,13 @@
       </c>
       <c r="B2168" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; J</v>
+        <v>Joule -&gt; kg*m2/s2</v>
       </c>
       <c r="C2168" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D2168" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E2168">
         <v>1</v>
@@ -49485,13 +49479,13 @@
       </c>
       <c r="B2169" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Watt second</v>
+        <v>Joule -&gt; Joules</v>
       </c>
       <c r="C2169" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D2169" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E2169">
         <v>1</v>
@@ -49506,13 +49500,13 @@
       </c>
       <c r="B2170" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; N*m</v>
+        <v>Joule -&gt; JOULE</v>
       </c>
       <c r="C2170" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D2170" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E2170">
         <v>1</v>
@@ -49527,19 +49521,19 @@
       </c>
       <c r="B2171" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; kg*m2/s2</v>
+        <v>Joule -&gt; gram calorie</v>
       </c>
       <c r="C2171" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D2171" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="E2171">
         <v>1</v>
       </c>
       <c r="F2171">
-        <v>1</v>
+        <v>0.23900573613766729</v>
       </c>
     </row>
     <row r="2172" spans="1:6" x14ac:dyDescent="0.35">
@@ -49548,19 +49542,19 @@
       </c>
       <c r="B2172" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Joules</v>
+        <v>Joule -&gt; Kilojoule</v>
       </c>
       <c r="C2172" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D2172" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E2172">
         <v>1</v>
       </c>
       <c r="F2172">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="2173" spans="1:6" x14ac:dyDescent="0.35">
@@ -49569,13 +49563,13 @@
       </c>
       <c r="B2173" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; JOULE</v>
+        <v>J -&gt; Joule</v>
       </c>
       <c r="C2173" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D2173" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="E2173">
         <v>1</v>
@@ -49590,19 +49584,19 @@
       </c>
       <c r="B2174" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; gram calorie</v>
+        <v>J -&gt; J</v>
       </c>
       <c r="C2174" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D2174" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="E2174">
         <v>1</v>
       </c>
       <c r="F2174">
-        <v>0.23900573613766729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2175" spans="1:6" x14ac:dyDescent="0.35">
@@ -49611,19 +49605,19 @@
       </c>
       <c r="B2175" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Joule -&gt; Kilojoule</v>
+        <v>Watt second -&gt; Joule</v>
       </c>
       <c r="C2175" t="s">
         <v>1088</v>
       </c>
       <c r="D2175" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="E2175">
         <v>1</v>
       </c>
       <c r="F2175">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2176" spans="1:6" x14ac:dyDescent="0.35">
@@ -49632,13 +49626,13 @@
       </c>
       <c r="B2176" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>J -&gt; Joule</v>
+        <v>Watt second -&gt; Watt*second</v>
       </c>
       <c r="C2176" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D2176" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="E2176">
         <v>1</v>
@@ -49653,13 +49647,13 @@
       </c>
       <c r="B2177" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>J -&gt; J</v>
+        <v>Watt second -&gt; W*s</v>
       </c>
       <c r="C2177" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D2177" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="E2177">
         <v>1</v>
@@ -49674,13 +49668,13 @@
       </c>
       <c r="B2178" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Joule</v>
+        <v>Watt second -&gt; Ws</v>
       </c>
       <c r="C2178" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D2178" t="s">
-        <v>1088</v>
+        <v>1097</v>
       </c>
       <c r="E2178">
         <v>1</v>
@@ -49695,13 +49689,13 @@
       </c>
       <c r="B2179" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Watt*second</v>
+        <v>Watt second -&gt; WATT SECOND</v>
       </c>
       <c r="C2179" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D2179" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E2179">
         <v>1</v>
@@ -49716,13 +49710,13 @@
       </c>
       <c r="B2180" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; W*s</v>
+        <v>N*m -&gt; Joule</v>
       </c>
       <c r="C2180" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D2180" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="E2180">
         <v>1</v>
@@ -49737,10 +49731,10 @@
       </c>
       <c r="B2181" s="2" t="str">
         <f t="shared" si="33"/>
-        <v>Watt second -&gt; Ws</v>
+        <v>N*m -&gt; N*M</v>
       </c>
       <c r="C2181" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D2181" t="s">
         <v>1099</v>
@@ -49757,14 +49751,14 @@
         <v>2180</v>
       </c>
       <c r="B2182" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>Watt second -&gt; WATT SECOND</v>
+        <f t="shared" ref="B2182:B2245" si="34">C2182&amp;" -&gt; " &amp;D2182</f>
+        <v>kg*m2/s2 -&gt; Joule</v>
       </c>
       <c r="C2182" t="s">
         <v>1090</v>
       </c>
       <c r="D2182" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="E2182">
         <v>1</v>
@@ -49778,14 +49772,14 @@
         <v>2181</v>
       </c>
       <c r="B2183" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>N*m -&gt; Joule</v>
+        <f t="shared" si="34"/>
+        <v>kg*m2/s2 -&gt; KG*M2/S2</v>
       </c>
       <c r="C2183" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D2183" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E2183">
         <v>1</v>
@@ -49799,14 +49793,14 @@
         <v>2182</v>
       </c>
       <c r="B2184" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>N*m -&gt; N*M</v>
+        <f t="shared" si="34"/>
+        <v>Joules -&gt; Joule</v>
       </c>
       <c r="C2184" t="s">
         <v>1091</v>
       </c>
       <c r="D2184" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="E2184">
         <v>1</v>
@@ -49820,14 +49814,14 @@
         <v>2183</v>
       </c>
       <c r="B2185" s="2" t="str">
-        <f t="shared" ref="B2185:B2248" si="34">C2185&amp;" -&gt; " &amp;D2185</f>
-        <v>kg*m2/s2 -&gt; Joule</v>
+        <f t="shared" si="34"/>
+        <v>Joules -&gt; JOULES</v>
       </c>
       <c r="C2185" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D2185" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="E2185">
         <v>1</v>
@@ -49842,10 +49836,10 @@
       </c>
       <c r="B2186" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kg*m2/s2 -&gt; KG*M2/S2</v>
+        <v>Kilojoule -&gt; kJ</v>
       </c>
       <c r="C2186" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="D2186" t="s">
         <v>1102</v>
@@ -49863,13 +49857,13 @@
       </c>
       <c r="B2187" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Joules -&gt; Joule</v>
+        <v>Kilojoule -&gt; KILOJOULE</v>
       </c>
       <c r="C2187" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D2187" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="E2187">
         <v>1</v>
@@ -49884,19 +49878,19 @@
       </c>
       <c r="B2188" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Joules -&gt; JOULES</v>
+        <v>Kilojoule -&gt; Joule</v>
       </c>
       <c r="C2188" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D2188" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="E2188">
         <v>1</v>
       </c>
       <c r="F2188">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2189" spans="1:6" x14ac:dyDescent="0.35">
@@ -49905,10 +49899,10 @@
       </c>
       <c r="B2189" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; kJ</v>
+        <v>Kilojoule -&gt; kilowatt hour</v>
       </c>
       <c r="C2189" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D2189" t="s">
         <v>1104</v>
@@ -49917,7 +49911,7 @@
         <v>1</v>
       </c>
       <c r="F2189">
-        <v>1</v>
+        <v>2.7777777777777778E-4</v>
       </c>
     </row>
     <row r="2190" spans="1:6" x14ac:dyDescent="0.35">
@@ -49926,10 +49920,10 @@
       </c>
       <c r="B2190" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; KILOJOULE</v>
+        <v>Kilojoule -&gt; British thermal unit</v>
       </c>
       <c r="C2190" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D2190" t="s">
         <v>1105</v>
@@ -49938,7 +49932,7 @@
         <v>1</v>
       </c>
       <c r="F2190">
-        <v>1</v>
+        <v>0.94786729857819907</v>
       </c>
     </row>
     <row r="2191" spans="1:6" x14ac:dyDescent="0.35">
@@ -49947,19 +49941,19 @@
       </c>
       <c r="B2191" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; Joule</v>
+        <v>kJ -&gt; Kilojoule</v>
       </c>
       <c r="C2191" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="D2191" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="E2191">
         <v>1</v>
       </c>
       <c r="F2191">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2192" spans="1:6" x14ac:dyDescent="0.35">
@@ -49968,10 +49962,10 @@
       </c>
       <c r="B2192" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; kilowatt hour</v>
+        <v>kJ -&gt; KJ</v>
       </c>
       <c r="C2192" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="D2192" t="s">
         <v>1106</v>
@@ -49980,7 +49974,7 @@
         <v>1</v>
       </c>
       <c r="F2192">
-        <v>2.7777777777777778E-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2193" spans="1:6" x14ac:dyDescent="0.35">
@@ -49989,10 +49983,10 @@
       </c>
       <c r="B2193" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Kilojoule -&gt; British thermal unit</v>
+        <v>kilowatt hour -&gt; kWh</v>
       </c>
       <c r="C2193" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="D2193" t="s">
         <v>1107</v>
@@ -50001,7 +49995,7 @@
         <v>1</v>
       </c>
       <c r="F2193">
-        <v>0.94786729857819907</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2194" spans="1:6" x14ac:dyDescent="0.35">
@@ -50010,13 +50004,13 @@
       </c>
       <c r="B2194" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kJ -&gt; Kilojoule</v>
+        <v>kilowatt hour -&gt; kW*h</v>
       </c>
       <c r="C2194" t="s">
         <v>1104</v>
       </c>
       <c r="D2194" t="s">
-        <v>1096</v>
+        <v>1108</v>
       </c>
       <c r="E2194">
         <v>1</v>
@@ -50031,13 +50025,13 @@
       </c>
       <c r="B2195" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kJ -&gt; KJ</v>
+        <v>kilowatt hour -&gt; kilovatio hora</v>
       </c>
       <c r="C2195" t="s">
         <v>1104</v>
       </c>
       <c r="D2195" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E2195">
         <v>1</v>
@@ -50052,13 +50046,13 @@
       </c>
       <c r="B2196" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kWh</v>
+        <v>kilowatt hour -&gt; KILOWATT HOUR</v>
       </c>
       <c r="C2196" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D2196" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E2196">
         <v>1</v>
@@ -50073,19 +50067,19 @@
       </c>
       <c r="B2197" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kW*h</v>
+        <v>kilowatt hour -&gt; Kilojoule</v>
       </c>
       <c r="C2197" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D2197" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="E2197">
         <v>1</v>
       </c>
       <c r="F2197">
-        <v>1</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2198" spans="1:6" x14ac:dyDescent="0.35">
@@ -50094,13 +50088,13 @@
       </c>
       <c r="B2198" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; kilovatio hora</v>
+        <v>kWh -&gt; kilowatt hour</v>
       </c>
       <c r="C2198" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D2198" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="E2198">
         <v>1</v>
@@ -50115,13 +50109,13 @@
       </c>
       <c r="B2199" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; KILOWATT HOUR</v>
+        <v>kWh -&gt; KWH</v>
       </c>
       <c r="C2199" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D2199" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E2199">
         <v>1</v>
@@ -50136,19 +50130,19 @@
       </c>
       <c r="B2200" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilowatt hour -&gt; Kilojoule</v>
+        <v>kW*h -&gt; kilowatt hour</v>
       </c>
       <c r="C2200" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D2200" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="E2200">
         <v>1</v>
       </c>
       <c r="F2200">
-        <v>3600</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2201" spans="1:6" x14ac:dyDescent="0.35">
@@ -50157,13 +50151,13 @@
       </c>
       <c r="B2201" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kWh -&gt; kilowatt hour</v>
+        <v>kW*h -&gt; KW*H</v>
       </c>
       <c r="C2201" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D2201" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="E2201">
         <v>1</v>
@@ -50178,13 +50172,13 @@
       </c>
       <c r="B2202" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kWh -&gt; KWH</v>
+        <v>kilovatio hora -&gt; kilowatt hour</v>
       </c>
       <c r="C2202" t="s">
         <v>1109</v>
       </c>
       <c r="D2202" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="E2202">
         <v>1</v>
@@ -50199,13 +50193,13 @@
       </c>
       <c r="B2203" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kW*h -&gt; kilowatt hour</v>
+        <v>kilovatio hora -&gt; KILOVATIO HORA</v>
       </c>
       <c r="C2203" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D2203" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="E2203">
         <v>1</v>
@@ -50220,10 +50214,10 @@
       </c>
       <c r="B2204" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kW*h -&gt; KW*H</v>
+        <v>British thermal unit -&gt; BTU</v>
       </c>
       <c r="C2204" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D2204" t="s">
         <v>1114</v>
@@ -50241,13 +50235,13 @@
       </c>
       <c r="B2205" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilovatio hora -&gt; kilowatt hour</v>
+        <v>British thermal unit -&gt; BRITISH THERMAL UNIT</v>
       </c>
       <c r="C2205" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="D2205" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="E2205">
         <v>1</v>
@@ -50262,19 +50256,19 @@
       </c>
       <c r="B2206" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>kilovatio hora -&gt; KILOVATIO HORA</v>
+        <v>British thermal unit -&gt; Kilojoule</v>
       </c>
       <c r="C2206" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="D2206" t="s">
-        <v>1115</v>
+        <v>1094</v>
       </c>
       <c r="E2206">
         <v>1</v>
       </c>
       <c r="F2206">
-        <v>1</v>
+        <v>1.0549999999999999</v>
       </c>
     </row>
     <row r="2207" spans="1:6" x14ac:dyDescent="0.35">
@@ -50283,13 +50277,13 @@
       </c>
       <c r="B2207" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; BTU</v>
+        <v>BTU -&gt; British thermal unit</v>
       </c>
       <c r="C2207" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="D2207" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="E2207">
         <v>1</v>
@@ -50304,13 +50298,13 @@
       </c>
       <c r="B2208" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; BRITISH THERMAL UNIT</v>
+        <v>BTU -&gt; BTU</v>
       </c>
       <c r="C2208" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="D2208" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E2208">
         <v>1</v>
@@ -50325,19 +50319,19 @@
       </c>
       <c r="B2209" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>British thermal unit -&gt; Kilojoule</v>
+        <v>Watt*second -&gt; Watt second</v>
       </c>
       <c r="C2209" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="D2209" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="E2209">
         <v>1</v>
       </c>
       <c r="F2209">
-        <v>1.0549999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2210" spans="1:6" x14ac:dyDescent="0.35">
@@ -50346,13 +50340,13 @@
       </c>
       <c r="B2210" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BTU -&gt; British thermal unit</v>
+        <v>Watt*second -&gt; WATT*SECOND</v>
       </c>
       <c r="C2210" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D2210" t="s">
         <v>1116</v>
-      </c>
-      <c r="D2210" t="s">
-        <v>1107</v>
       </c>
       <c r="E2210">
         <v>1</v>
@@ -50367,13 +50361,13 @@
       </c>
       <c r="B2211" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>BTU -&gt; BTU</v>
+        <v>W*s -&gt; Watt second</v>
       </c>
       <c r="C2211" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="D2211" t="s">
-        <v>1116</v>
+        <v>1088</v>
       </c>
       <c r="E2211">
         <v>1</v>
@@ -50388,13 +50382,13 @@
       </c>
       <c r="B2212" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt*second -&gt; Watt second</v>
+        <v>W*s -&gt; W*S</v>
       </c>
       <c r="C2212" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D2212" t="s">
-        <v>1090</v>
+        <v>1117</v>
       </c>
       <c r="E2212">
         <v>1</v>
@@ -50409,13 +50403,13 @@
       </c>
       <c r="B2213" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt*second -&gt; WATT*SECOND</v>
+        <v>Ws -&gt; Watt second</v>
       </c>
       <c r="C2213" t="s">
         <v>1097</v>
       </c>
       <c r="D2213" t="s">
-        <v>1118</v>
+        <v>1088</v>
       </c>
       <c r="E2213">
         <v>1</v>
@@ -50430,13 +50424,13 @@
       </c>
       <c r="B2214" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*s -&gt; Watt second</v>
+        <v>Ws -&gt; WS</v>
       </c>
       <c r="C2214" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D2214" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="E2214">
         <v>1</v>
@@ -50451,13 +50445,13 @@
       </c>
       <c r="B2215" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*s -&gt; W*S</v>
+        <v>Watt hour -&gt; Wh</v>
       </c>
       <c r="C2215" t="s">
-        <v>1098</v>
+        <v>1119</v>
       </c>
       <c r="D2215" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E2215">
         <v>1</v>
@@ -50472,13 +50466,13 @@
       </c>
       <c r="B2216" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Ws -&gt; Watt second</v>
+        <v>Watt hour -&gt; W*h</v>
       </c>
       <c r="C2216" t="s">
-        <v>1099</v>
+        <v>1119</v>
       </c>
       <c r="D2216" t="s">
-        <v>1090</v>
+        <v>1121</v>
       </c>
       <c r="E2216">
         <v>1</v>
@@ -50493,13 +50487,13 @@
       </c>
       <c r="B2217" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Ws -&gt; WS</v>
+        <v>Watt hour -&gt; WATT HOUR</v>
       </c>
       <c r="C2217" t="s">
-        <v>1099</v>
+        <v>1119</v>
       </c>
       <c r="D2217" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E2217">
         <v>1</v>
@@ -50514,13 +50508,13 @@
       </c>
       <c r="B2218" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; Wh</v>
+        <v>Wh -&gt; Watt hour</v>
       </c>
       <c r="C2218" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D2218" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E2218">
         <v>1</v>
@@ -50535,10 +50529,10 @@
       </c>
       <c r="B2219" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; W*h</v>
+        <v>Wh -&gt; WH</v>
       </c>
       <c r="C2219" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D2219" t="s">
         <v>1123</v>
@@ -50556,13 +50550,13 @@
       </c>
       <c r="B2220" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Watt hour -&gt; WATT HOUR</v>
+        <v>W*h -&gt; Watt hour</v>
       </c>
       <c r="C2220" t="s">
         <v>1121</v>
       </c>
       <c r="D2220" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E2220">
         <v>1</v>
@@ -50577,13 +50571,13 @@
       </c>
       <c r="B2221" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Wh -&gt; Watt hour</v>
+        <v>W*h -&gt; W*H</v>
       </c>
       <c r="C2221" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D2221" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="E2221">
         <v>1</v>
@@ -50598,10 +50592,10 @@
       </c>
       <c r="B2222" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Wh -&gt; WH</v>
+        <v>gram calorie -&gt; cal</v>
       </c>
       <c r="C2222" t="s">
-        <v>1122</v>
+        <v>1093</v>
       </c>
       <c r="D2222" t="s">
         <v>1125</v>
@@ -50619,13 +50613,13 @@
       </c>
       <c r="B2223" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*h -&gt; Watt hour</v>
+        <v>gram calorie -&gt; calorie</v>
       </c>
       <c r="C2223" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
       <c r="D2223" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="E2223">
         <v>1</v>
@@ -50640,13 +50634,13 @@
       </c>
       <c r="B2224" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>W*h -&gt; W*H</v>
+        <v>gram calorie -&gt; Calorie</v>
       </c>
       <c r="C2224" t="s">
-        <v>1123</v>
+        <v>1093</v>
       </c>
       <c r="D2224" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E2224">
         <v>1</v>
@@ -50661,13 +50655,13 @@
       </c>
       <c r="B2225" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; cal</v>
+        <v>gram calorie -&gt; GRAM CALORIE</v>
       </c>
       <c r="C2225" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D2225" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E2225">
         <v>1</v>
@@ -50682,19 +50676,19 @@
       </c>
       <c r="B2226" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; calorie</v>
+        <v>gram calorie -&gt; Joule</v>
       </c>
       <c r="C2226" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D2226" t="s">
-        <v>1128</v>
+        <v>1086</v>
       </c>
       <c r="E2226">
         <v>1</v>
       </c>
       <c r="F2226">
-        <v>1</v>
+        <v>4.1840000000000002</v>
       </c>
     </row>
     <row r="2227" spans="1:6" x14ac:dyDescent="0.35">
@@ -50703,13 +50697,13 @@
       </c>
       <c r="B2227" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; Calorie</v>
+        <v>cal -&gt; gram calorie</v>
       </c>
       <c r="C2227" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="D2227" t="s">
-        <v>1129</v>
+        <v>1093</v>
       </c>
       <c r="E2227">
         <v>1</v>
@@ -50724,13 +50718,13 @@
       </c>
       <c r="B2228" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; GRAM CALORIE</v>
+        <v>cal -&gt; CAL</v>
       </c>
       <c r="C2228" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="D2228" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E2228">
         <v>1</v>
@@ -50745,19 +50739,19 @@
       </c>
       <c r="B2229" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>gram calorie -&gt; Joule</v>
+        <v>calorie -&gt; gram calorie</v>
       </c>
       <c r="C2229" t="s">
-        <v>1095</v>
+        <v>1126</v>
       </c>
       <c r="D2229" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="E2229">
         <v>1</v>
       </c>
       <c r="F2229">
-        <v>4.1840000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2230" spans="1:6" x14ac:dyDescent="0.35">
@@ -50766,13 +50760,13 @@
       </c>
       <c r="B2230" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>cal -&gt; gram calorie</v>
+        <v>calorie -&gt; CALORIE</v>
       </c>
       <c r="C2230" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D2230" t="s">
-        <v>1095</v>
+        <v>1130</v>
       </c>
       <c r="E2230">
         <v>1</v>
@@ -50787,13 +50781,13 @@
       </c>
       <c r="B2231" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>cal -&gt; CAL</v>
+        <v>Calorie -&gt; gram calorie</v>
       </c>
       <c r="C2231" t="s">
         <v>1127</v>
       </c>
       <c r="D2231" t="s">
-        <v>1131</v>
+        <v>1093</v>
       </c>
       <c r="E2231">
         <v>1</v>
@@ -50808,13 +50802,13 @@
       </c>
       <c r="B2232" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>calorie -&gt; gram calorie</v>
+        <v>Calorie -&gt; CALORIE</v>
       </c>
       <c r="C2232" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D2232" t="s">
-        <v>1095</v>
+        <v>1130</v>
       </c>
       <c r="E2232">
         <v>1</v>
@@ -50829,13 +50823,13 @@
       </c>
       <c r="B2233" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>calorie -&gt; CALORIE</v>
+        <v>JOULE -&gt; Joule</v>
       </c>
       <c r="C2233" t="s">
-        <v>1128</v>
+        <v>1092</v>
       </c>
       <c r="D2233" t="s">
-        <v>1132</v>
+        <v>1086</v>
       </c>
       <c r="E2233">
         <v>1</v>
@@ -50850,13 +50844,13 @@
       </c>
       <c r="B2234" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Calorie -&gt; gram calorie</v>
+        <v>WATT SECOND -&gt; Watt second</v>
       </c>
       <c r="C2234" t="s">
-        <v>1129</v>
+        <v>1098</v>
       </c>
       <c r="D2234" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E2234">
         <v>1</v>
@@ -50871,13 +50865,13 @@
       </c>
       <c r="B2235" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>Calorie -&gt; CALORIE</v>
+        <v>N*M -&gt; N*m</v>
       </c>
       <c r="C2235" t="s">
-        <v>1129</v>
+        <v>1099</v>
       </c>
       <c r="D2235" t="s">
-        <v>1132</v>
+        <v>1089</v>
       </c>
       <c r="E2235">
         <v>1</v>
@@ -50892,13 +50886,13 @@
       </c>
       <c r="B2236" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>JOULE -&gt; Joule</v>
+        <v>KG*M2/S2 -&gt; kg*m2/s2</v>
       </c>
       <c r="C2236" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="D2236" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E2236">
         <v>1</v>
@@ -50913,13 +50907,13 @@
       </c>
       <c r="B2237" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>WATT SECOND -&gt; Watt second</v>
+        <v>JOULES -&gt; Joules</v>
       </c>
       <c r="C2237" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D2237" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E2237">
         <v>1</v>
@@ -50934,13 +50928,13 @@
       </c>
       <c r="B2238" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>N*M -&gt; N*m</v>
+        <v>KILOJOULE -&gt; Kilojoule</v>
       </c>
       <c r="C2238" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="D2238" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E2238">
         <v>1</v>
@@ -50955,13 +50949,13 @@
       </c>
       <c r="B2239" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KG*M2/S2 -&gt; kg*m2/s2</v>
+        <v>KJ -&gt; kJ</v>
       </c>
       <c r="C2239" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D2239" t="s">
         <v>1102</v>
-      </c>
-      <c r="D2239" t="s">
-        <v>1092</v>
       </c>
       <c r="E2239">
         <v>1</v>
@@ -50976,13 +50970,13 @@
       </c>
       <c r="B2240" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>JOULES -&gt; Joules</v>
+        <v>KILOWATT HOUR -&gt; kilowatt hour</v>
       </c>
       <c r="C2240" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="D2240" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="E2240">
         <v>1</v>
@@ -50997,13 +50991,13 @@
       </c>
       <c r="B2241" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOJOULE -&gt; Kilojoule</v>
+        <v>KWH -&gt; kWh</v>
       </c>
       <c r="C2241" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="D2241" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
       <c r="E2241">
         <v>1</v>
@@ -51018,13 +51012,13 @@
       </c>
       <c r="B2242" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KJ -&gt; kJ</v>
+        <v>KW*H -&gt; kW*h</v>
       </c>
       <c r="C2242" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2242" t="s">
         <v>1108</v>
-      </c>
-      <c r="D2242" t="s">
-        <v>1104</v>
       </c>
       <c r="E2242">
         <v>1</v>
@@ -51039,13 +51033,13 @@
       </c>
       <c r="B2243" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KILOWATT HOUR -&gt; kilowatt hour</v>
+        <v>KILOVATIO HORA -&gt; kilovatio hora</v>
       </c>
       <c r="C2243" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D2243" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E2243">
         <v>1</v>
@@ -51060,13 +51054,13 @@
       </c>
       <c r="B2244" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KWH -&gt; kWh</v>
+        <v>BRITISH THERMAL UNIT -&gt; British thermal unit</v>
       </c>
       <c r="C2244" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D2244" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E2244">
         <v>1</v>
@@ -51081,13 +51075,13 @@
       </c>
       <c r="B2245" s="2" t="str">
         <f t="shared" si="34"/>
-        <v>KW*H -&gt; kW*h</v>
+        <v>WATT*SECOND -&gt; Watt*second</v>
       </c>
       <c r="C2245" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D2245" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="E2245">
         <v>1</v>
@@ -51101,14 +51095,14 @@
         <v>2244</v>
       </c>
       <c r="B2246" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>KILOVATIO HORA -&gt; kilovatio hora</v>
+        <f t="shared" ref="B2246:B2296" si="35">C2246&amp;" -&gt; " &amp;D2246</f>
+        <v>W*S -&gt; W*s</v>
       </c>
       <c r="C2246" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="D2246" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="E2246">
         <v>1</v>
@@ -51122,14 +51116,14 @@
         <v>2245</v>
       </c>
       <c r="B2247" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>BRITISH THERMAL UNIT -&gt; British thermal unit</v>
+        <f t="shared" si="35"/>
+        <v>WS -&gt; Ws</v>
       </c>
       <c r="C2247" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="D2247" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="E2247">
         <v>1</v>
@@ -51143,14 +51137,14 @@
         <v>2246</v>
       </c>
       <c r="B2248" s="2" t="str">
-        <f t="shared" si="34"/>
-        <v>WATT*SECOND -&gt; Watt*second</v>
+        <f t="shared" si="35"/>
+        <v>WATT HOUR -&gt; Watt hour</v>
       </c>
       <c r="C2248" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="D2248" t="s">
-        <v>1097</v>
+        <v>1119</v>
       </c>
       <c r="E2248">
         <v>1</v>
@@ -51164,14 +51158,14 @@
         <v>2247</v>
       </c>
       <c r="B2249" s="2" t="str">
-        <f t="shared" ref="B2249:B2299" si="35">C2249&amp;" -&gt; " &amp;D2249</f>
-        <v>W*S -&gt; W*s</v>
+        <f t="shared" si="35"/>
+        <v>WH -&gt; Wh</v>
       </c>
       <c r="C2249" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="D2249" t="s">
-        <v>1098</v>
+        <v>1120</v>
       </c>
       <c r="E2249">
         <v>1</v>
@@ -51186,13 +51180,13 @@
       </c>
       <c r="B2250" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WS -&gt; Ws</v>
+        <v>W*H -&gt; W*h</v>
       </c>
       <c r="C2250" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="D2250" t="s">
-        <v>1099</v>
+        <v>1121</v>
       </c>
       <c r="E2250">
         <v>1</v>
@@ -51207,13 +51201,13 @@
       </c>
       <c r="B2251" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WATT HOUR -&gt; Watt hour</v>
+        <v>GRAM CALORIE -&gt; gram calorie</v>
       </c>
       <c r="C2251" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="D2251" t="s">
-        <v>1121</v>
+        <v>1093</v>
       </c>
       <c r="E2251">
         <v>1</v>
@@ -51228,13 +51222,13 @@
       </c>
       <c r="B2252" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WH -&gt; Wh</v>
+        <v>CAL -&gt; cal</v>
       </c>
       <c r="C2252" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D2252" t="s">
         <v>1125</v>
-      </c>
-      <c r="D2252" t="s">
-        <v>1122</v>
       </c>
       <c r="E2252">
         <v>1</v>
@@ -51249,13 +51243,13 @@
       </c>
       <c r="B2253" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>W*H -&gt; W*h</v>
+        <v>CALORIE -&gt; calorie</v>
       </c>
       <c r="C2253" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D2253" t="s">
         <v>1126</v>
-      </c>
-      <c r="D2253" t="s">
-        <v>1123</v>
       </c>
       <c r="E2253">
         <v>1</v>
@@ -51270,13 +51264,13 @@
       </c>
       <c r="B2254" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>GRAM CALORIE -&gt; gram calorie</v>
+        <v>CALORIE -&gt; Calorie</v>
       </c>
       <c r="C2254" t="s">
         <v>1130</v>
       </c>
       <c r="D2254" t="s">
-        <v>1095</v>
+        <v>1127</v>
       </c>
       <c r="E2254">
         <v>1</v>
@@ -51291,13 +51285,13 @@
       </c>
       <c r="B2255" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CAL -&gt; cal</v>
+        <v>Horsepower -&gt; hp</v>
       </c>
       <c r="C2255" t="s">
         <v>1131</v>
       </c>
       <c r="D2255" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="E2255">
         <v>1</v>
@@ -51312,13 +51306,13 @@
       </c>
       <c r="B2256" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CALORIE -&gt; calorie</v>
+        <v>Horsepower -&gt; HORSEPOWER</v>
       </c>
       <c r="C2256" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D2256" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
       <c r="E2256">
         <v>1</v>
@@ -51333,19 +51327,19 @@
       </c>
       <c r="B2257" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>CALORIE -&gt; Calorie</v>
+        <v>Horsepower -&gt; Watt</v>
       </c>
       <c r="C2257" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D2257" t="s">
-        <v>1129</v>
+        <v>1058</v>
       </c>
       <c r="E2257">
         <v>1</v>
       </c>
       <c r="F2257">
-        <v>1</v>
+        <v>745.7</v>
       </c>
     </row>
     <row r="2258" spans="1:6" x14ac:dyDescent="0.35">
@@ -51354,13 +51348,13 @@
       </c>
       <c r="B2258" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; hp</v>
+        <v>hp -&gt; Horsepower</v>
       </c>
       <c r="C2258" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D2258" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="E2258">
         <v>1</v>
@@ -51375,13 +51369,13 @@
       </c>
       <c r="B2259" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; HORSEPOWER</v>
+        <v>hp -&gt; HP</v>
       </c>
       <c r="C2259" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D2259" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="E2259">
         <v>1</v>
@@ -51396,19 +51390,19 @@
       </c>
       <c r="B2260" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Horsepower -&gt; Watt</v>
+        <v>Watt -&gt; W</v>
       </c>
       <c r="C2260" t="s">
-        <v>1133</v>
+        <v>1058</v>
       </c>
       <c r="D2260" t="s">
-        <v>1060</v>
+        <v>70</v>
       </c>
       <c r="E2260">
         <v>1</v>
       </c>
       <c r="F2260">
-        <v>745.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2261" spans="1:6" x14ac:dyDescent="0.35">
@@ -51417,13 +51411,13 @@
       </c>
       <c r="B2261" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>hp -&gt; Horsepower</v>
+        <v>Watt -&gt; J/s</v>
       </c>
       <c r="C2261" t="s">
-        <v>1134</v>
+        <v>1058</v>
       </c>
       <c r="D2261" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E2261">
         <v>1</v>
@@ -51438,10 +51432,10 @@
       </c>
       <c r="B2262" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>hp -&gt; HP</v>
+        <v>Watt -&gt; WATT</v>
       </c>
       <c r="C2262" t="s">
-        <v>1134</v>
+        <v>1058</v>
       </c>
       <c r="D2262" t="s">
         <v>1136</v>
@@ -51459,19 +51453,19 @@
       </c>
       <c r="B2263" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; W</v>
+        <v>Watt -&gt; Horsepower</v>
       </c>
       <c r="C2263" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D2263" t="s">
-        <v>70</v>
+        <v>1131</v>
       </c>
       <c r="E2263">
         <v>1</v>
       </c>
       <c r="F2263">
-        <v>1</v>
+        <v>1.341021858656296E-3</v>
       </c>
     </row>
     <row r="2264" spans="1:6" x14ac:dyDescent="0.35">
@@ -51480,13 +51474,13 @@
       </c>
       <c r="B2264" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; J/s</v>
+        <v>J/s -&gt; Watt</v>
       </c>
       <c r="C2264" t="s">
-        <v>1060</v>
+        <v>1135</v>
       </c>
       <c r="D2264" t="s">
-        <v>1137</v>
+        <v>1058</v>
       </c>
       <c r="E2264">
         <v>1</v>
@@ -51501,13 +51495,13 @@
       </c>
       <c r="B2265" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; WATT</v>
+        <v>J/s -&gt; J/S</v>
       </c>
       <c r="C2265" t="s">
-        <v>1060</v>
+        <v>1135</v>
       </c>
       <c r="D2265" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="E2265">
         <v>1</v>
@@ -51522,19 +51516,19 @@
       </c>
       <c r="B2266" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>Watt -&gt; Horsepower</v>
+        <v>HORSEPOWER -&gt; Horsepower</v>
       </c>
       <c r="C2266" t="s">
-        <v>1060</v>
+        <v>1133</v>
       </c>
       <c r="D2266" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E2266">
         <v>1</v>
       </c>
       <c r="F2266">
-        <v>1.341021858656296E-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2267" spans="1:6" x14ac:dyDescent="0.35">
@@ -51543,13 +51537,13 @@
       </c>
       <c r="B2267" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/s -&gt; Watt</v>
+        <v>HP -&gt; hp</v>
       </c>
       <c r="C2267" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D2267" t="s">
-        <v>1060</v>
+        <v>1132</v>
       </c>
       <c r="E2267">
         <v>1</v>
@@ -51564,13 +51558,13 @@
       </c>
       <c r="B2268" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/s -&gt; J/S</v>
+        <v>WATT -&gt; Watt</v>
       </c>
       <c r="C2268" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D2268" t="s">
-        <v>1139</v>
+        <v>1058</v>
       </c>
       <c r="E2268">
         <v>1</v>
@@ -51585,13 +51579,13 @@
       </c>
       <c r="B2269" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>HORSEPOWER -&gt; Horsepower</v>
+        <v>J/S -&gt; J/s</v>
       </c>
       <c r="C2269" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D2269" t="s">
         <v>1135</v>
-      </c>
-      <c r="D2269" t="s">
-        <v>1133</v>
       </c>
       <c r="E2269">
         <v>1</v>
@@ -51606,13 +51600,13 @@
       </c>
       <c r="B2270" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>HP -&gt; hp</v>
+        <v>stb/day/psi -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2270" t="s">
-        <v>1136</v>
+        <v>994</v>
       </c>
       <c r="D2270" t="s">
-        <v>1134</v>
+        <v>1014</v>
       </c>
       <c r="E2270">
         <v>1</v>
@@ -51627,13 +51621,13 @@
       </c>
       <c r="B2271" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>WATT -&gt; Watt</v>
+        <v>stb/day/psi -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2271" t="s">
-        <v>1138</v>
+        <v>994</v>
       </c>
       <c r="D2271" t="s">
-        <v>1060</v>
+        <v>1015</v>
       </c>
       <c r="E2271">
         <v>1</v>
@@ -51648,13 +51642,13 @@
       </c>
       <c r="B2272" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>J/S -&gt; J/s</v>
+        <v>STB/DAY-PSI -&gt; stb/day/psi</v>
       </c>
       <c r="C2272" t="s">
-        <v>1139</v>
+        <v>1014</v>
       </c>
       <c r="D2272" t="s">
-        <v>1137</v>
+        <v>994</v>
       </c>
       <c r="E2272">
         <v>1</v>
@@ -51669,10 +51663,10 @@
       </c>
       <c r="B2273" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>stb/day/psi -&gt; STB/DAY-PSI</v>
+        <v>STB/DAY-PSI -&gt; STB/DAY-PSI</v>
       </c>
       <c r="C2273" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="D2273" t="s">
         <v>1014</v>
@@ -51690,13 +51684,13 @@
       </c>
       <c r="B2274" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>stb/day/psi -&gt; STB/DAY-PSIA</v>
+        <v>STB/DAY-PSIA -&gt; stb/day/psi</v>
       </c>
       <c r="C2274" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D2274" t="s">
         <v>994</v>
-      </c>
-      <c r="D2274" t="s">
-        <v>1015</v>
       </c>
       <c r="E2274">
         <v>1</v>
@@ -51711,13 +51705,13 @@
       </c>
       <c r="B2275" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSI -&gt; stb/day/psi</v>
+        <v>STB/DAY-PSIA -&gt; STB/DAY-PSIA</v>
       </c>
       <c r="C2275" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D2275" t="s">
-        <v>994</v>
+        <v>1015</v>
       </c>
       <c r="E2275">
         <v>1</v>
@@ -51732,13 +51726,13 @@
       </c>
       <c r="B2276" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSI -&gt; STB/DAY-PSI</v>
+        <v>sm3/day/bar -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2276" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
       <c r="D2276" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="E2276">
         <v>1</v>
@@ -51753,13 +51747,13 @@
       </c>
       <c r="B2277" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSIA -&gt; stb/day/psi</v>
+        <v>sm3/day/bar -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2277" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D2277" t="s">
-        <v>994</v>
+        <v>1023</v>
       </c>
       <c r="E2277">
         <v>1</v>
@@ -51774,13 +51768,13 @@
       </c>
       <c r="B2278" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>STB/DAY-PSIA -&gt; STB/DAY-PSIA</v>
+        <v>sm3/day/bar -&gt; sm3/day/barsa</v>
       </c>
       <c r="C2278" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D2278" t="s">
-        <v>1015</v>
+        <v>1138</v>
       </c>
       <c r="E2278">
         <v>1</v>
@@ -51795,13 +51789,13 @@
       </c>
       <c r="B2279" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; SM3/DAY-BAR</v>
+        <v>SM3/DAY-BAR -&gt; sm3/day/bar</v>
       </c>
       <c r="C2279" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D2279" t="s">
         <v>1002</v>
-      </c>
-      <c r="D2279" t="s">
-        <v>1022</v>
       </c>
       <c r="E2279">
         <v>1</v>
@@ -51816,13 +51810,13 @@
       </c>
       <c r="B2280" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; SM3/DAY-BARA</v>
+        <v>SM3/DAY-BAR -&gt; SM3/DAY-BAR</v>
       </c>
       <c r="C2280" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="D2280" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E2280">
         <v>1</v>
@@ -51837,13 +51831,13 @@
       </c>
       <c r="B2281" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/bar -&gt; sm3/day/barsa</v>
+        <v>SM3/DAY-BARA -&gt; sm3/day/bar</v>
       </c>
       <c r="C2281" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D2281" t="s">
         <v>1002</v>
-      </c>
-      <c r="D2281" t="s">
-        <v>1140</v>
       </c>
       <c r="E2281">
         <v>1</v>
@@ -51858,13 +51852,13 @@
       </c>
       <c r="B2282" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BAR -&gt; sm3/day/bar</v>
+        <v>SM3/DAY-BARA -&gt; SM3/DAY-BARA</v>
       </c>
       <c r="C2282" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D2282" t="s">
-        <v>1002</v>
+        <v>1023</v>
       </c>
       <c r="E2282">
         <v>1</v>
@@ -51879,13 +51873,13 @@
       </c>
       <c r="B2283" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BAR -&gt; SM3/DAY-BAR</v>
+        <v>sm3/day/barsa -&gt; sm3/day/bar</v>
       </c>
       <c r="C2283" t="s">
-        <v>1022</v>
+        <v>1138</v>
       </c>
       <c r="D2283" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="E2283">
         <v>1</v>
@@ -51900,13 +51894,13 @@
       </c>
       <c r="B2284" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BARA -&gt; sm3/day/bar</v>
+        <v>sm3/day/barsa -&gt; SM3/DAY/BARSA</v>
       </c>
       <c r="C2284" t="s">
-        <v>1023</v>
+        <v>1138</v>
       </c>
       <c r="D2284" t="s">
-        <v>1002</v>
+        <v>1139</v>
       </c>
       <c r="E2284">
         <v>1</v>
@@ -51921,13 +51915,13 @@
       </c>
       <c r="B2285" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-BARA -&gt; SM3/DAY-BARA</v>
+        <v>sm3/day/kPa -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2285" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="D2285" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E2285">
         <v>1</v>
@@ -51942,13 +51936,13 @@
       </c>
       <c r="B2286" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/barsa -&gt; sm3/day/bar</v>
+        <v>SM3/DAY-KPA -&gt; sm3/day/kPa</v>
       </c>
       <c r="C2286" t="s">
-        <v>1140</v>
+        <v>1026</v>
       </c>
       <c r="D2286" t="s">
-        <v>1002</v>
+        <v>1055</v>
       </c>
       <c r="E2286">
         <v>1</v>
@@ -51963,13 +51957,13 @@
       </c>
       <c r="B2287" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/barsa -&gt; SM3/DAY/BARSA</v>
+        <v>SM3/DAY-KPA -&gt; SM3/DAY-KPA</v>
       </c>
       <c r="C2287" t="s">
-        <v>1140</v>
+        <v>1026</v>
       </c>
       <c r="D2287" t="s">
-        <v>1141</v>
+        <v>1026</v>
       </c>
       <c r="E2287">
         <v>1</v>
@@ -51984,13 +51978,13 @@
       </c>
       <c r="B2288" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>sm3/day/kPa -&gt; SM3/DAY-KPA</v>
+        <v>SM3/DAY/BARSA -&gt; sm3/day/barsa</v>
       </c>
       <c r="C2288" t="s">
-        <v>1057</v>
+        <v>1139</v>
       </c>
       <c r="D2288" t="s">
-        <v>1026</v>
+        <v>1138</v>
       </c>
       <c r="E2288">
         <v>1</v>
@@ -52005,19 +51999,19 @@
       </c>
       <c r="B2289" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-KPA -&gt; sm3/day/kPa</v>
+        <v>F/ft -&gt; C/m</v>
       </c>
       <c r="C2289" t="s">
-        <v>1026</v>
+        <v>1140</v>
       </c>
       <c r="D2289" t="s">
-        <v>1057</v>
+        <v>1141</v>
       </c>
       <c r="E2289">
         <v>1</v>
       </c>
       <c r="F2289">
-        <v>1</v>
+        <v>1.8226888305628459</v>
       </c>
     </row>
     <row r="2290" spans="1:6" x14ac:dyDescent="0.35">
@@ -52026,19 +52020,19 @@
       </c>
       <c r="B2290" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY-KPA -&gt; SM3/DAY-KPA</v>
+        <v>C/m -&gt; F/ft</v>
       </c>
       <c r="C2290" t="s">
-        <v>1026</v>
+        <v>1141</v>
       </c>
       <c r="D2290" t="s">
-        <v>1026</v>
+        <v>1140</v>
       </c>
       <c r="E2290">
         <v>1</v>
       </c>
       <c r="F2290">
-        <v>1</v>
+        <v>0.54864000000000013</v>
       </c>
     </row>
     <row r="2291" spans="1:6" x14ac:dyDescent="0.35">
@@ -52047,19 +52041,19 @@
       </c>
       <c r="B2291" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>SM3/DAY/BARSA -&gt; sm3/day/barsa</v>
+        <v>F/yd -&gt; F/in</v>
       </c>
       <c r="C2291" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D2291" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="E2291">
         <v>1</v>
       </c>
       <c r="F2291">
-        <v>1</v>
+        <v>2.777777777777778E-2</v>
       </c>
     </row>
     <row r="2292" spans="1:6" x14ac:dyDescent="0.35">
@@ -52068,19 +52062,19 @@
       </c>
       <c r="B2292" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/ft -&gt; C/m</v>
+        <v>F/ft -&gt; C/km</v>
       </c>
       <c r="C2292" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D2292" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E2292">
         <v>1</v>
       </c>
       <c r="F2292">
-        <v>1.8226888305628459</v>
+        <v>1822.6888305628461</v>
       </c>
     </row>
     <row r="2293" spans="1:6" x14ac:dyDescent="0.35">
@@ -52089,19 +52083,19 @@
       </c>
       <c r="B2293" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>C/m -&gt; F/ft</v>
+        <v>K/m -&gt; C/m</v>
       </c>
       <c r="C2293" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="D2293" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E2293">
         <v>1</v>
       </c>
       <c r="F2293">
-        <v>0.54864000000000013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2294" spans="1:6" x14ac:dyDescent="0.35">
@@ -52110,19 +52104,19 @@
       </c>
       <c r="B2294" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/yd -&gt; F/in</v>
+        <v>K/m -&gt; C/cm</v>
       </c>
       <c r="C2294" t="s">
         <v>1145</v>
       </c>
       <c r="D2294" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E2294">
         <v>1</v>
       </c>
       <c r="F2294">
-        <v>2.777777777777778E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="2295" spans="1:6" x14ac:dyDescent="0.35">
@@ -52131,19 +52125,19 @@
       </c>
       <c r="B2295" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>F/ft -&gt; C/km</v>
+        <v>C/min -&gt; C/hour</v>
       </c>
       <c r="C2295" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="D2295" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="E2295">
         <v>1</v>
       </c>
       <c r="F2295">
-        <v>1822.6888305628461</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2296" spans="1:6" x14ac:dyDescent="0.35">
@@ -52152,86 +52146,23 @@
       </c>
       <c r="B2296" s="2" t="str">
         <f t="shared" si="35"/>
-        <v>K/m -&gt; C/m</v>
+        <v>C/day -&gt; F/s</v>
       </c>
       <c r="C2296" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="D2296" t="s">
-        <v>1143</v>
+        <v>1150</v>
       </c>
       <c r="E2296">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F2296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2297" s="1">
-        <v>2295</v>
-      </c>
-      <c r="B2297" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>K/m -&gt; C/cm</v>
-      </c>
-      <c r="C2297" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D2297" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E2297">
-        <v>1</v>
-      </c>
-      <c r="F2297">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="2298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2298" s="1">
-        <v>2296</v>
-      </c>
-      <c r="B2298" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>C/min -&gt; C/hour</v>
-      </c>
-      <c r="C2298" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D2298" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E2298">
-        <v>1</v>
-      </c>
-      <c r="F2298">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2299" s="1">
-        <v>2297</v>
-      </c>
-      <c r="B2299" s="2" t="str">
-        <f t="shared" si="35"/>
-        <v>C/day -&gt; F/s</v>
-      </c>
-      <c r="C2299" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D2299" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E2299">
-        <v>250</v>
-      </c>
-      <c r="F2299">
         <v>5.208333333333333E-3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F20" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F2296" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91773BC-BD72-40CA-84F3-60D8D9552352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587C8CD-BED5-47E6-A946-7A97E9AE0989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5712" yWindow="528" windowWidth="19284" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20472" yWindow="396" windowWidth="19284" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4502" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="1156">
   <si>
     <t>source</t>
   </si>
@@ -3484,6 +3484,24 @@
   </si>
   <si>
     <t>BIT</t>
+  </si>
+  <si>
+    <t>MPH</t>
+  </si>
+  <si>
+    <t>KPH</t>
+  </si>
+  <si>
+    <t>mph</t>
+  </si>
+  <si>
+    <t>ft/sec</t>
+  </si>
+  <si>
+    <t>kph</t>
+  </si>
+  <si>
+    <t>km/day</t>
   </si>
 </sst>
 </file>
@@ -3843,13 +3861,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2249"/>
+  <dimension ref="A1:F2255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C687" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B717" sqref="B717"/>
+      <selection pane="bottomRight" activeCell="A2255" sqref="A2255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50015,7 +50033,7 @@
         <v>2197</v>
       </c>
       <c r="B2199" s="2" t="str">
-        <f t="shared" ref="B2199:B2249" si="35">C2199&amp;" -&gt; " &amp;D2199</f>
+        <f t="shared" ref="B2199:B2255" si="35">C2199&amp;" -&gt; " &amp;D2199</f>
         <v>W*S -&gt; W*s</v>
       </c>
       <c r="C2199" t="s">
@@ -51079,6 +51097,133 @@
       </c>
       <c r="F2249">
         <v>5.208333333333333E-3</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2250" s="1">
+        <v>2248</v>
+      </c>
+      <c r="B2250" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>MPH -&gt; KPH</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E2250">
+        <v>60</v>
+      </c>
+      <c r="F2250">
+        <v>96.560640000000006</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2251" s="1">
+        <v>2249</v>
+      </c>
+      <c r="B2251" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>mph -&gt; ft/sec</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E2251">
+        <v>60</v>
+      </c>
+      <c r="F2251">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2252" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B2252" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>kph -&gt; km/day</v>
+      </c>
+      <c r="C2252" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D2252" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E2252">
+        <v>1</v>
+      </c>
+      <c r="F2252">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2253" s="1">
+        <v>2251</v>
+      </c>
+      <c r="B2253" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>kg/m3 -&gt; psi/ft</v>
+      </c>
+      <c r="C2253" t="s">
+        <v>866</v>
+      </c>
+      <c r="D2253" t="s">
+        <v>869</v>
+      </c>
+      <c r="E2253">
+        <v>1000</v>
+      </c>
+      <c r="F2253">
+        <v>0.43352750400100398</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2254" s="1">
+        <v>2252</v>
+      </c>
+      <c r="B2254" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>kg/m3 -&gt; bar/m</v>
+      </c>
+      <c r="C2254" t="s">
+        <v>866</v>
+      </c>
+      <c r="D2254" t="s">
+        <v>875</v>
+      </c>
+      <c r="E2254">
+        <v>1000</v>
+      </c>
+      <c r="F2254">
+        <f>E2254/100000</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2255" s="1">
+        <v>2253</v>
+      </c>
+      <c r="B2255" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>lb/ft3 -&gt; psi/ft</v>
+      </c>
+      <c r="C2255" t="s">
+        <v>868</v>
+      </c>
+      <c r="D2255" t="s">
+        <v>869</v>
+      </c>
+      <c r="E2255">
+        <v>65</v>
+      </c>
+      <c r="F2255">
+        <v>0.45138888888888801</v>
       </c>
     </row>
   </sheetData>

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587C8CD-BED5-47E6-A946-7A97E9AE0989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8DF4A-59C8-4ED6-83EB-526EDC5D6819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20472" yWindow="396" windowWidth="19284" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3867,7 +3867,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2191" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2255" sqref="A2255"/>
+      <selection pane="bottomRight" activeCell="B2253" sqref="B2253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51201,8 +51201,8 @@
         <v>1000</v>
       </c>
       <c r="F2254">
-        <f>E2254/100000</f>
-        <v>0.01</v>
+        <f>E2254/100000*9.80665</f>
+        <v>9.8066500000000001E-2</v>
       </c>
     </row>
     <row r="2255" spans="1:6" x14ac:dyDescent="0.3">

--- a/tests/conversions_check.xlsx
+++ b/tests/conversions_check.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\unyts\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8DF4A-59C8-4ED6-83EB-526EDC5D6819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBB4A51-CDCF-4ECF-AC1D-E1B63FEDC00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20472" yWindow="396" windowWidth="19284" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3864,10 +3864,10 @@
   <dimension ref="A1:F2255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2191" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C548" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2253" sqref="B2253"/>
+      <selection pane="bottomRight" activeCell="D583" sqref="D583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16116,7 +16116,7 @@
         <v>1</v>
       </c>
       <c r="F583">
-        <v>1E-46</v>
+        <v>9.9999999999999998E-46</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.3">
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="F607">
-        <v>9.9999999999999999E+45</v>
+        <v>9.9999999999999993E+44</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.3">
